--- a/構文.xlsx
+++ b/構文.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7FCD43-1F2F-4477-9C9A-BE601FF1840C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4825AF-BDC0-4EB9-AC46-45EBDE349260}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21684" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21684" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vbs" sheetId="43" r:id="rId1"/>
@@ -2064,11 +2064,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N251"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6327,10 +6327,10 @@
       <c r="J171" s="7"/>
       <c r="K171" s="8"/>
       <c r="L171" s="2" t="str">
-        <f>"Dim sTrgtPath"&amp;CHAR(10)&amp;"For Each sTrgtPath In cTrgtPaths"&amp;CHAR(10)&amp;"MsgBox sTrgtPath"&amp;CHAR(10)&amp;"Next"</f>
+        <f>"Dim sTrgtPath"&amp;CHAR(10)&amp;"For Each sTrgtPath In cTrgtPaths"&amp;CHAR(10)&amp;CHAR(9)&amp;"MsgBox sTrgtPath"&amp;CHAR(10)&amp;"Next"</f>
         <v>Dim sTrgtPath
 For Each sTrgtPath In cTrgtPaths
-MsgBox sTrgtPath
+	MsgBox sTrgtPath
 Next</v>
       </c>
       <c r="M171" s="13" t="s">
@@ -7939,12 +7939,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE88FAF-CBE5-4D11-9E2A-3AD9DCB1A658}">
   <dimension ref="A1:M494"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="N251" sqref="N251"/>
       <selection pane="topRight" activeCell="N251" sqref="N251"/>
       <selection pane="bottomLeft" activeCell="N251" sqref="N251"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="10.199999999999999" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>

--- a/構文.xlsx
+++ b/構文.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4825AF-BDC0-4EB9-AC46-45EBDE349260}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4072CDCE-5DD5-4E1F-B094-F9C4B60D4117}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21684" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21684" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vbs" sheetId="43" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">vba!$A$1:$M$494</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">vbs!$A$1:$M$250</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">vbs!$A$1:$M$251</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">vba!$A$1:$M$494</definedName>
     <definedName name="testname01">#REF!</definedName>
     <definedName name="testname03">!$A$1:$B$2</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="452">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -2062,13 +2062,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C283D8-63B4-4DA1-B009-3824AF0D9D0F}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N251"/>
+  <dimension ref="A1:N252"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="11" ySplit="1" topLeftCell="L146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="L191" sqref="L191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6578,12 +6578,12 @@
         <v>171</v>
       </c>
       <c r="N181" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -6596,30 +6596,35 @@
       <c r="J182" s="7"/>
       <c r="K182" s="8"/>
       <c r="L182" s="2" t="str">
-        <f>"Application.SendKeys ""+{DOWN}"", True"</f>
-        <v>Application.SendKeys "+{DOWN}", True</v>
+        <f>".Range(""A1:B2"").FormatConditions.Add Type:=xlExpression, Formula1:=""=$A1=""""あ"""""""</f>
+        <v>.Range("A1:B2").FormatConditions.Add Type:=xlExpression, Formula1:="=$A1=""あ"""</v>
       </c>
       <c r="M182" s="13" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="N182" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="183" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="9"/>
-      <c r="B183" s="9"/>
-      <c r="C183" s="9"/>
-      <c r="D183" s="9"/>
-      <c r="E183" s="9"/>
-      <c r="F183" s="9"/>
-      <c r="G183" s="9"/>
-      <c r="H183" s="9"/>
-      <c r="I183" s="9"/>
-      <c r="J183" s="9"/>
-      <c r="K183" s="10"/>
-      <c r="L183" s="3"/>
-      <c r="M183" s="14" t="s">
+    <row r="183" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="7"/>
+      <c r="J183" s="7"/>
+      <c r="K183" s="8"/>
+      <c r="L183" s="2" t="str">
+        <f>".Range(""A1:B2"").FormatConditions(1).Interior.Color = RGB(255, 255, 0)"</f>
+        <v>.Range("A1:B2").FormatConditions(1).Interior.Color = RGB(255, 255, 0)</v>
+      </c>
+      <c r="M183" s="13" t="s">
         <v>171</v>
       </c>
       <c r="N183" s="19" t="s">
@@ -6628,7 +6633,7 @@
     </row>
     <row r="184" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -6641,35 +6646,30 @@
       <c r="J184" s="7"/>
       <c r="K184" s="8"/>
       <c r="L184" s="2" t="str">
-        <f>"Application.CommandBars.ExecuteMso ""CellsDelete"""</f>
-        <v>Application.CommandBars.ExecuteMso "CellsDelete"</v>
+        <f>".Range(""A1:B2"").FormatConditions(1).Font.Color = RGB(0, 255, 0)"</f>
+        <v>.Range("A1:B2").FormatConditions(1).Font.Color = RGB(0, 255, 0)</v>
       </c>
       <c r="M184" s="13" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="N184" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="185" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B185" s="7"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="7"/>
-      <c r="I185" s="7"/>
-      <c r="J185" s="7"/>
-      <c r="K185" s="8"/>
-      <c r="L185" s="2" t="str">
-        <f>".Range(""A1:B2"").FormatConditions.Add Type:=xlExpression, Formula1:=""=$A1=""""あ"""""""</f>
-        <v>.Range("A1:B2").FormatConditions.Add Type:=xlExpression, Formula1:="=$A1=""あ"""</v>
-      </c>
-      <c r="M185" s="13" t="s">
+    <row r="185" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="9"/>
+      <c r="B185" s="9"/>
+      <c r="C185" s="9"/>
+      <c r="D185" s="9"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+      <c r="H185" s="9"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="9"/>
+      <c r="K185" s="10"/>
+      <c r="L185" s="3"/>
+      <c r="M185" s="14" t="s">
         <v>171</v>
       </c>
       <c r="N185" s="19" t="s">
@@ -6678,7 +6678,7 @@
     </row>
     <row r="186" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -6691,81 +6691,76 @@
       <c r="J186" s="7"/>
       <c r="K186" s="8"/>
       <c r="L186" s="2" t="str">
-        <f>".Range(""A1:B2"").FormatConditions(1).Interior.Color = RGB(255, 255, 0)"</f>
-        <v>.Range("A1:B2").FormatConditions(1).Interior.Color = RGB(255, 255, 0)</v>
+        <f>"Application.SendKeys ""+{DOWN}"", True"</f>
+        <v>Application.SendKeys "+{DOWN}", True</v>
       </c>
       <c r="M186" s="13" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="N186" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B187" s="7"/>
-      <c r="C187" s="7"/>
-      <c r="D187" s="7"/>
-      <c r="E187" s="7"/>
-      <c r="F187" s="7"/>
-      <c r="G187" s="7"/>
-      <c r="H187" s="7"/>
-      <c r="I187" s="7"/>
-      <c r="J187" s="7"/>
-      <c r="K187" s="8"/>
-      <c r="L187" s="2" t="str">
-        <f>".Range(""A1:B2"").FormatConditions(1).Font.Color = RGB(0, 255, 0)"</f>
-        <v>.Range("A1:B2").FormatConditions(1).Font.Color = RGB(0, 255, 0)</v>
-      </c>
-      <c r="M187" s="13" t="s">
+    <row r="187" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="9"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="9"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="9"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="9"/>
+      <c r="K187" s="10"/>
+      <c r="L187" s="3"/>
+      <c r="M187" s="14" t="s">
         <v>171</v>
       </c>
       <c r="N187" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="9"/>
-      <c r="B188" s="9"/>
-      <c r="C188" s="9"/>
-      <c r="D188" s="9"/>
-      <c r="E188" s="9"/>
-      <c r="F188" s="9"/>
-      <c r="G188" s="9"/>
-      <c r="H188" s="9"/>
-      <c r="I188" s="9"/>
-      <c r="J188" s="9"/>
-      <c r="K188" s="10"/>
-      <c r="L188" s="3"/>
-      <c r="M188" s="14" t="s">
-        <v>171</v>
+    <row r="188" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B188" s="7"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7"/>
+      <c r="I188" s="7"/>
+      <c r="J188" s="7"/>
+      <c r="K188" s="8"/>
+      <c r="L188" s="2" t="str">
+        <f>"Application.CommandBars.ExecuteMso ""CellsDelete"""</f>
+        <v>Application.CommandBars.ExecuteMso "CellsDelete"</v>
+      </c>
+      <c r="M188" s="13" t="s">
+        <v>202</v>
       </c>
       <c r="N188" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="189" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B189" s="7"/>
-      <c r="C189" s="7"/>
-      <c r="D189" s="7"/>
-      <c r="E189" s="7"/>
-      <c r="F189" s="7"/>
-      <c r="G189" s="7"/>
-      <c r="H189" s="7"/>
-      <c r="I189" s="7"/>
-      <c r="J189" s="7"/>
-      <c r="K189" s="8"/>
-      <c r="L189" s="2" t="str">
-        <f>"CreateObject(""WScript.Network"").UserName"</f>
-        <v>CreateObject("WScript.Network").UserName</v>
-      </c>
-      <c r="M189" s="13" t="s">
-        <v>227</v>
+    <row r="189" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="9"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="9"/>
+      <c r="I189" s="9"/>
+      <c r="J189" s="9"/>
+      <c r="K189" s="10"/>
+      <c r="L189" s="3"/>
+      <c r="M189" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="N189" s="19" t="s">
         <v>241</v>
@@ -6773,7 +6768,7 @@
     </row>
     <row r="190" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -6786,50 +6781,57 @@
       <c r="J190" s="7"/>
       <c r="K190" s="8"/>
       <c r="L190" s="2" t="str">
+        <f>"CreateObject(""WScript.Network"").UserName"</f>
+        <v>CreateObject("WScript.Network").UserName</v>
+      </c>
+      <c r="M190" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="N190" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="7"/>
+      <c r="J191" s="7"/>
+      <c r="K191" s="8"/>
+      <c r="L191" s="2" t="str">
         <f>"""C:\Users\""&amp; CreateObject(""WScript.Network"").UserName &amp;""\AppData\Local\Temp"""</f>
         <v>"C:\Users\"&amp; CreateObject("WScript.Network").UserName &amp;"\AppData\Local\Temp"</v>
       </c>
-      <c r="M190" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="N190" s="19" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="9"/>
-      <c r="B191" s="9"/>
-      <c r="C191" s="9"/>
-      <c r="D191" s="9"/>
-      <c r="E191" s="9"/>
-      <c r="F191" s="9"/>
-      <c r="G191" s="9"/>
-      <c r="H191" s="9"/>
-      <c r="I191" s="9"/>
-      <c r="J191" s="9"/>
-      <c r="K191" s="10"/>
-      <c r="L191" s="3"/>
-      <c r="M191" s="14" t="s">
+      <c r="M191" s="13" t="s">
         <v>171</v>
       </c>
       <c r="N191" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="192" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="7"/>
-      <c r="B192" s="7"/>
-      <c r="C192" s="7"/>
-      <c r="D192" s="7"/>
-      <c r="E192" s="7"/>
-      <c r="F192" s="7"/>
-      <c r="G192" s="7"/>
-      <c r="H192" s="7"/>
-      <c r="I192" s="7"/>
-      <c r="J192" s="7"/>
-      <c r="K192" s="8"/>
-      <c r="L192" s="2"/>
-      <c r="M192" s="13"/>
+    <row r="192" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="9"/>
+      <c r="B192" s="9"/>
+      <c r="C192" s="9"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="9"/>
+      <c r="I192" s="9"/>
+      <c r="J192" s="9"/>
+      <c r="K192" s="10"/>
+      <c r="L192" s="3"/>
+      <c r="M192" s="14" t="s">
+        <v>171</v>
+      </c>
       <c r="N192" s="19" t="s">
         <v>241</v>
       </c>
@@ -7878,52 +7880,70 @@
         <v>241</v>
       </c>
     </row>
-    <row r="251" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="9" t="s">
+    <row r="251" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="7"/>
+      <c r="B251" s="7"/>
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="7"/>
+      <c r="F251" s="7"/>
+      <c r="G251" s="7"/>
+      <c r="H251" s="7"/>
+      <c r="I251" s="7"/>
+      <c r="J251" s="7"/>
+      <c r="K251" s="8"/>
+      <c r="L251" s="2"/>
+      <c r="M251" s="13"/>
+      <c r="N251" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A252" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B251" s="9" t="s">
+      <c r="B252" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C251" s="9" t="s">
+      <c r="C252" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D251" s="9" t="s">
+      <c r="D252" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E251" s="9" t="s">
+      <c r="E252" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F251" s="9" t="s">
+      <c r="F252" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="G251" s="9" t="s">
+      <c r="G252" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="H251" s="9" t="s">
+      <c r="H252" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="I251" s="9" t="s">
+      <c r="I252" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="J251" s="9" t="s">
+      <c r="J252" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="K251" s="10" t="s">
+      <c r="K252" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="L251" s="3" t="s">
+      <c r="L252" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="M251" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="N251" s="19" t="s">
+      <c r="M252" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="N252" s="19" t="s">
         <v>241</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M250" xr:uid="{55B719B5-9369-47E4-AD9E-79B8084D09F1}"/>
+  <autoFilter ref="A1:M251" xr:uid="{55B719B5-9369-47E4-AD9E-79B8084D09F1}"/>
   <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="M25" r:id="rId1" display="第二引数は表示ボタンの種類を指定" xr:uid="{93031CE0-CE41-4F19-841C-D8D482AFF491}"/>
@@ -7939,12 +7959,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE88FAF-CBE5-4D11-9E2A-3AD9DCB1A658}">
   <dimension ref="A1:M494"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="N251" sqref="N251"/>
       <selection pane="topRight" activeCell="N251" sqref="N251"/>
       <selection pane="bottomLeft" activeCell="N251" sqref="N251"/>
-      <selection pane="bottomRight" activeCell="L46" sqref="L46"/>
+      <selection pane="bottomRight" activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="10.199999999999999" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>

--- a/構文.xlsx
+++ b/構文.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4072CDCE-5DD5-4E1F-B094-F9C4B60D4117}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43507A3F-02B1-447D-9559-0A5AF4339B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21684" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2065,10 +2067,10 @@
   <dimension ref="A1:N252"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L191" sqref="L191"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/構文.xlsx
+++ b/構文.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43507A3F-02B1-447D-9559-0A5AF4339B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97053CC2-3896-40AA-8BDF-E8713059E1CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21684" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21684" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vbs" sheetId="43" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="457">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -1499,6 +1499,44 @@
   </si>
   <si>
     <t>On:1 Off:-4146</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ワード起動</t>
+    <rPh sb="3" eb="5">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ワードファイルを開く</t>
+    <rPh sb="8" eb="9">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テキスト読み込み</t>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ワードファイルを閉じる</t>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ワード終了</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2066,11 +2104,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N252"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="11" ySplit="1" topLeftCell="L159" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7959,14 +7997,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE88FAF-CBE5-4D11-9E2A-3AD9DCB1A658}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M494"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="11" ySplit="1" topLeftCell="L267" activePane="bottomRight" state="frozen"/>
       <selection activeCell="N251" sqref="N251"/>
       <selection pane="topRight" activeCell="N251" sqref="N251"/>
       <selection pane="bottomLeft" activeCell="N251" sqref="N251"/>
-      <selection pane="bottomRight" activeCell="M49" sqref="M49"/>
+      <selection pane="bottomRight" activeCell="L294" sqref="L294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="10.199999999999999" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -14331,7 +14370,9 @@
       </c>
     </row>
     <row r="290" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A290" s="7"/>
+      <c r="A290" s="7" t="s">
+        <v>452</v>
+      </c>
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
       <c r="D290" s="7"/>
@@ -14342,14 +14383,21 @@
       <c r="I290" s="7"/>
       <c r="J290" s="7"/>
       <c r="K290" s="8"/>
-      <c r="L290" s="2"/>
+      <c r="L290" s="2" t="str">
+        <f>"Dim wWord As Object" &amp; CHAR(10) &amp; "Set wWord = CreateObject(""Word.Application"")" &amp; CHAR(10) &amp; "wWord.Visible = False"</f>
+        <v>Dim wWord As Object
+Set wWord = CreateObject("Word.Application")
+wWord.Visible = False</v>
+      </c>
       <c r="M290" s="13" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="7"/>
-      <c r="B291" s="7"/>
+      <c r="B291" s="7" t="s">
+        <v>453</v>
+      </c>
       <c r="C291" s="7"/>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
@@ -14359,14 +14407,20 @@
       <c r="I291" s="7"/>
       <c r="J291" s="7"/>
       <c r="K291" s="8"/>
-      <c r="L291" s="2"/>
+      <c r="L291" s="2" t="str">
+        <f>"Dim dDoc As Object" &amp; CHAR(10) &amp; "Set dDoc = wWord.Documents.Open(""sFilePath"")"</f>
+        <v>Dim dDoc As Object
+Set dDoc = wWord.Documents.Open("sFilePath")</v>
+      </c>
       <c r="M291" s="13" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="292" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="7"/>
-      <c r="B292" s="7"/>
+      <c r="B292" s="7" t="s">
+        <v>454</v>
+      </c>
       <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
@@ -14376,14 +14430,22 @@
       <c r="I292" s="7"/>
       <c r="J292" s="7"/>
       <c r="K292" s="8"/>
-      <c r="L292" s="2"/>
+      <c r="L292" s="2" t="str">
+        <f>"Dim sParagraph As Object" &amp; CHAR(10) &amp; "For Each sParagraph In dDoc.Paragraphs" &amp; CHAR(10) &amp; CHAR(9) &amp; "'～処理～" &amp; CHAR(10) &amp; "Next sParagraph"</f>
+        <v>Dim sParagraph As Object
+For Each sParagraph In dDoc.Paragraphs
+	'～処理～
+Next sParagraph</v>
+      </c>
       <c r="M292" s="13" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="293" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="7"/>
-      <c r="B293" s="7"/>
+      <c r="B293" s="7" t="s">
+        <v>455</v>
+      </c>
       <c r="C293" s="7"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
@@ -14393,14 +14455,20 @@
       <c r="I293" s="7"/>
       <c r="J293" s="7"/>
       <c r="K293" s="8"/>
-      <c r="L293" s="2"/>
+      <c r="L293" s="2" t="str">
+        <f>"dDoc.Close" &amp; CHAR(10) &amp; "Set dDoc = Nothing"</f>
+        <v>dDoc.Close
+Set dDoc = Nothing</v>
+      </c>
       <c r="M293" s="13" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="294" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="7"/>
-      <c r="B294" s="7"/>
+      <c r="B294" s="7" t="s">
+        <v>456</v>
+      </c>
       <c r="C294" s="7"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
@@ -14410,7 +14478,12 @@
       <c r="I294" s="7"/>
       <c r="J294" s="7"/>
       <c r="K294" s="8"/>
-      <c r="L294" s="2"/>
+      <c r="L294" s="2" t="str">
+        <f>"wWord.Visible = False" &amp; CHAR(10) &amp; "wWord.Quit" &amp; CHAR(10) &amp; "Set wWord = Nothing"</f>
+        <v>wWord.Visible = False
+wWord.Quit
+Set wWord = Nothing</v>
+      </c>
       <c r="M294" s="13" t="s">
         <v>171</v>
       </c>

--- a/構文.xlsx
+++ b/構文.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97053CC2-3896-40AA-8BDF-E8713059E1CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E13ACFE-DDD9-41E2-8B83-FC2154B7F31A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21684" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="vba" sheetId="44" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">vba!$A$1:$M$494</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">vba!$A$1:$M$495</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">vbs!$A$1:$M$251</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">vba!$A$1:$M$494</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">vba!$A$1:$M$495</definedName>
     <definedName name="testname01">#REF!</definedName>
     <definedName name="testname03">!$A$1:$B$2</definedName>
   </definedNames>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="460">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -1536,6 +1536,24 @@
     <t>ワード終了</t>
     <rPh sb="3" eb="5">
       <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>=5、Len("あaＢ")=3、LenB("あaＢ")=6</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LenB(StrConv("あaＢ", vbFromUnicode))</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列長</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チョウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2105,10 +2123,10 @@
   <dimension ref="A1:N252"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L159" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A193" sqref="A193"/>
+      <selection pane="bottomRight" activeCell="L174" sqref="L174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7998,14 +8016,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE88FAF-CBE5-4D11-9E2A-3AD9DCB1A658}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M494"/>
+  <dimension ref="A1:M495"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L267" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L288" activePane="bottomRight" state="frozen"/>
       <selection activeCell="N251" sqref="N251"/>
       <selection pane="topRight" activeCell="N251" sqref="N251"/>
       <selection pane="bottomLeft" activeCell="N251" sqref="N251"/>
-      <selection pane="bottomRight" activeCell="L294" sqref="L294"/>
+      <selection pane="bottomRight" activeCell="L296" sqref="L296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="10.199999999999999" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -14488,25 +14506,27 @@
         <v>171</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A295" s="7"/>
-      <c r="B295" s="7"/>
-      <c r="C295" s="7"/>
-      <c r="D295" s="7"/>
-      <c r="E295" s="7"/>
-      <c r="F295" s="7"/>
-      <c r="G295" s="7"/>
-      <c r="H295" s="7"/>
-      <c r="I295" s="7"/>
-      <c r="J295" s="7"/>
-      <c r="K295" s="8"/>
-      <c r="L295" s="2"/>
-      <c r="M295" s="13" t="s">
+    <row r="295" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="21"/>
+      <c r="B295" s="21"/>
+      <c r="C295" s="21"/>
+      <c r="D295" s="21"/>
+      <c r="E295" s="21"/>
+      <c r="F295" s="21"/>
+      <c r="G295" s="21"/>
+      <c r="H295" s="21"/>
+      <c r="I295" s="21"/>
+      <c r="J295" s="21"/>
+      <c r="K295" s="22"/>
+      <c r="L295" s="23"/>
+      <c r="M295" s="24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="296" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A296" s="7"/>
+      <c r="A296" s="7" t="s">
+        <v>459</v>
+      </c>
       <c r="B296" s="7"/>
       <c r="C296" s="7"/>
       <c r="D296" s="7"/>
@@ -14517,9 +14537,11 @@
       <c r="I296" s="7"/>
       <c r="J296" s="7"/>
       <c r="K296" s="8"/>
-      <c r="L296" s="2"/>
+      <c r="L296" s="2" t="s">
+        <v>458</v>
+      </c>
       <c r="M296" s="13" t="s">
-        <v>171</v>
+        <v>457</v>
       </c>
     </row>
     <row r="297" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
@@ -17871,49 +17893,66 @@
         <v>171</v>
       </c>
     </row>
-    <row r="494" spans="1:13" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A494" s="9" t="s">
+    <row r="494" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A494" s="7"/>
+      <c r="B494" s="7"/>
+      <c r="C494" s="7"/>
+      <c r="D494" s="7"/>
+      <c r="E494" s="7"/>
+      <c r="F494" s="7"/>
+      <c r="G494" s="7"/>
+      <c r="H494" s="7"/>
+      <c r="I494" s="7"/>
+      <c r="J494" s="7"/>
+      <c r="K494" s="8"/>
+      <c r="L494" s="2"/>
+      <c r="M494" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A495" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B494" s="9" t="s">
+      <c r="B495" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C494" s="9" t="s">
+      <c r="C495" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D494" s="9" t="s">
+      <c r="D495" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E494" s="9" t="s">
+      <c r="E495" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F494" s="9" t="s">
+      <c r="F495" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="G494" s="9" t="s">
+      <c r="G495" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="H494" s="9" t="s">
+      <c r="H495" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="I494" s="9" t="s">
+      <c r="I495" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="J494" s="9" t="s">
+      <c r="J495" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="K494" s="10" t="s">
+      <c r="K495" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="L494" s="3" t="s">
+      <c r="L495" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="M494" s="14" t="s">
+      <c r="M495" s="14" t="s">
         <v>240</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M494" xr:uid="{84F79218-22F9-4493-B22D-1CD9745B86E9}"/>
+  <autoFilter ref="A1:M495" xr:uid="{84F79218-22F9-4493-B22D-1CD9745B86E9}"/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>

--- a/構文.xlsx
+++ b/構文.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E13ACFE-DDD9-41E2-8B83-FC2154B7F31A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FF1576-3187-4204-8E62-DFCDA53400BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21684" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8019,11 +8019,11 @@
   <dimension ref="A1:M495"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L288" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L258" activePane="bottomRight" state="frozen"/>
       <selection activeCell="N251" sqref="N251"/>
       <selection pane="topRight" activeCell="N251" sqref="N251"/>
       <selection pane="bottomLeft" activeCell="N251" sqref="N251"/>
-      <selection pane="bottomRight" activeCell="L296" sqref="L296"/>
+      <selection pane="bottomRight" activeCell="L285" sqref="L285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="10.199999999999999" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -14296,8 +14296,8 @@
       <c r="J285" s="7"/>
       <c r="K285" s="8"/>
       <c r="L285" s="2" t="str">
-        <f>"C:\Users\&amp; CreateObject(""WScript.Network"").UserName &amp;""\AppData\Local\Temp"""</f>
-        <v>C:\Users\&amp; CreateObject("WScript.Network").UserName &amp;"\AppData\Local\Temp"</v>
+        <f>"""C:\Users\"" &amp; CreateObject(""WScript.Network"").UserName &amp; ""\AppData\Local\Temp"""</f>
+        <v>"C:\Users\" &amp; CreateObject("WScript.Network").UserName &amp; "\AppData\Local\Temp"</v>
       </c>
       <c r="M285" s="13" t="s">
         <v>171</v>

--- a/構文.xlsx
+++ b/構文.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FF1576-3187-4204-8E62-DFCDA53400BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30657EE5-764E-4B7D-8790-5E4D94FE608F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21684" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21720" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vbs" sheetId="43" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="487">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -1540,20 +1540,202 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>=5、Len("あaＢ")=3、LenB("あaＢ")=6</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>LenB(StrConv("あaＢ", vbFromUnicode))</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>文字列長</t>
+    <t>=5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Len("あaＢ")</t>
+  </si>
+  <si>
+    <t>LenB("あaＢ")</t>
+  </si>
+  <si>
+    <t>LenB("あaＢ")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>=3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>=6（LenBは半角文字も2文字と判定する）</t>
+    <rPh sb="8" eb="10">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Selection.Areas.Count</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Selection.Areas(lAreaIdx).Count</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択範囲数（複数セル選択時）</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択範囲内のセル数（複数セル選択時）</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択範囲内のセル値（複数セル選択時）</t>
+    <rPh sb="8" eb="9">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Selection.Areas(lAreaIdx).Item(lItemIdx).Value</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>複数選択時における、lAreaIdx番目の選択範囲内にあるセル数（lAreaIdxは1オリジン）</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>複数選択時における、lAreaIdx番目の選択範囲内にあるlItemIdx個目のセル値（lAreaIdx/lItemIdxは1オリジン）</t>
+  </si>
+  <si>
+    <t>複数選択時における、選択範囲数</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列長 取得１</t>
+  </si>
+  <si>
+    <t>文字列長 取得１</t>
     <rPh sb="0" eb="3">
       <t>モジレツ</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>チョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列長 取得２</t>
+  </si>
+  <si>
+    <t>文字列長 取得２</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列長 取得３</t>
+  </si>
+  <si>
+    <t>文字列長 取得３</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LenByte("あaＢ")</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6（LenBは半角文字も2文字と判定する）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5（String.vbs/LenByte()を利用する）</t>
+    <rPh sb="23" eb="25">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LenB(""リンゴ"")</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>非表示セル判定</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Application.OnKey sShtcutKey, sShrcutMacroName</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ショートカットキー設定</t>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1702,7 +1884,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1776,6 +1958,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2123,10 +2308,10 @@
   <dimension ref="A1:N252"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L174" sqref="L174"/>
+      <selection pane="bottomRight" activeCell="L175" sqref="L175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4299,8 +4484,8 @@
       <c r="J87" s="7"/>
       <c r="K87" s="8"/>
       <c r="L87" s="2" t="str">
-        <f>"Len(""リンゴ"") '3"</f>
-        <v>Len("リンゴ") '3</v>
+        <f>"Len(""リンゴ"""</f>
+        <v>Len("リンゴ"</v>
       </c>
       <c r="M87" s="13">
         <v>3</v>
@@ -4323,9 +4508,8 @@
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="8"/>
-      <c r="L88" s="2" t="str">
-        <f>"LenB(""リンゴ"") '6"</f>
-        <v>LenB("リンゴ") '6</v>
+      <c r="L88" s="2" t="s">
+        <v>483</v>
       </c>
       <c r="M88" s="13">
         <v>6</v>
@@ -4374,8 +4558,8 @@
       <c r="J90" s="7"/>
       <c r="K90" s="8"/>
       <c r="L90" s="2" t="str">
-        <f>"Left(""abcd"", 3) 'abc"</f>
-        <v>Left("abcd", 3) 'abc</v>
+        <f>"Left(""abcd"", 3)"</f>
+        <v>Left("abcd", 3)</v>
       </c>
       <c r="M90" s="13" t="s">
         <v>223</v>
@@ -4436,7 +4620,7 @@
     </row>
     <row r="93" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
-        <v>108</v>
+        <v>473</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -4448,12 +4632,11 @@
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
       <c r="K93" s="8"/>
-      <c r="L93" s="2" t="str">
-        <f>"Asc(文字)"</f>
-        <v>Asc(文字)</v>
+      <c r="L93" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="M93" s="13" t="s">
-        <v>171</v>
+        <v>480</v>
       </c>
       <c r="N93" s="19" t="s">
         <v>241</v>
@@ -4461,7 +4644,7 @@
     </row>
     <row r="94" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
-        <v>109</v>
+        <v>475</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -4473,12 +4656,11 @@
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="8"/>
-      <c r="L94" s="2" t="str">
-        <f>"IsNumeric( sStr )"</f>
-        <v>IsNumeric( sStr )</v>
+      <c r="L94" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="M94" s="13" t="s">
-        <v>220</v>
+        <v>481</v>
       </c>
       <c r="N94" s="19" t="s">
         <v>241</v>
@@ -4486,7 +4668,7 @@
     </row>
     <row r="95" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
-        <v>110</v>
+        <v>477</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -4498,12 +4680,11 @@
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
       <c r="K95" s="8"/>
-      <c r="L95" s="2" t="str">
-        <f>"Chr(ASCIIコード)"</f>
-        <v>Chr(ASCIIコード)</v>
+      <c r="L95" s="2" t="s">
+        <v>479</v>
       </c>
       <c r="M95" s="13" t="s">
-        <v>221</v>
+        <v>482</v>
       </c>
       <c r="N95" s="19" t="s">
         <v>241</v>
@@ -4511,7 +4692,7 @@
     </row>
     <row r="96" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -4524,11 +4705,11 @@
       <c r="J96" s="7"/>
       <c r="K96" s="8"/>
       <c r="L96" s="2" t="str">
-        <f>"""a"" &amp; String(4, ""b"")"</f>
-        <v>"a" &amp; String(4, "b")</v>
-      </c>
-      <c r="M96" s="16" t="s">
-        <v>222</v>
+        <f>"Asc(文字)"</f>
+        <v>Asc(文字)</v>
+      </c>
+      <c r="M96" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="N96" s="19" t="s">
         <v>241</v>
@@ -4536,7 +4717,7 @@
     </row>
     <row r="97" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -4549,11 +4730,11 @@
       <c r="J97" s="7"/>
       <c r="K97" s="8"/>
       <c r="L97" s="2" t="str">
-        <f>"UCase(""aaa"")"</f>
-        <v>UCase("aaa")</v>
+        <f>"IsNumeric( sStr )"</f>
+        <v>IsNumeric( sStr )</v>
       </c>
       <c r="M97" s="13" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="N97" s="19" t="s">
         <v>241</v>
@@ -4561,7 +4742,7 @@
     </row>
     <row r="98" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -4574,11 +4755,11 @@
       <c r="J98" s="7"/>
       <c r="K98" s="8"/>
       <c r="L98" s="2" t="str">
-        <f>"LCase(""AAA"")"</f>
-        <v>LCase("AAA")</v>
+        <f>"Chr(ASCIIコード)"</f>
+        <v>Chr(ASCIIコード)</v>
       </c>
       <c r="M98" s="13" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="N98" s="19" t="s">
         <v>241</v>
@@ -4586,7 +4767,7 @@
     </row>
     <row r="99" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -4599,11 +4780,11 @@
       <c r="J99" s="7"/>
       <c r="K99" s="8"/>
       <c r="L99" s="2" t="str">
-        <f>"ReDim Preserve 配列名(5)"</f>
-        <v>ReDim Preserve 配列名(5)</v>
-      </c>
-      <c r="M99" s="13" t="s">
-        <v>217</v>
+        <f>"""a"" &amp; String(4, ""b"")"</f>
+        <v>"a" &amp; String(4, "b")</v>
+      </c>
+      <c r="M99" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="N99" s="19" t="s">
         <v>241</v>
@@ -4611,7 +4792,7 @@
     </row>
     <row r="100" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -4624,11 +4805,11 @@
       <c r="J100" s="7"/>
       <c r="K100" s="8"/>
       <c r="L100" s="2" t="str">
-        <f>"UBound(配列名)"</f>
-        <v>UBound(配列名)</v>
+        <f>"UCase(""aaa"")"</f>
+        <v>UCase("aaa")</v>
       </c>
       <c r="M100" s="13" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="N100" s="19" t="s">
         <v>241</v>
@@ -4636,7 +4817,7 @@
     </row>
     <row r="101" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -4649,14 +4830,8 @@
       <c r="J101" s="7"/>
       <c r="K101" s="8"/>
       <c r="L101" s="2" t="str">
-        <f>"Dim asArray()"&amp;CHAR(10)&amp;"ReDim asArray(-1)"&amp;CHAR(10)&amp;"If Ubound(asArray) = -1 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"'未定義配列"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"'定義済み配列"&amp;CHAR(10)&amp;"End If"</f>
-        <v>Dim asArray()
-ReDim asArray(-1)
-If Ubound(asArray) = -1 Then
-	'未定義配列
-Else
-	'定義済み配列
-End If</v>
+        <f>"LCase(""AAA"")"</f>
+        <v>LCase("AAA")</v>
       </c>
       <c r="M101" s="13" t="s">
         <v>171</v>
@@ -4667,7 +4842,7 @@
     </row>
     <row r="102" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -4680,11 +4855,11 @@
       <c r="J102" s="7"/>
       <c r="K102" s="8"/>
       <c r="L102" s="2" t="str">
-        <f>"Join(配列, "","")"</f>
-        <v>Join(配列, ",")</v>
+        <f>"ReDim Preserve 配列名(5)"</f>
+        <v>ReDim Preserve 配列名(5)</v>
       </c>
       <c r="M102" s="13" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="N102" s="19" t="s">
         <v>241</v>
@@ -4692,7 +4867,7 @@
     </row>
     <row r="103" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -4705,11 +4880,11 @@
       <c r="J103" s="7"/>
       <c r="K103" s="8"/>
       <c r="L103" s="2" t="str">
-        <f>"objWords = Split( sFilePath , ""\"" )"</f>
-        <v>objWords = Split( sFilePath , "\" )</v>
+        <f>"UBound(配列名)"</f>
+        <v>UBound(配列名)</v>
       </c>
       <c r="M103" s="13" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N103" s="19" t="s">
         <v>241</v>
@@ -4717,7 +4892,7 @@
     </row>
     <row r="104" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -4730,11 +4905,17 @@
       <c r="J104" s="7"/>
       <c r="K104" s="8"/>
       <c r="L104" s="2" t="str">
-        <f>"TypeName(""Test"")"</f>
-        <v>TypeName("Test")</v>
+        <f>"Dim asArray()"&amp;CHAR(10)&amp;"ReDim asArray(-1)"&amp;CHAR(10)&amp;"If Ubound(asArray) = -1 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"'未定義配列"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"'定義済み配列"&amp;CHAR(10)&amp;"End If"</f>
+        <v>Dim asArray()
+ReDim asArray(-1)
+If Ubound(asArray) = -1 Then
+	'未定義配列
+Else
+	'定義済み配列
+End If</v>
       </c>
       <c r="M104" s="13" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="N104" s="19" t="s">
         <v>241</v>
@@ -4742,7 +4923,7 @@
     </row>
     <row r="105" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -4755,11 +4936,11 @@
       <c r="J105" s="7"/>
       <c r="K105" s="8"/>
       <c r="L105" s="2" t="str">
-        <f>"VarType(""Test"")"</f>
-        <v>VarType("Test")</v>
+        <f>"Join(配列, "","")"</f>
+        <v>Join(配列, ",")</v>
       </c>
       <c r="M105" s="13" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="N105" s="19" t="s">
         <v>241</v>
@@ -4767,7 +4948,7 @@
     </row>
     <row r="106" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -4780,11 +4961,11 @@
       <c r="J106" s="7"/>
       <c r="K106" s="8"/>
       <c r="L106" s="2" t="str">
-        <f>"Hex(734)"</f>
-        <v>Hex(734)</v>
+        <f>"objWords = Split( sFilePath , ""\"" )"</f>
+        <v>objWords = Split( sFilePath , "\" )</v>
       </c>
       <c r="M106" s="13" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="N106" s="19" t="s">
         <v>241</v>
@@ -4792,7 +4973,7 @@
     </row>
     <row r="107" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -4805,11 +4986,11 @@
       <c r="J107" s="7"/>
       <c r="K107" s="8"/>
       <c r="L107" s="2" t="str">
-        <f>"CLng(""&amp;H"" &amp; ""FA"")"</f>
-        <v>CLng("&amp;H" &amp; "FA")</v>
+        <f>"TypeName(""Test"")"</f>
+        <v>TypeName("Test")</v>
       </c>
       <c r="M107" s="13" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="N107" s="19" t="s">
         <v>241</v>
@@ -4817,7 +4998,7 @@
     </row>
     <row r="108" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -4830,11 +5011,11 @@
       <c r="J108" s="7"/>
       <c r="K108" s="8"/>
       <c r="L108" s="2" t="str">
-        <f>"&amp;HFFF0"</f>
-        <v>&amp;HFFF0</v>
+        <f>"VarType(""Test"")"</f>
+        <v>VarType("Test")</v>
       </c>
       <c r="M108" s="13" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="N108" s="19" t="s">
         <v>241</v>
@@ -4842,7 +5023,7 @@
     </row>
     <row r="109" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -4855,8 +5036,8 @@
       <c r="J109" s="7"/>
       <c r="K109" s="8"/>
       <c r="L109" s="2" t="str">
-        <f>"&amp;HFFF0&amp;"</f>
-        <v>&amp;HFFF0&amp;</v>
+        <f>"Hex(734)"</f>
+        <v>Hex(734)</v>
       </c>
       <c r="M109" s="13" t="s">
         <v>171</v>
@@ -4867,7 +5048,7 @@
     </row>
     <row r="110" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -4880,11 +5061,11 @@
       <c r="J110" s="7"/>
       <c r="K110" s="8"/>
       <c r="L110" s="2" t="str">
-        <f>"CStr(234.5)"</f>
-        <v>CStr(234.5)</v>
+        <f>"CLng(""&amp;H"" &amp; ""FA"")"</f>
+        <v>CLng("&amp;H" &amp; "FA")</v>
       </c>
       <c r="M110" s="13" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="N110" s="19" t="s">
         <v>241</v>
@@ -4892,7 +5073,7 @@
     </row>
     <row r="111" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -4905,11 +5086,11 @@
       <c r="J111" s="7"/>
       <c r="K111" s="8"/>
       <c r="L111" s="2" t="str">
-        <f>"CDbl(""234.5"")"</f>
-        <v>CDbl("234.5")</v>
-      </c>
-      <c r="M111" s="13">
-        <v>234.5</v>
+        <f>"&amp;HFFF0"</f>
+        <v>&amp;HFFF0</v>
+      </c>
+      <c r="M111" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="N111" s="19" t="s">
         <v>241</v>
@@ -4917,7 +5098,7 @@
     </row>
     <row r="112" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -4930,11 +5111,11 @@
       <c r="J112" s="7"/>
       <c r="K112" s="8"/>
       <c r="L112" s="2" t="str">
-        <f>"CLng(""234.5"")"</f>
-        <v>CLng("234.5")</v>
-      </c>
-      <c r="M112" s="13">
-        <v>234</v>
+        <f>"&amp;HFFF0&amp;"</f>
+        <v>&amp;HFFF0&amp;</v>
+      </c>
+      <c r="M112" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="N112" s="19" t="s">
         <v>241</v>
@@ -4942,7 +5123,7 @@
     </row>
     <row r="113" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -4955,11 +5136,11 @@
       <c r="J113" s="7"/>
       <c r="K113" s="8"/>
       <c r="L113" s="2" t="str">
-        <f>"vbNewLine"</f>
-        <v>vbNewLine</v>
+        <f>"CStr(234.5)"</f>
+        <v>CStr(234.5)</v>
       </c>
       <c r="M113" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N113" s="19" t="s">
         <v>241</v>
@@ -4967,7 +5148,7 @@
     </row>
     <row r="114" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -4980,11 +5161,11 @@
       <c r="J114" s="7"/>
       <c r="K114" s="8"/>
       <c r="L114" s="2" t="str">
-        <f>"Fix( 99.224 )"</f>
-        <v>Fix( 99.224 )</v>
+        <f>"CDbl(""234.5"")"</f>
+        <v>CDbl("234.5")</v>
       </c>
       <c r="M114" s="13">
-        <v>99</v>
+        <v>234.5</v>
       </c>
       <c r="N114" s="19" t="s">
         <v>241</v>
@@ -4992,7 +5173,7 @@
     </row>
     <row r="115" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -5005,11 +5186,11 @@
       <c r="J115" s="7"/>
       <c r="K115" s="8"/>
       <c r="L115" s="2" t="str">
-        <f>"Int( 99.224 )"</f>
-        <v>Int( 99.224 )</v>
+        <f>"CLng(""234.5"")"</f>
+        <v>CLng("234.5")</v>
       </c>
       <c r="M115" s="13">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="N115" s="19" t="s">
         <v>241</v>
@@ -5017,7 +5198,7 @@
     </row>
     <row r="116" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -5030,11 +5211,11 @@
       <c r="J116" s="7"/>
       <c r="K116" s="8"/>
       <c r="L116" s="2" t="str">
-        <f>"Fix( -99.224 )"</f>
-        <v>Fix( -99.224 )</v>
+        <f>"vbNewLine"</f>
+        <v>vbNewLine</v>
       </c>
       <c r="M116" s="13" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="N116" s="19" t="s">
         <v>241</v>
@@ -5042,7 +5223,7 @@
     </row>
     <row r="117" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -5055,11 +5236,11 @@
       <c r="J117" s="7"/>
       <c r="K117" s="8"/>
       <c r="L117" s="2" t="str">
-        <f>"Int( -99.224 )"</f>
-        <v>Int( -99.224 )</v>
-      </c>
-      <c r="M117" s="13" t="s">
-        <v>233</v>
+        <f>"Fix( 99.224 )"</f>
+        <v>Fix( 99.224 )</v>
+      </c>
+      <c r="M117" s="13">
+        <v>99</v>
       </c>
       <c r="N117" s="19" t="s">
         <v>241</v>
@@ -5067,7 +5248,7 @@
     </row>
     <row r="118" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -5080,11 +5261,11 @@
       <c r="J118" s="7"/>
       <c r="K118" s="8"/>
       <c r="L118" s="2" t="str">
-        <f>"Round( 99.555, 0 )"</f>
-        <v>Round( 99.555, 0 )</v>
+        <f>"Int( 99.224 )"</f>
+        <v>Int( 99.224 )</v>
       </c>
       <c r="M118" s="13">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N118" s="19" t="s">
         <v>241</v>
@@ -5092,7 +5273,7 @@
     </row>
     <row r="119" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -5105,11 +5286,11 @@
       <c r="J119" s="7"/>
       <c r="K119" s="8"/>
       <c r="L119" s="2" t="str">
-        <f>"Round( 99.555, 1 )"</f>
-        <v>Round( 99.555, 1 )</v>
-      </c>
-      <c r="M119" s="13">
-        <v>99.6</v>
+        <f>"Fix( -99.224 )"</f>
+        <v>Fix( -99.224 )</v>
+      </c>
+      <c r="M119" s="13" t="s">
+        <v>232</v>
       </c>
       <c r="N119" s="19" t="s">
         <v>241</v>
@@ -5117,7 +5298,7 @@
     </row>
     <row r="120" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -5130,11 +5311,11 @@
       <c r="J120" s="7"/>
       <c r="K120" s="8"/>
       <c r="L120" s="2" t="str">
-        <f>"Round( 99.555, 2 )"</f>
-        <v>Round( 99.555, 2 )</v>
-      </c>
-      <c r="M120" s="13">
-        <v>99.56</v>
+        <f>"Int( -99.224 )"</f>
+        <v>Int( -99.224 )</v>
+      </c>
+      <c r="M120" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="N120" s="19" t="s">
         <v>241</v>
@@ -5142,7 +5323,7 @@
     </row>
     <row r="121" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -5155,11 +5336,11 @@
       <c r="J121" s="7"/>
       <c r="K121" s="8"/>
       <c r="L121" s="2" t="str">
-        <f>"Round( -99.555, 0 )"</f>
-        <v>Round( -99.555, 0 )</v>
+        <f>"Round( 99.555, 0 )"</f>
+        <v>Round( 99.555, 0 )</v>
       </c>
       <c r="M121" s="13">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N121" s="19" t="s">
         <v>241</v>
@@ -5167,7 +5348,7 @@
     </row>
     <row r="122" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -5180,11 +5361,11 @@
       <c r="J122" s="7"/>
       <c r="K122" s="8"/>
       <c r="L122" s="2" t="str">
-        <f>"Round( -99.555, 1 )"</f>
-        <v>Round( -99.555, 1 )</v>
+        <f>"Round( 99.555, 1 )"</f>
+        <v>Round( 99.555, 1 )</v>
       </c>
       <c r="M122" s="13">
-        <v>-99.6</v>
+        <v>99.6</v>
       </c>
       <c r="N122" s="19" t="s">
         <v>241</v>
@@ -5192,7 +5373,7 @@
     </row>
     <row r="123" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -5205,11 +5386,11 @@
       <c r="J123" s="7"/>
       <c r="K123" s="8"/>
       <c r="L123" s="2" t="str">
-        <f>"Round( -99.555, 2 )"</f>
-        <v>Round( -99.555, 2 )</v>
+        <f>"Round( 99.555, 2 )"</f>
+        <v>Round( 99.555, 2 )</v>
       </c>
       <c r="M123" s="13">
-        <v>-99.56</v>
+        <v>99.56</v>
       </c>
       <c r="N123" s="19" t="s">
         <v>241</v>
@@ -5217,7 +5398,7 @@
     </row>
     <row r="124" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -5230,11 +5411,11 @@
       <c r="J124" s="7"/>
       <c r="K124" s="8"/>
       <c r="L124" s="2" t="str">
-        <f>"Round( 99.224 + 0.5, 0 )"</f>
-        <v>Round( 99.224 + 0.5, 0 )</v>
+        <f>"Round( -99.555, 0 )"</f>
+        <v>Round( -99.555, 0 )</v>
       </c>
       <c r="M124" s="13">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N124" s="19" t="s">
         <v>241</v>
@@ -5242,7 +5423,7 @@
     </row>
     <row r="125" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -5255,11 +5436,11 @@
       <c r="J125" s="7"/>
       <c r="K125" s="8"/>
       <c r="L125" s="2" t="str">
-        <f>"Round( 99.224 + 0.05, 1 )"</f>
-        <v>Round( 99.224 + 0.05, 1 )</v>
+        <f>"Round( -99.555, 1 )"</f>
+        <v>Round( -99.555, 1 )</v>
       </c>
       <c r="M125" s="13">
-        <v>99.3</v>
+        <v>-99.6</v>
       </c>
       <c r="N125" s="19" t="s">
         <v>241</v>
@@ -5267,7 +5448,7 @@
     </row>
     <row r="126" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -5280,11 +5461,11 @@
       <c r="J126" s="7"/>
       <c r="K126" s="8"/>
       <c r="L126" s="2" t="str">
-        <f>"Round( -99.224 - 0.5, 0 )"</f>
-        <v>Round( -99.224 - 0.5, 0 )</v>
+        <f>"Round( -99.555, 2 )"</f>
+        <v>Round( -99.555, 2 )</v>
       </c>
       <c r="M126" s="13">
-        <v>-100</v>
+        <v>-99.56</v>
       </c>
       <c r="N126" s="19" t="s">
         <v>241</v>
@@ -5292,7 +5473,7 @@
     </row>
     <row r="127" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -5305,11 +5486,11 @@
       <c r="J127" s="7"/>
       <c r="K127" s="8"/>
       <c r="L127" s="2" t="str">
-        <f>"Round( -99.224 - 0.05, 1 )"</f>
-        <v>Round( -99.224 - 0.05, 1 )</v>
+        <f>"Round( 99.224 + 0.5, 0 )"</f>
+        <v>Round( 99.224 + 0.5, 0 )</v>
       </c>
       <c r="M127" s="13">
-        <v>-99.3</v>
+        <v>100</v>
       </c>
       <c r="N127" s="19" t="s">
         <v>241</v>
@@ -5317,7 +5498,7 @@
     </row>
     <row r="128" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -5330,11 +5511,11 @@
       <c r="J128" s="7"/>
       <c r="K128" s="8"/>
       <c r="L128" s="2" t="str">
-        <f>"Round( 99.224 - 0.5, 0 )"</f>
-        <v>Round( 99.224 - 0.5, 0 )</v>
-      </c>
-      <c r="M128" s="13" t="s">
-        <v>234</v>
+        <f>"Round( 99.224 + 0.05, 1 )"</f>
+        <v>Round( 99.224 + 0.05, 1 )</v>
+      </c>
+      <c r="M128" s="13">
+        <v>99.3</v>
       </c>
       <c r="N128" s="19" t="s">
         <v>241</v>
@@ -5342,7 +5523,7 @@
     </row>
     <row r="129" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -5355,11 +5536,11 @@
       <c r="J129" s="7"/>
       <c r="K129" s="8"/>
       <c r="L129" s="2" t="str">
-        <f>"Round( 99.224 - 0.05, 1 )"</f>
-        <v>Round( 99.224 - 0.05, 1 )</v>
+        <f>"Round( -99.224 - 0.5, 0 )"</f>
+        <v>Round( -99.224 - 0.5, 0 )</v>
       </c>
       <c r="M129" s="13">
-        <v>99.2</v>
+        <v>-100</v>
       </c>
       <c r="N129" s="19" t="s">
         <v>241</v>
@@ -5367,7 +5548,7 @@
     </row>
     <row r="130" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -5380,11 +5561,11 @@
       <c r="J130" s="7"/>
       <c r="K130" s="8"/>
       <c r="L130" s="2" t="str">
-        <f>"Round( -99.224 + 0.5, 0 )"</f>
-        <v>Round( -99.224 + 0.5, 0 )</v>
-      </c>
-      <c r="M130" s="13" t="s">
-        <v>235</v>
+        <f>"Round( -99.224 - 0.05, 1 )"</f>
+        <v>Round( -99.224 - 0.05, 1 )</v>
+      </c>
+      <c r="M130" s="13">
+        <v>-99.3</v>
       </c>
       <c r="N130" s="19" t="s">
         <v>241</v>
@@ -5392,7 +5573,7 @@
     </row>
     <row r="131" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -5405,31 +5586,36 @@
       <c r="J131" s="7"/>
       <c r="K131" s="8"/>
       <c r="L131" s="2" t="str">
-        <f>"Round( -99.224 + 0.05, 1 )"</f>
-        <v>Round( -99.224 + 0.05, 1 )</v>
-      </c>
-      <c r="M131" s="13">
-        <v>-99.2</v>
+        <f>"Round( 99.224 - 0.5, 0 )"</f>
+        <v>Round( 99.224 - 0.5, 0 )</v>
+      </c>
+      <c r="M131" s="13" t="s">
+        <v>234</v>
       </c>
       <c r="N131" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="9"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
-      <c r="K132" s="10"/>
-      <c r="L132" s="3"/>
-      <c r="M132" s="14" t="s">
-        <v>171</v>
+    <row r="132" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="7"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="2" t="str">
+        <f>"Round( 99.224 - 0.05, 1 )"</f>
+        <v>Round( 99.224 - 0.05, 1 )</v>
+      </c>
+      <c r="M132" s="13">
+        <v>99.2</v>
       </c>
       <c r="N132" s="19" t="s">
         <v>241</v>
@@ -5437,7 +5623,7 @@
     </row>
     <row r="133" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -5450,11 +5636,11 @@
       <c r="J133" s="7"/>
       <c r="K133" s="8"/>
       <c r="L133" s="2" t="str">
-        <f>"Now()"</f>
-        <v>Now()</v>
+        <f>"Round( -99.224 + 0.5, 0 )"</f>
+        <v>Round( -99.224 + 0.5, 0 )</v>
       </c>
       <c r="M133" s="13" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="N133" s="19" t="s">
         <v>241</v>
@@ -5462,7 +5648,7 @@
     </row>
     <row r="134" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -5475,36 +5661,31 @@
       <c r="J134" s="7"/>
       <c r="K134" s="8"/>
       <c r="L134" s="2" t="str">
-        <f>"Date()"</f>
-        <v>Date()</v>
-      </c>
-      <c r="M134" s="13" t="s">
-        <v>210</v>
+        <f>"Round( -99.224 + 0.05, 1 )"</f>
+        <v>Round( -99.224 + 0.05, 1 )</v>
+      </c>
+      <c r="M134" s="13">
+        <v>-99.2</v>
       </c>
       <c r="N134" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
-      <c r="I135" s="7"/>
-      <c r="J135" s="7"/>
-      <c r="K135" s="8"/>
-      <c r="L135" s="2" t="str">
-        <f>"Timer()"</f>
-        <v>Timer()</v>
-      </c>
-      <c r="M135" s="13" t="s">
-        <v>211</v>
+    <row r="135" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="9"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="10"/>
+      <c r="L135" s="3"/>
+      <c r="M135" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="N135" s="19" t="s">
         <v>241</v>
@@ -5512,7 +5693,7 @@
     </row>
     <row r="136" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -5525,17 +5706,11 @@
       <c r="J136" s="7"/>
       <c r="K136" s="8"/>
       <c r="L136" s="2" t="str">
-        <f>"If DateDiff(""s"", sCmpBaseTime, sModDate ) &gt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate が新しい"&amp;CHAR(10)&amp;"ElseIf DateDiff(""s"", sCmpBaseTime, sModDate ) &lt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate が古い"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate = sCmpBaseTime"&amp;CHAR(10)&amp;"End If"</f>
-        <v>If DateDiff("s", sCmpBaseTime, sModDate ) &gt; 0 Then
-	'sModDate が新しい
-ElseIf DateDiff("s", sCmpBaseTime, sModDate ) &lt; 0 Then
-	'sModDate が古い
-Else
-	'sModDate = sCmpBaseTime
-End If</v>
+        <f>"Now()"</f>
+        <v>Now()</v>
       </c>
       <c r="M136" s="13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N136" s="19" t="s">
         <v>241</v>
@@ -5543,7 +5718,7 @@
     </row>
     <row r="137" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -5556,31 +5731,36 @@
       <c r="J137" s="7"/>
       <c r="K137" s="8"/>
       <c r="L137" s="2" t="str">
-        <f>"WScript.sleep(3000)"</f>
-        <v>WScript.sleep(3000)</v>
+        <f>"Date()"</f>
+        <v>Date()</v>
       </c>
       <c r="M137" s="13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N137" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="9"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="9"/>
-      <c r="K138" s="10"/>
-      <c r="L138" s="3"/>
-      <c r="M138" s="14" t="s">
-        <v>171</v>
+    <row r="138" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="7"/>
+      <c r="K138" s="8"/>
+      <c r="L138" s="2" t="str">
+        <f>"Timer()"</f>
+        <v>Timer()</v>
+      </c>
+      <c r="M138" s="13" t="s">
+        <v>211</v>
       </c>
       <c r="N138" s="19" t="s">
         <v>241</v>
@@ -5588,7 +5768,7 @@
     </row>
     <row r="139" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -5601,11 +5781,17 @@
       <c r="J139" s="7"/>
       <c r="K139" s="8"/>
       <c r="L139" s="2" t="str">
-        <f>"WScript.ScriptFullName"</f>
-        <v>WScript.ScriptFullName</v>
+        <f>"If DateDiff(""s"", sCmpBaseTime, sModDate ) &gt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate が新しい"&amp;CHAR(10)&amp;"ElseIf DateDiff(""s"", sCmpBaseTime, sModDate ) &lt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate が古い"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"'sModDate = sCmpBaseTime"&amp;CHAR(10)&amp;"End If"</f>
+        <v>If DateDiff("s", sCmpBaseTime, sModDate ) &gt; 0 Then
+	'sModDate が新しい
+ElseIf DateDiff("s", sCmpBaseTime, sModDate ) &lt; 0 Then
+	'sModDate が古い
+Else
+	'sModDate = sCmpBaseTime
+End If</v>
       </c>
       <c r="M139" s="13" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="N139" s="19" t="s">
         <v>241</v>
@@ -5613,7 +5799,7 @@
     </row>
     <row r="140" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -5626,35 +5812,30 @@
       <c r="J140" s="7"/>
       <c r="K140" s="8"/>
       <c r="L140" s="2" t="str">
-        <f>"WScript.ScriptName"</f>
-        <v>WScript.ScriptName</v>
+        <f>"WScript.sleep(3000)"</f>
+        <v>WScript.sleep(3000)</v>
       </c>
       <c r="M140" s="13" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="N140" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
-      <c r="K141" s="8"/>
-      <c r="L141" s="2" t="str">
-        <f>"Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, ""."" ) - 1 )"</f>
-        <v>Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, "." ) - 1 )</v>
-      </c>
-      <c r="M141" s="13" t="s">
+    <row r="141" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="9"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="10"/>
+      <c r="L141" s="3"/>
+      <c r="M141" s="14" t="s">
         <v>171</v>
       </c>
       <c r="N141" s="19" t="s">
@@ -5663,7 +5844,7 @@
     </row>
     <row r="142" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -5676,8 +5857,8 @@
       <c r="J142" s="7"/>
       <c r="K142" s="8"/>
       <c r="L142" s="2" t="str">
-        <f>"objFSO.GetBaseName( WScript.ScriptName )"</f>
-        <v>objFSO.GetBaseName( WScript.ScriptName )</v>
+        <f>"WScript.ScriptFullName"</f>
+        <v>WScript.ScriptFullName</v>
       </c>
       <c r="M142" s="13" t="s">
         <v>171</v>
@@ -5688,7 +5869,7 @@
     </row>
     <row r="143" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -5701,8 +5882,8 @@
       <c r="J143" s="7"/>
       <c r="K143" s="8"/>
       <c r="L143" s="2" t="str">
-        <f>"Replace( WScript.ScriptFullName, ""\"" &amp; WScript.ScriptName, """" )"</f>
-        <v>Replace( WScript.ScriptFullName, "\" &amp; WScript.ScriptName, "" )</v>
+        <f>"WScript.ScriptName"</f>
+        <v>WScript.ScriptName</v>
       </c>
       <c r="M143" s="13" t="s">
         <v>171</v>
@@ -5713,7 +5894,7 @@
     </row>
     <row r="144" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -5726,8 +5907,8 @@
       <c r="J144" s="7"/>
       <c r="K144" s="8"/>
       <c r="L144" s="2" t="str">
-        <f>"objFSO.GetParentFolderName( WScript.ScriptFullName )"</f>
-        <v>objFSO.GetParentFolderName( WScript.ScriptFullName )</v>
+        <f>"Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, ""."" ) - 1 )"</f>
+        <v>Mid( WScript.ScriptName, 1, InStrRev( WScript.ScriptName, "." ) - 1 )</v>
       </c>
       <c r="M144" s="13" t="s">
         <v>171</v>
@@ -5737,44 +5918,49 @@
       </c>
     </row>
     <row r="145" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="11"/>
-      <c r="I145" s="11"/>
-      <c r="J145" s="11"/>
-      <c r="K145" s="12"/>
-      <c r="L145" s="4" t="str">
-        <f>"objWshShell.CurrentDirectory"</f>
-        <v>objWshShell.CurrentDirectory</v>
+      <c r="A145" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="7"/>
+      <c r="J145" s="7"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="2" t="str">
+        <f>"objFSO.GetBaseName( WScript.ScriptName )"</f>
+        <v>objFSO.GetBaseName( WScript.ScriptName )</v>
       </c>
       <c r="M145" s="13" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="N145" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
-      <c r="I146" s="9"/>
-      <c r="J146" s="9"/>
-      <c r="K146" s="10"/>
-      <c r="L146" s="3"/>
-      <c r="M146" s="14" t="s">
+    <row r="146" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
+      <c r="J146" s="7"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="2" t="str">
+        <f>"Replace( WScript.ScriptFullName, ""\"" &amp; WScript.ScriptName, """" )"</f>
+        <v>Replace( WScript.ScriptFullName, "\" &amp; WScript.ScriptName, "" )</v>
+      </c>
+      <c r="M146" s="13" t="s">
         <v>171</v>
       </c>
       <c r="N146" s="19" t="s">
@@ -5783,7 +5969,7 @@
     </row>
     <row r="147" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -5796,8 +5982,8 @@
       <c r="J147" s="7"/>
       <c r="K147" s="8"/>
       <c r="L147" s="2" t="str">
-        <f>"WScript.Arguments.Count"</f>
-        <v>WScript.Arguments.Count</v>
+        <f>"objFSO.GetParentFolderName( WScript.ScriptFullName )"</f>
+        <v>objFSO.GetParentFolderName( WScript.ScriptFullName )</v>
       </c>
       <c r="M147" s="13" t="s">
         <v>171</v>
@@ -5807,25 +5993,25 @@
       </c>
     </row>
     <row r="148" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B148" s="7"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
-      <c r="I148" s="7"/>
-      <c r="J148" s="7"/>
-      <c r="K148" s="8"/>
-      <c r="L148" s="2" t="str">
-        <f>"WScript.Arguments(0)"</f>
-        <v>WScript.Arguments(0)</v>
+      <c r="A148" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="12"/>
+      <c r="L148" s="4" t="str">
+        <f>"objWshShell.CurrentDirectory"</f>
+        <v>objWshShell.CurrentDirectory</v>
       </c>
       <c r="M148" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N148" s="19" t="s">
         <v>241</v>
@@ -5853,7 +6039,7 @@
     </row>
     <row r="150" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="7" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -5866,8 +6052,8 @@
       <c r="J150" s="7"/>
       <c r="K150" s="8"/>
       <c r="L150" s="2" t="str">
-        <f>"サンプルコード参照"</f>
-        <v>サンプルコード参照</v>
+        <f>"WScript.Arguments.Count"</f>
+        <v>WScript.Arguments.Count</v>
       </c>
       <c r="M150" s="13" t="s">
         <v>171</v>
@@ -5876,46 +6062,45 @@
         <v>241</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="9"/>
-      <c r="B151" s="9"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="9"/>
-      <c r="I151" s="9"/>
-      <c r="J151" s="9"/>
-      <c r="K151" s="10"/>
-      <c r="L151" s="3"/>
-      <c r="M151" s="14" t="s">
-        <v>171</v>
+    <row r="151" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="8"/>
+      <c r="L151" s="2" t="str">
+        <f>"WScript.Arguments(0)"</f>
+        <v>WScript.Arguments(0)</v>
+      </c>
+      <c r="M151" s="13" t="s">
+        <v>207</v>
       </c>
       <c r="N151" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="7"/>
-      <c r="I152" s="7"/>
-      <c r="J152" s="7"/>
-      <c r="K152" s="8"/>
-      <c r="L152" s="2" t="str">
-        <f>"Dim oPriceOfFruit"&amp;CHAR(10)&amp;"Set oPriceOfFruit = CreateObject(""Scripting.Dictionary"") "</f>
-        <v xml:space="preserve">Dim oPriceOfFruit
-Set oPriceOfFruit = CreateObject("Scripting.Dictionary") </v>
-      </c>
-      <c r="M152" s="13" t="s">
+    <row r="152" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="9"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="10"/>
+      <c r="L152" s="3"/>
+      <c r="M152" s="14" t="s">
         <v>171</v>
       </c>
       <c r="N152" s="19" t="s">
@@ -5923,10 +6108,10 @@
       </c>
     </row>
     <row r="153" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="7"/>
-      <c r="B153" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="A153" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B153" s="7"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -5937,8 +6122,8 @@
       <c r="J153" s="7"/>
       <c r="K153" s="8"/>
       <c r="L153" s="2" t="str">
-        <f>"oPriceOfFruit.Add ""リンゴ"", ""100円"""</f>
-        <v>oPriceOfFruit.Add "リンゴ", "100円"</v>
+        <f>"サンプルコード参照"</f>
+        <v>サンプルコード参照</v>
       </c>
       <c r="M153" s="13" t="s">
         <v>171</v>
@@ -5947,25 +6132,20 @@
         <v>241</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="7"/>
-      <c r="B154" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
-      <c r="I154" s="7"/>
-      <c r="J154" s="7"/>
-      <c r="K154" s="8"/>
-      <c r="L154" s="2" t="str">
-        <f>"oPriceOfFruit.Exists(""リンゴ"")"</f>
-        <v>oPriceOfFruit.Exists("リンゴ")</v>
-      </c>
-      <c r="M154" s="13" t="s">
+    <row r="154" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="9"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="10"/>
+      <c r="L154" s="3"/>
+      <c r="M154" s="14" t="s">
         <v>171</v>
       </c>
       <c r="N154" s="19" t="s">
@@ -5973,10 +6153,10 @@
       </c>
     </row>
     <row r="155" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="7"/>
-      <c r="B155" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="A155" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -5987,13 +6167,12 @@
       <c r="J155" s="7"/>
       <c r="K155" s="8"/>
       <c r="L155" s="2" t="str">
-        <f>"For Each vKey In oPriceOfFruit"&amp;CHAR(10)&amp;CHAR(9)&amp;"MsgBox vKey"&amp;CHAR(10)&amp;"Next"</f>
-        <v>For Each vKey In oPriceOfFruit
-	MsgBox vKey
-Next</v>
+        <f>"Dim oPriceOfFruit"&amp;CHAR(10)&amp;"Set oPriceOfFruit = CreateObject(""Scripting.Dictionary"") "</f>
+        <v xml:space="preserve">Dim oPriceOfFruit
+Set oPriceOfFruit = CreateObject("Scripting.Dictionary") </v>
       </c>
       <c r="M155" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N155" s="19" t="s">
         <v>241</v>
@@ -6002,7 +6181,7 @@
     <row r="156" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="7"/>
       <c r="B156" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
@@ -6014,8 +6193,8 @@
       <c r="J156" s="7"/>
       <c r="K156" s="8"/>
       <c r="L156" s="2" t="str">
-        <f>"oPriceOfFruit.Item(""リンゴ"")"</f>
-        <v>oPriceOfFruit.Item("リンゴ")</v>
+        <f>"oPriceOfFruit.Add ""リンゴ"", ""100円"""</f>
+        <v>oPriceOfFruit.Add "リンゴ", "100円"</v>
       </c>
       <c r="M156" s="13" t="s">
         <v>171</v>
@@ -6027,7 +6206,7 @@
     <row r="157" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="7"/>
       <c r="B157" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
@@ -6039,11 +6218,11 @@
       <c r="J157" s="7"/>
       <c r="K157" s="8"/>
       <c r="L157" s="2" t="str">
-        <f>"oPriceOfFruit.Keys()(0)"</f>
-        <v>oPriceOfFruit.Keys()(0)</v>
+        <f>"oPriceOfFruit.Exists(""リンゴ"")"</f>
+        <v>oPriceOfFruit.Exists("リンゴ")</v>
       </c>
       <c r="M157" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N157" s="19" t="s">
         <v>241</v>
@@ -6052,7 +6231,7 @@
     <row r="158" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="7"/>
       <c r="B158" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
@@ -6064,11 +6243,13 @@
       <c r="J158" s="7"/>
       <c r="K158" s="8"/>
       <c r="L158" s="2" t="str">
-        <f>"oPriceOfFruit.Items()(0)"</f>
-        <v>oPriceOfFruit.Items()(0)</v>
+        <f>"For Each vKey In oPriceOfFruit"&amp;CHAR(10)&amp;CHAR(9)&amp;"MsgBox vKey"&amp;CHAR(10)&amp;"Next"</f>
+        <v>For Each vKey In oPriceOfFruit
+	MsgBox vKey
+Next</v>
       </c>
       <c r="M158" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N158" s="19" t="s">
         <v>241</v>
@@ -6077,7 +6258,7 @@
     <row r="159" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="7"/>
       <c r="B159" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
@@ -6089,8 +6270,8 @@
       <c r="J159" s="7"/>
       <c r="K159" s="8"/>
       <c r="L159" s="2" t="str">
-        <f>"oPriceOfFruit.Key(""リンゴ"") = ""りんご"""</f>
-        <v>oPriceOfFruit.Key("リンゴ") = "りんご"</v>
+        <f>"oPriceOfFruit.Item(""リンゴ"")"</f>
+        <v>oPriceOfFruit.Item("リンゴ")</v>
       </c>
       <c r="M159" s="13" t="s">
         <v>171</v>
@@ -6102,7 +6283,7 @@
     <row r="160" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="7"/>
       <c r="B160" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
@@ -6114,11 +6295,11 @@
       <c r="J160" s="7"/>
       <c r="K160" s="8"/>
       <c r="L160" s="2" t="str">
-        <f>"oPriceOfFruit.Item(""リンゴ"") = ""200円"""</f>
-        <v>oPriceOfFruit.Item("リンゴ") = "200円"</v>
+        <f>"oPriceOfFruit.Keys()(0)"</f>
+        <v>oPriceOfFruit.Keys()(0)</v>
       </c>
       <c r="M160" s="13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N160" s="19" t="s">
         <v>241</v>
@@ -6127,7 +6308,7 @@
     <row r="161" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="7"/>
       <c r="B161" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
@@ -6139,11 +6320,11 @@
       <c r="J161" s="7"/>
       <c r="K161" s="8"/>
       <c r="L161" s="2" t="str">
-        <f>"oPriceOfFruit.Count"</f>
-        <v>oPriceOfFruit.Count</v>
+        <f>"oPriceOfFruit.Items()(0)"</f>
+        <v>oPriceOfFruit.Items()(0)</v>
       </c>
       <c r="M161" s="13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N161" s="19" t="s">
         <v>241</v>
@@ -6152,7 +6333,7 @@
     <row r="162" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="7"/>
       <c r="B162" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
@@ -6164,11 +6345,11 @@
       <c r="J162" s="7"/>
       <c r="K162" s="8"/>
       <c r="L162" s="2" t="str">
-        <f>"oPriceOfFruit.Remove(""リンゴ"")"</f>
-        <v>oPriceOfFruit.Remove("リンゴ")</v>
+        <f>"oPriceOfFruit.Key(""リンゴ"") = ""りんご"""</f>
+        <v>oPriceOfFruit.Key("リンゴ") = "りんご"</v>
       </c>
       <c r="M162" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N162" s="19" t="s">
         <v>241</v>
@@ -6177,7 +6358,7 @@
     <row r="163" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="7"/>
       <c r="B163" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
@@ -6189,8 +6370,8 @@
       <c r="J163" s="7"/>
       <c r="K163" s="8"/>
       <c r="L163" s="2" t="str">
-        <f>"oPriceOfFruit.RemoveAll"</f>
-        <v>oPriceOfFruit.RemoveAll</v>
+        <f>"oPriceOfFruit.Item(""リンゴ"") = ""200円"""</f>
+        <v>oPriceOfFruit.Item("リンゴ") = "200円"</v>
       </c>
       <c r="M163" s="13" t="s">
         <v>171</v>
@@ -6202,7 +6383,7 @@
     <row r="164" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="7"/>
       <c r="B164" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
@@ -6214,11 +6395,11 @@
       <c r="J164" s="7"/>
       <c r="K164" s="8"/>
       <c r="L164" s="2" t="str">
-        <f>"avFruitPrice = oPriceOfFruit.Items"</f>
-        <v>avFruitPrice = oPriceOfFruit.Items</v>
+        <f>"oPriceOfFruit.Count"</f>
+        <v>oPriceOfFruit.Count</v>
       </c>
       <c r="M164" s="13" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N164" s="19" t="s">
         <v>241</v>
@@ -6227,7 +6408,7 @@
     <row r="165" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="7"/>
       <c r="B165" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
@@ -6239,11 +6420,11 @@
       <c r="J165" s="7"/>
       <c r="K165" s="8"/>
       <c r="L165" s="2" t="str">
-        <f>"avFruitName = oPriceOfFruit.Keys"</f>
-        <v>avFruitName = oPriceOfFruit.Keys</v>
+        <f>"oPriceOfFruit.Remove(""リンゴ"")"</f>
+        <v>oPriceOfFruit.Remove("リンゴ")</v>
       </c>
       <c r="M165" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N165" s="19" t="s">
         <v>241</v>
@@ -6252,7 +6433,7 @@
     <row r="166" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="7"/>
       <c r="B166" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
@@ -6264,41 +6445,46 @@
       <c r="J166" s="7"/>
       <c r="K166" s="8"/>
       <c r="L166" s="2" t="str">
-        <f>"oPriceOfFruit.CompareMode = vbBinaryCompare"</f>
-        <v>oPriceOfFruit.CompareMode = vbBinaryCompare</v>
+        <f>"oPriceOfFruit.RemoveAll"</f>
+        <v>oPriceOfFruit.RemoveAll</v>
       </c>
       <c r="M166" s="13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="N166" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="9"/>
-      <c r="B167" s="9"/>
-      <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="9"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="9"/>
-      <c r="I167" s="9"/>
-      <c r="J167" s="9"/>
-      <c r="K167" s="10"/>
-      <c r="L167" s="3"/>
-      <c r="M167" s="14" t="s">
-        <v>171</v>
+    <row r="167" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="7"/>
+      <c r="B167" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="7"/>
+      <c r="K167" s="8"/>
+      <c r="L167" s="2" t="str">
+        <f>"avFruitPrice = oPriceOfFruit.Items"</f>
+        <v>avFruitPrice = oPriceOfFruit.Items</v>
+      </c>
+      <c r="M167" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="N167" s="19" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B168" s="7"/>
+      <c r="A168" s="7"/>
+      <c r="B168" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -6309,12 +6495,11 @@
       <c r="J168" s="7"/>
       <c r="K168" s="8"/>
       <c r="L168" s="2" t="str">
-        <f>"Dim cTrgtPaths"&amp;CHAR(10)&amp;"Set cTrgtPaths = CreateObject(""System.Collections.ArrayList"")"</f>
-        <v>Dim cTrgtPaths
-Set cTrgtPaths = CreateObject("System.Collections.ArrayList")</v>
+        <f>"avFruitName = oPriceOfFruit.Keys"</f>
+        <v>avFruitName = oPriceOfFruit.Keys</v>
       </c>
       <c r="M168" s="13" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="N168" s="19" t="s">
         <v>241</v>
@@ -6323,7 +6508,7 @@
     <row r="169" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="7"/>
       <c r="B169" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
@@ -6335,46 +6520,41 @@
       <c r="J169" s="7"/>
       <c r="K169" s="8"/>
       <c r="L169" s="2" t="str">
-        <f>"cTrgtPaths.Add ""c:\test\a.txt"""</f>
-        <v>cTrgtPaths.Add "c:\test\a.txt"</v>
+        <f>"oPriceOfFruit.CompareMode = vbBinaryCompare"</f>
+        <v>oPriceOfFruit.CompareMode = vbBinaryCompare</v>
       </c>
       <c r="M169" s="13" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N169" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="7"/>
-      <c r="B170" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7"/>
-      <c r="I170" s="7"/>
-      <c r="J170" s="7"/>
-      <c r="K170" s="8"/>
-      <c r="L170" s="2" t="str">
-        <f>"cTrgtPaths.Item(0)"</f>
-        <v>cTrgtPaths.Item(0)</v>
-      </c>
-      <c r="M170" s="13" t="s">
-        <v>182</v>
+    <row r="170" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="9"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="9"/>
+      <c r="K170" s="10"/>
+      <c r="L170" s="3"/>
+      <c r="M170" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="N170" s="19" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="7"/>
-      <c r="B171" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="A171" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B171" s="7"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -6385,11 +6565,9 @@
       <c r="J171" s="7"/>
       <c r="K171" s="8"/>
       <c r="L171" s="2" t="str">
-        <f>"Dim sTrgtPath"&amp;CHAR(10)&amp;"For Each sTrgtPath In cTrgtPaths"&amp;CHAR(10)&amp;CHAR(9)&amp;"MsgBox sTrgtPath"&amp;CHAR(10)&amp;"Next"</f>
-        <v>Dim sTrgtPath
-For Each sTrgtPath In cTrgtPaths
-	MsgBox sTrgtPath
-Next</v>
+        <f>"Dim cTrgtPaths"&amp;CHAR(10)&amp;"Set cTrgtPaths = CreateObject(""System.Collections.ArrayList"")"</f>
+        <v>Dim cTrgtPaths
+Set cTrgtPaths = CreateObject("System.Collections.ArrayList")</v>
       </c>
       <c r="M171" s="13" t="s">
         <v>171</v>
@@ -6401,7 +6579,7 @@
     <row r="172" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="7"/>
       <c r="B172" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
@@ -6413,11 +6591,11 @@
       <c r="J172" s="7"/>
       <c r="K172" s="8"/>
       <c r="L172" s="2" t="str">
-        <f>"cTrgtPaths.Count"</f>
-        <v>cTrgtPaths.Count</v>
+        <f>"cTrgtPaths.Add ""c:\test\a.txt"""</f>
+        <v>cTrgtPaths.Add "c:\test\a.txt"</v>
       </c>
       <c r="M172" s="13" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="N172" s="19" t="s">
         <v>241</v>
@@ -6426,7 +6604,7 @@
     <row r="173" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="7"/>
       <c r="B173" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
@@ -6438,11 +6616,11 @@
       <c r="J173" s="7"/>
       <c r="K173" s="8"/>
       <c r="L173" s="2" t="str">
-        <f>"cTrgtPaths.Remove ""c:\test\b.xlsx"""</f>
-        <v>cTrgtPaths.Remove "c:\test\b.xlsx"</v>
+        <f>"cTrgtPaths.Item(0)"</f>
+        <v>cTrgtPaths.Item(0)</v>
       </c>
       <c r="M173" s="13" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="N173" s="19" t="s">
         <v>241</v>
@@ -6451,7 +6629,7 @@
     <row r="174" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="7"/>
       <c r="B174" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
@@ -6463,11 +6641,14 @@
       <c r="J174" s="7"/>
       <c r="K174" s="8"/>
       <c r="L174" s="2" t="str">
-        <f>"cTrgtPaths.Insert 2, ""c:\test\e.ppt"""</f>
-        <v>cTrgtPaths.Insert 2, "c:\test\e.ppt"</v>
+        <f>"Dim sTrgtPath"&amp;CHAR(10)&amp;"For Each sTrgtPath In cTrgtPaths"&amp;CHAR(10)&amp;CHAR(9)&amp;"MsgBox sTrgtPath"&amp;CHAR(10)&amp;"Next"</f>
+        <v>Dim sTrgtPath
+For Each sTrgtPath In cTrgtPaths
+	MsgBox sTrgtPath
+Next</v>
       </c>
       <c r="M174" s="13" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="N174" s="19" t="s">
         <v>241</v>
@@ -6476,7 +6657,7 @@
     <row r="175" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="7"/>
       <c r="B175" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
@@ -6488,11 +6669,11 @@
       <c r="J175" s="7"/>
       <c r="K175" s="8"/>
       <c r="L175" s="2" t="str">
-        <f>"cTrgtPaths.Sort"</f>
-        <v>cTrgtPaths.Sort</v>
+        <f>"cTrgtPaths.Count"</f>
+        <v>cTrgtPaths.Count</v>
       </c>
       <c r="M175" s="13" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="N175" s="19" t="s">
         <v>241</v>
@@ -6501,7 +6682,7 @@
     <row r="176" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="7"/>
       <c r="B176" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
@@ -6513,12 +6694,11 @@
       <c r="J176" s="7"/>
       <c r="K176" s="8"/>
       <c r="L176" s="2" t="str">
-        <f>"Dim avTrgtPaths"&amp;CHAR(10)&amp;"avTrgtPaths = cTrgtPaths.ToArray()"</f>
-        <v>Dim avTrgtPaths
-avTrgtPaths = cTrgtPaths.ToArray()</v>
+        <f>"cTrgtPaths.Remove ""c:\test\b.xlsx"""</f>
+        <v>cTrgtPaths.Remove "c:\test\b.xlsx"</v>
       </c>
       <c r="M176" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N176" s="19" t="s">
         <v>241</v>
@@ -6527,7 +6707,7 @@
     <row r="177" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="7"/>
       <c r="B177" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
@@ -6539,30 +6719,35 @@
       <c r="J177" s="7"/>
       <c r="K177" s="8"/>
       <c r="L177" s="2" t="str">
-        <f>"cTrgtPaths.Clear"</f>
-        <v>cTrgtPaths.Clear</v>
+        <f>"cTrgtPaths.Insert 2, ""c:\test\e.ppt"""</f>
+        <v>cTrgtPaths.Insert 2, "c:\test\e.ppt"</v>
       </c>
       <c r="M177" s="13" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="N177" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="178" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="9"/>
-      <c r="B178" s="9"/>
-      <c r="C178" s="9"/>
-      <c r="D178" s="9"/>
-      <c r="E178" s="9"/>
-      <c r="F178" s="9"/>
-      <c r="G178" s="9"/>
-      <c r="H178" s="9"/>
-      <c r="I178" s="9"/>
-      <c r="J178" s="9"/>
-      <c r="K178" s="10"/>
-      <c r="L178" s="3"/>
-      <c r="M178" s="14" t="s">
+    <row r="178" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="7"/>
+      <c r="B178" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="7"/>
+      <c r="J178" s="7"/>
+      <c r="K178" s="8"/>
+      <c r="L178" s="2" t="str">
+        <f>"cTrgtPaths.Sort"</f>
+        <v>cTrgtPaths.Sort</v>
+      </c>
+      <c r="M178" s="13" t="s">
         <v>171</v>
       </c>
       <c r="N178" s="19" t="s">
@@ -6570,10 +6755,10 @@
       </c>
     </row>
     <row r="179" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B179" s="7"/>
+      <c r="A179" s="7"/>
+      <c r="B179" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -6584,21 +6769,22 @@
       <c r="J179" s="7"/>
       <c r="K179" s="8"/>
       <c r="L179" s="2" t="str">
-        <f>"ThisWorkbook.Names.Add Name:=""テスト"", RefersTo:=""=indirect(""""R1C1"""",false)"""</f>
-        <v>ThisWorkbook.Names.Add Name:="テスト", RefersTo:="=indirect(""R1C1"",false)"</v>
+        <f>"Dim avTrgtPaths"&amp;CHAR(10)&amp;"avTrgtPaths = cTrgtPaths.ToArray()"</f>
+        <v>Dim avTrgtPaths
+avTrgtPaths = cTrgtPaths.ToArray()</v>
       </c>
       <c r="M179" s="13" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="N179" s="19" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B180" s="7"/>
+      <c r="A180" s="7"/>
+      <c r="B180" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -6609,8 +6795,8 @@
       <c r="J180" s="7"/>
       <c r="K180" s="8"/>
       <c r="L180" s="2" t="str">
-        <f>"ThisWorkbook.Names(""テスト"").Delete"</f>
-        <v>ThisWorkbook.Names("テスト").Delete</v>
+        <f>"cTrgtPaths.Clear"</f>
+        <v>cTrgtPaths.Clear</v>
       </c>
       <c r="M180" s="13" t="s">
         <v>171</v>
@@ -6636,12 +6822,12 @@
         <v>171</v>
       </c>
       <c r="N181" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -6654,11 +6840,11 @@
       <c r="J182" s="7"/>
       <c r="K182" s="8"/>
       <c r="L182" s="2" t="str">
-        <f>".Range(""A1:B2"").FormatConditions.Add Type:=xlExpression, Formula1:=""=$A1=""""あ"""""""</f>
-        <v>.Range("A1:B2").FormatConditions.Add Type:=xlExpression, Formula1:="=$A1=""あ"""</v>
+        <f>"ThisWorkbook.Names.Add Name:=""テスト"", RefersTo:=""=indirect(""""R1C1"""",false)"""</f>
+        <v>ThisWorkbook.Names.Add Name:="テスト", RefersTo:="=indirect(""R1C1"",false)"</v>
       </c>
       <c r="M182" s="13" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="N182" s="19" t="s">
         <v>241</v>
@@ -6666,7 +6852,7 @@
     </row>
     <row r="183" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -6679,8 +6865,8 @@
       <c r="J183" s="7"/>
       <c r="K183" s="8"/>
       <c r="L183" s="2" t="str">
-        <f>".Range(""A1:B2"").FormatConditions(1).Interior.Color = RGB(255, 255, 0)"</f>
-        <v>.Range("A1:B2").FormatConditions(1).Interior.Color = RGB(255, 255, 0)</v>
+        <f>"ThisWorkbook.Names(""テスト"").Delete"</f>
+        <v>ThisWorkbook.Names("テスト").Delete</v>
       </c>
       <c r="M183" s="13" t="s">
         <v>171</v>
@@ -6689,45 +6875,45 @@
         <v>241</v>
       </c>
     </row>
-    <row r="184" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B184" s="7"/>
-      <c r="C184" s="7"/>
-      <c r="D184" s="7"/>
-      <c r="E184" s="7"/>
-      <c r="F184" s="7"/>
-      <c r="G184" s="7"/>
-      <c r="H184" s="7"/>
-      <c r="I184" s="7"/>
-      <c r="J184" s="7"/>
-      <c r="K184" s="8"/>
-      <c r="L184" s="2" t="str">
-        <f>".Range(""A1:B2"").FormatConditions(1).Font.Color = RGB(0, 255, 0)"</f>
-        <v>.Range("A1:B2").FormatConditions(1).Font.Color = RGB(0, 255, 0)</v>
-      </c>
-      <c r="M184" s="13" t="s">
+    <row r="184" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="9"/>
+      <c r="B184" s="9"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="9"/>
+      <c r="K184" s="10"/>
+      <c r="L184" s="3"/>
+      <c r="M184" s="14" t="s">
         <v>171</v>
       </c>
       <c r="N184" s="19" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="9"/>
-      <c r="B185" s="9"/>
-      <c r="C185" s="9"/>
-      <c r="D185" s="9"/>
-      <c r="E185" s="9"/>
-      <c r="F185" s="9"/>
-      <c r="G185" s="9"/>
-      <c r="H185" s="9"/>
-      <c r="I185" s="9"/>
-      <c r="J185" s="9"/>
-      <c r="K185" s="10"/>
-      <c r="L185" s="3"/>
-      <c r="M185" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="7"/>
+      <c r="J185" s="7"/>
+      <c r="K185" s="8"/>
+      <c r="L185" s="2" t="str">
+        <f>".Range(""A1:B2"").FormatConditions.Add Type:=xlExpression, Formula1:=""=$A1=""""あ"""""""</f>
+        <v>.Range("A1:B2").FormatConditions.Add Type:=xlExpression, Formula1:="=$A1=""あ"""</v>
+      </c>
+      <c r="M185" s="13" t="s">
         <v>171</v>
       </c>
       <c r="N185" s="19" t="s">
@@ -6736,7 +6922,7 @@
     </row>
     <row r="186" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -6749,101 +6935,101 @@
       <c r="J186" s="7"/>
       <c r="K186" s="8"/>
       <c r="L186" s="2" t="str">
+        <f>".Range(""A1:B2"").FormatConditions(1).Interior.Color = RGB(255, 255, 0)"</f>
+        <v>.Range("A1:B2").FormatConditions(1).Interior.Color = RGB(255, 255, 0)</v>
+      </c>
+      <c r="M186" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="N186" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B187" s="7"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="7"/>
+      <c r="J187" s="7"/>
+      <c r="K187" s="8"/>
+      <c r="L187" s="2" t="str">
+        <f>".Range(""A1:B2"").FormatConditions(1).Font.Color = RGB(0, 255, 0)"</f>
+        <v>.Range("A1:B2").FormatConditions(1).Font.Color = RGB(0, 255, 0)</v>
+      </c>
+      <c r="M187" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="N187" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="9"/>
+      <c r="B188" s="9"/>
+      <c r="C188" s="9"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="9"/>
+      <c r="I188" s="9"/>
+      <c r="J188" s="9"/>
+      <c r="K188" s="10"/>
+      <c r="L188" s="3"/>
+      <c r="M188" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="N188" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B189" s="7"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="7"/>
+      <c r="J189" s="7"/>
+      <c r="K189" s="8"/>
+      <c r="L189" s="2" t="str">
         <f>"Application.SendKeys ""+{DOWN}"", True"</f>
         <v>Application.SendKeys "+{DOWN}", True</v>
       </c>
-      <c r="M186" s="13" t="s">
+      <c r="M189" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="N186" s="19" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="9"/>
-      <c r="B187" s="9"/>
-      <c r="C187" s="9"/>
-      <c r="D187" s="9"/>
-      <c r="E187" s="9"/>
-      <c r="F187" s="9"/>
-      <c r="G187" s="9"/>
-      <c r="H187" s="9"/>
-      <c r="I187" s="9"/>
-      <c r="J187" s="9"/>
-      <c r="K187" s="10"/>
-      <c r="L187" s="3"/>
-      <c r="M187" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="N187" s="19" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B188" s="7"/>
-      <c r="C188" s="7"/>
-      <c r="D188" s="7"/>
-      <c r="E188" s="7"/>
-      <c r="F188" s="7"/>
-      <c r="G188" s="7"/>
-      <c r="H188" s="7"/>
-      <c r="I188" s="7"/>
-      <c r="J188" s="7"/>
-      <c r="K188" s="8"/>
-      <c r="L188" s="2" t="str">
-        <f>"Application.CommandBars.ExecuteMso ""CellsDelete"""</f>
-        <v>Application.CommandBars.ExecuteMso "CellsDelete"</v>
-      </c>
-      <c r="M188" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="N188" s="19" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="9"/>
-      <c r="B189" s="9"/>
-      <c r="C189" s="9"/>
-      <c r="D189" s="9"/>
-      <c r="E189" s="9"/>
-      <c r="F189" s="9"/>
-      <c r="G189" s="9"/>
-      <c r="H189" s="9"/>
-      <c r="I189" s="9"/>
-      <c r="J189" s="9"/>
-      <c r="K189" s="10"/>
-      <c r="L189" s="3"/>
-      <c r="M189" s="14" t="s">
-        <v>171</v>
-      </c>
       <c r="N189" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="190" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B190" s="7"/>
-      <c r="C190" s="7"/>
-      <c r="D190" s="7"/>
-      <c r="E190" s="7"/>
-      <c r="F190" s="7"/>
-      <c r="G190" s="7"/>
-      <c r="H190" s="7"/>
-      <c r="I190" s="7"/>
-      <c r="J190" s="7"/>
-      <c r="K190" s="8"/>
-      <c r="L190" s="2" t="str">
-        <f>"CreateObject(""WScript.Network"").UserName"</f>
-        <v>CreateObject("WScript.Network").UserName</v>
-      </c>
-      <c r="M190" s="13" t="s">
-        <v>227</v>
+    <row r="190" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="9"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="9"/>
+      <c r="I190" s="9"/>
+      <c r="J190" s="9"/>
+      <c r="K190" s="10"/>
+      <c r="L190" s="3"/>
+      <c r="M190" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="N190" s="19" t="s">
         <v>241</v>
@@ -6851,7 +7037,7 @@
     </row>
     <row r="191" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -6864,11 +7050,11 @@
       <c r="J191" s="7"/>
       <c r="K191" s="8"/>
       <c r="L191" s="2" t="str">
-        <f>"""C:\Users\""&amp; CreateObject(""WScript.Network"").UserName &amp;""\AppData\Local\Temp"""</f>
-        <v>"C:\Users\"&amp; CreateObject("WScript.Network").UserName &amp;"\AppData\Local\Temp"</v>
+        <f>"Application.CommandBars.ExecuteMso ""CellsDelete"""</f>
+        <v>Application.CommandBars.ExecuteMso "CellsDelete"</v>
       </c>
       <c r="M191" s="13" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="N191" s="19" t="s">
         <v>241</v>
@@ -6895,7 +7081,9 @@
       </c>
     </row>
     <row r="193" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="7"/>
+      <c r="A193" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
@@ -6906,14 +7094,21 @@
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
       <c r="K193" s="8"/>
-      <c r="L193" s="2"/>
-      <c r="M193" s="13"/>
+      <c r="L193" s="2" t="str">
+        <f>"CreateObject(""WScript.Network"").UserName"</f>
+        <v>CreateObject("WScript.Network").UserName</v>
+      </c>
+      <c r="M193" s="13" t="s">
+        <v>227</v>
+      </c>
       <c r="N193" s="19" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="194" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="7"/>
+      <c r="A194" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
@@ -6924,26 +7119,33 @@
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
       <c r="K194" s="8"/>
-      <c r="L194" s="2"/>
-      <c r="M194" s="13"/>
+      <c r="L194" s="2" t="str">
+        <f>"""C:\Users\""&amp; CreateObject(""WScript.Network"").UserName &amp;""\AppData\Local\Temp"""</f>
+        <v>"C:\Users\"&amp; CreateObject("WScript.Network").UserName &amp;"\AppData\Local\Temp"</v>
+      </c>
+      <c r="M194" s="13" t="s">
+        <v>171</v>
+      </c>
       <c r="N194" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="195" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="7"/>
-      <c r="B195" s="7"/>
-      <c r="C195" s="7"/>
-      <c r="D195" s="7"/>
-      <c r="E195" s="7"/>
-      <c r="F195" s="7"/>
-      <c r="G195" s="7"/>
-      <c r="H195" s="7"/>
-      <c r="I195" s="7"/>
-      <c r="J195" s="7"/>
-      <c r="K195" s="8"/>
-      <c r="L195" s="2"/>
-      <c r="M195" s="13"/>
+    <row r="195" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="9"/>
+      <c r="B195" s="9"/>
+      <c r="C195" s="9"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="9"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="9"/>
+      <c r="K195" s="10"/>
+      <c r="L195" s="3"/>
+      <c r="M195" s="14" t="s">
+        <v>171</v>
+      </c>
       <c r="N195" s="19" t="s">
         <v>241</v>
       </c>
@@ -8016,14 +8218,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE88FAF-CBE5-4D11-9E2A-3AD9DCB1A658}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M495"/>
+  <dimension ref="A1:M504"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L258" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L170" activePane="bottomRight" state="frozen"/>
       <selection activeCell="N251" sqref="N251"/>
       <selection pane="topRight" activeCell="N251" sqref="N251"/>
       <selection pane="bottomLeft" activeCell="N251" sqref="N251"/>
-      <selection pane="bottomRight" activeCell="L285" sqref="L285"/>
+      <selection pane="bottomRight" activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="10.199999999999999" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -10684,7 +10886,7 @@
     </row>
     <row r="121" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="7" t="s">
-        <v>108</v>
+        <v>474</v>
       </c>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -10696,17 +10898,16 @@
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="8"/>
-      <c r="L121" s="2" t="str">
-        <f>"Asc(文字)"</f>
-        <v>Asc(文字)</v>
+      <c r="L121" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="M121" s="13" t="s">
-        <v>171</v>
+        <v>462</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="7" t="s">
-        <v>109</v>
+        <v>476</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -10718,17 +10919,16 @@
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
       <c r="K122" s="8"/>
-      <c r="L122" s="2" t="str">
-        <f>"IsNumeric( sStr )"</f>
-        <v>IsNumeric( sStr )</v>
+      <c r="L122" s="2" t="s">
+        <v>461</v>
       </c>
       <c r="M122" s="13" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="7" t="s">
-        <v>110</v>
+        <v>478</v>
       </c>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -10740,17 +10940,16 @@
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
       <c r="K123" s="8"/>
-      <c r="L123" s="2" t="str">
-        <f>"Chr(ASCIIコード)"</f>
-        <v>Chr(ASCIIコード)</v>
+      <c r="L123" s="2" t="s">
+        <v>457</v>
       </c>
       <c r="M123" s="13" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -10763,16 +10962,16 @@
       <c r="J124" s="7"/>
       <c r="K124" s="8"/>
       <c r="L124" s="2" t="str">
-        <f>"a &amp; String(""b"", 4)"</f>
-        <v>a &amp; String("b", 4)</v>
+        <f>"Asc(文字)"</f>
+        <v>Asc(文字)</v>
       </c>
       <c r="M124" s="13" t="s">
-        <v>431</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -10785,16 +10984,16 @@
       <c r="J125" s="7"/>
       <c r="K125" s="8"/>
       <c r="L125" s="2" t="str">
-        <f>"UCase(""aaa"")"</f>
-        <v>UCase("aaa")</v>
+        <f>"IsNumeric( sStr )"</f>
+        <v>IsNumeric( sStr )</v>
       </c>
       <c r="M125" s="13" t="s">
-        <v>171</v>
+        <v>430</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -10807,16 +11006,16 @@
       <c r="J126" s="7"/>
       <c r="K126" s="8"/>
       <c r="L126" s="2" t="str">
-        <f>"LCase(""AAA"")"</f>
-        <v>LCase("AAA")</v>
+        <f>"Chr(ASCIIコード)"</f>
+        <v>Chr(ASCIIコード)</v>
       </c>
       <c r="M126" s="13" t="s">
-        <v>171</v>
+        <v>389</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -10829,16 +11028,16 @@
       <c r="J127" s="7"/>
       <c r="K127" s="8"/>
       <c r="L127" s="2" t="str">
-        <f>"ReDim Preserve 配列名(5)"</f>
-        <v>ReDim Preserve 配列名(5)</v>
+        <f>"a &amp; String(""b"", 4)"</f>
+        <v>a &amp; String("b", 4)</v>
       </c>
       <c r="M127" s="13" t="s">
-        <v>380</v>
+        <v>431</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -10851,16 +11050,16 @@
       <c r="J128" s="7"/>
       <c r="K128" s="8"/>
       <c r="L128" s="2" t="str">
-        <f>"UBound(配列名)"</f>
-        <v>UBound(配列名)</v>
+        <f>"UCase(""aaa"")"</f>
+        <v>UCase("aaa")</v>
       </c>
       <c r="M128" s="13" t="s">
-        <v>432</v>
+        <v>171</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -10873,12 +11072,8 @@
       <c r="J129" s="7"/>
       <c r="K129" s="8"/>
       <c r="L129" s="2" t="str">
-        <f>"If Sgn(asStr) = 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"未初期化配列"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"要素数１配列"&amp;CHAR(10)&amp;"End If"</f>
-        <v>If Sgn(asStr) = 0 Then
-	未初期化配列
-Else
-	要素数１配列
-End If</v>
+        <f>"LCase(""AAA"")"</f>
+        <v>LCase("AAA")</v>
       </c>
       <c r="M129" s="13" t="s">
         <v>171</v>
@@ -10886,7 +11081,7 @@
     </row>
     <row r="130" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -10899,16 +11094,16 @@
       <c r="J130" s="7"/>
       <c r="K130" s="8"/>
       <c r="L130" s="2" t="str">
-        <f>"Join(配列, "","")"</f>
-        <v>Join(配列, ",")</v>
+        <f>"ReDim Preserve 配列名(5)"</f>
+        <v>ReDim Preserve 配列名(5)</v>
       </c>
       <c r="M130" s="13" t="s">
-        <v>171</v>
+        <v>380</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -10921,16 +11116,16 @@
       <c r="J131" s="7"/>
       <c r="K131" s="8"/>
       <c r="L131" s="2" t="str">
-        <f>"文字列配列 = Split(""aaa,bbb,ccc"", "","")"</f>
-        <v>文字列配列 = Split("aaa,bbb,ccc", ",")</v>
+        <f>"UBound(配列名)"</f>
+        <v>UBound(配列名)</v>
       </c>
       <c r="M131" s="13" t="s">
-        <v>171</v>
+        <v>432</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -10943,16 +11138,20 @@
       <c r="J132" s="7"/>
       <c r="K132" s="8"/>
       <c r="L132" s="2" t="str">
-        <f>"TypeName(""Test"")"</f>
-        <v>TypeName("Test")</v>
+        <f>"If Sgn(asStr) = 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"未初期化配列"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"要素数１配列"&amp;CHAR(10)&amp;"End If"</f>
+        <v>If Sgn(asStr) = 0 Then
+	未初期化配列
+Else
+	要素数１配列
+End If</v>
       </c>
       <c r="M132" s="13" t="s">
-        <v>433</v>
+        <v>171</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -10965,16 +11164,16 @@
       <c r="J133" s="7"/>
       <c r="K133" s="8"/>
       <c r="L133" s="2" t="str">
-        <f>"VarType(""Test"")"</f>
-        <v>VarType("Test")</v>
+        <f>"Join(配列, "","")"</f>
+        <v>Join(配列, ",")</v>
       </c>
       <c r="M133" s="13" t="s">
-        <v>434</v>
+        <v>171</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -10987,8 +11186,8 @@
       <c r="J134" s="7"/>
       <c r="K134" s="8"/>
       <c r="L134" s="2" t="str">
-        <f>"文字列変数 = Hex(734)"</f>
-        <v>文字列変数 = Hex(734)</v>
+        <f>"文字列配列 = Split(""aaa,bbb,ccc"", "","")"</f>
+        <v>文字列配列 = Split("aaa,bbb,ccc", ",")</v>
       </c>
       <c r="M134" s="13" t="s">
         <v>171</v>
@@ -10996,7 +11195,7 @@
     </row>
     <row r="135" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="7" t="s">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -11009,16 +11208,16 @@
       <c r="J135" s="7"/>
       <c r="K135" s="8"/>
       <c r="L135" s="2" t="str">
-        <f>"Long変数 = CLng(""&amp;H"" &amp; ""FA"")"</f>
-        <v>Long変数 = CLng("&amp;H" &amp; "FA")</v>
+        <f>"TypeName(""Test"")"</f>
+        <v>TypeName("Test")</v>
       </c>
       <c r="M135" s="13" t="s">
-        <v>171</v>
+        <v>433</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="7" t="s">
-        <v>268</v>
+        <v>120</v>
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -11031,16 +11230,16 @@
       <c r="J136" s="7"/>
       <c r="K136" s="8"/>
       <c r="L136" s="2" t="str">
-        <f>"Int変数 = CInt(""&amp;H"" &amp; ""FA"")"</f>
-        <v>Int変数 = CInt("&amp;H" &amp; "FA")</v>
+        <f>"VarType(""Test"")"</f>
+        <v>VarType("Test")</v>
       </c>
       <c r="M136" s="13" t="s">
-        <v>171</v>
+        <v>434</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -11053,8 +11252,8 @@
       <c r="J137" s="7"/>
       <c r="K137" s="8"/>
       <c r="L137" s="2" t="str">
-        <f>"&amp;HFFF0"</f>
-        <v>&amp;HFFF0</v>
+        <f>"文字列変数 = Hex(734)"</f>
+        <v>文字列変数 = Hex(734)</v>
       </c>
       <c r="M137" s="13" t="s">
         <v>171</v>
@@ -11062,7 +11261,7 @@
     </row>
     <row r="138" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="7" t="s">
-        <v>124</v>
+        <v>267</v>
       </c>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -11075,8 +11274,8 @@
       <c r="J138" s="7"/>
       <c r="K138" s="8"/>
       <c r="L138" s="2" t="str">
-        <f>"&amp;HFFF0&amp;"</f>
-        <v>&amp;HFFF0&amp;</v>
+        <f>"Long変数 = CLng(""&amp;H"" &amp; ""FA"")"</f>
+        <v>Long変数 = CLng("&amp;H" &amp; "FA")</v>
       </c>
       <c r="M138" s="13" t="s">
         <v>171</v>
@@ -11084,7 +11283,7 @@
     </row>
     <row r="139" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -11097,8 +11296,8 @@
       <c r="J139" s="7"/>
       <c r="K139" s="8"/>
       <c r="L139" s="2" t="str">
-        <f>"Val(文字列式)"</f>
-        <v>Val(文字列式)</v>
+        <f>"Int変数 = CInt(""&amp;H"" &amp; ""FA"")"</f>
+        <v>Int変数 = CInt("&amp;H" &amp; "FA")</v>
       </c>
       <c r="M139" s="13" t="s">
         <v>171</v>
@@ -11106,7 +11305,7 @@
     </row>
     <row r="140" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="7" t="s">
-        <v>270</v>
+        <v>123</v>
       </c>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -11119,8 +11318,8 @@
       <c r="J140" s="7"/>
       <c r="K140" s="8"/>
       <c r="L140" s="2" t="str">
-        <f>"Str(数値)"</f>
-        <v>Str(数値)</v>
+        <f>"&amp;HFFF0"</f>
+        <v>&amp;HFFF0</v>
       </c>
       <c r="M140" s="13" t="s">
         <v>171</v>
@@ -11128,7 +11327,7 @@
     </row>
     <row r="141" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -11141,8 +11340,8 @@
       <c r="J141" s="7"/>
       <c r="K141" s="8"/>
       <c r="L141" s="2" t="str">
-        <f>"( vbNewLine \| vbCr \| vbLf \| vbCrLf )"</f>
-        <v>( vbNewLine \| vbCr \| vbLf \| vbCrLf )</v>
+        <f>"&amp;HFFF0&amp;"</f>
+        <v>&amp;HFFF0&amp;</v>
       </c>
       <c r="M141" s="13" t="s">
         <v>171</v>
@@ -11150,7 +11349,7 @@
     </row>
     <row r="142" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="7" t="s">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -11163,16 +11362,16 @@
       <c r="J142" s="7"/>
       <c r="K142" s="8"/>
       <c r="L142" s="2" t="str">
-        <f>"Fix( 99.224 )"</f>
-        <v>Fix( 99.224 )</v>
-      </c>
-      <c r="M142" s="13">
-        <v>99</v>
+        <f>"Val(文字列式)"</f>
+        <v>Val(文字列式)</v>
+      </c>
+      <c r="M142" s="13" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="7" t="s">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -11185,16 +11384,16 @@
       <c r="J143" s="7"/>
       <c r="K143" s="8"/>
       <c r="L143" s="2" t="str">
-        <f>"Int( 99.224 )"</f>
-        <v>Int( 99.224 )</v>
-      </c>
-      <c r="M143" s="13">
-        <v>99</v>
+        <f>"Str(数値)"</f>
+        <v>Str(数値)</v>
+      </c>
+      <c r="M143" s="13" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -11207,16 +11406,16 @@
       <c r="J144" s="7"/>
       <c r="K144" s="8"/>
       <c r="L144" s="2" t="str">
-        <f>"Fix( -99.224 )"</f>
-        <v>Fix( -99.224 )</v>
+        <f>"( vbNewLine \| vbCr \| vbLf \| vbCrLf )"</f>
+        <v>( vbNewLine \| vbCr \| vbLf \| vbCrLf )</v>
       </c>
       <c r="M144" s="13" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -11229,16 +11428,16 @@
       <c r="J145" s="7"/>
       <c r="K145" s="8"/>
       <c r="L145" s="2" t="str">
-        <f>"Int( -99.224 )"</f>
-        <v>Int( -99.224 )</v>
-      </c>
-      <c r="M145" s="13" t="s">
-        <v>233</v>
+        <f>"Fix( 99.224 )"</f>
+        <v>Fix( 99.224 )</v>
+      </c>
+      <c r="M145" s="13">
+        <v>99</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -11251,16 +11450,16 @@
       <c r="J146" s="7"/>
       <c r="K146" s="8"/>
       <c r="L146" s="2" t="str">
-        <f>"Round( 99.555, 0 )"</f>
-        <v>Round( 99.555, 0 )</v>
+        <f>"Int( 99.224 )"</f>
+        <v>Int( 99.224 )</v>
       </c>
       <c r="M146" s="13">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -11273,16 +11472,16 @@
       <c r="J147" s="7"/>
       <c r="K147" s="8"/>
       <c r="L147" s="2" t="str">
-        <f>"Round( 99.555, 1 )"</f>
-        <v>Round( 99.555, 1 )</v>
-      </c>
-      <c r="M147" s="13">
-        <v>99.6</v>
+        <f>"Fix( -99.224 )"</f>
+        <v>Fix( -99.224 )</v>
+      </c>
+      <c r="M147" s="13" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -11295,16 +11494,16 @@
       <c r="J148" s="7"/>
       <c r="K148" s="8"/>
       <c r="L148" s="2" t="str">
-        <f>"Round( 99.555, 2 )"</f>
-        <v>Round( 99.555, 2 )</v>
-      </c>
-      <c r="M148" s="13">
-        <v>99.56</v>
+        <f>"Int( -99.224 )"</f>
+        <v>Int( -99.224 )</v>
+      </c>
+      <c r="M148" s="13" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -11317,16 +11516,16 @@
       <c r="J149" s="7"/>
       <c r="K149" s="8"/>
       <c r="L149" s="2" t="str">
-        <f>"Round( -99.555, 0 )"</f>
-        <v>Round( -99.555, 0 )</v>
+        <f>"Round( 99.555, 0 )"</f>
+        <v>Round( 99.555, 0 )</v>
       </c>
       <c r="M149" s="13">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -11339,16 +11538,16 @@
       <c r="J150" s="7"/>
       <c r="K150" s="8"/>
       <c r="L150" s="2" t="str">
-        <f>"Round( -99.555, 1 )"</f>
-        <v>Round( -99.555, 1 )</v>
+        <f>"Round( 99.555, 1 )"</f>
+        <v>Round( 99.555, 1 )</v>
       </c>
       <c r="M150" s="13">
-        <v>-99.6</v>
+        <v>99.6</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -11361,16 +11560,16 @@
       <c r="J151" s="7"/>
       <c r="K151" s="8"/>
       <c r="L151" s="2" t="str">
-        <f>"Round( -99.555, 2 )"</f>
-        <v>Round( -99.555, 2 )</v>
+        <f>"Round( 99.555, 2 )"</f>
+        <v>Round( 99.555, 2 )</v>
       </c>
       <c r="M151" s="13">
-        <v>-99.56</v>
+        <v>99.56</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -11383,16 +11582,16 @@
       <c r="J152" s="7"/>
       <c r="K152" s="8"/>
       <c r="L152" s="2" t="str">
-        <f>"Round( 99.224 + 0.5, 0 )"</f>
-        <v>Round( 99.224 + 0.5, 0 )</v>
+        <f>"Round( -99.555, 0 )"</f>
+        <v>Round( -99.555, 0 )</v>
       </c>
       <c r="M152" s="13">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -11405,16 +11604,16 @@
       <c r="J153" s="7"/>
       <c r="K153" s="8"/>
       <c r="L153" s="2" t="str">
-        <f>"Round( 99.224 + 0.05, 1 )"</f>
-        <v>Round( 99.224 + 0.05, 1 )</v>
+        <f>"Round( -99.555, 1 )"</f>
+        <v>Round( -99.555, 1 )</v>
       </c>
       <c r="M153" s="13">
-        <v>99.3</v>
+        <v>-99.6</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -11427,16 +11626,16 @@
       <c r="J154" s="7"/>
       <c r="K154" s="8"/>
       <c r="L154" s="2" t="str">
-        <f>"Round( -99.224 - 0.5, 0 )"</f>
-        <v>Round( -99.224 - 0.5, 0 )</v>
+        <f>"Round( -99.555, 2 )"</f>
+        <v>Round( -99.555, 2 )</v>
       </c>
       <c r="M154" s="13">
-        <v>-100</v>
+        <v>-99.56</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -11449,16 +11648,16 @@
       <c r="J155" s="7"/>
       <c r="K155" s="8"/>
       <c r="L155" s="2" t="str">
-        <f>"Round( -99.224 - 0.05, 1 )"</f>
-        <v>Round( -99.224 - 0.05, 1 )</v>
+        <f>"Round( 99.224 + 0.5, 0 )"</f>
+        <v>Round( 99.224 + 0.5, 0 )</v>
       </c>
       <c r="M155" s="13">
-        <v>-99.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -11471,16 +11670,16 @@
       <c r="J156" s="7"/>
       <c r="K156" s="8"/>
       <c r="L156" s="2" t="str">
-        <f>"Round( 99.224 - 0.5, 0 )"</f>
-        <v>Round( 99.224 - 0.5, 0 )</v>
-      </c>
-      <c r="M156" s="13" t="s">
-        <v>234</v>
+        <f>"Round( 99.224 + 0.05, 1 )"</f>
+        <v>Round( 99.224 + 0.05, 1 )</v>
+      </c>
+      <c r="M156" s="13">
+        <v>99.3</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -11493,16 +11692,16 @@
       <c r="J157" s="7"/>
       <c r="K157" s="8"/>
       <c r="L157" s="2" t="str">
-        <f>"Round( 99.224 - 0.05, 1 )"</f>
-        <v>Round( 99.224 - 0.05, 1 )</v>
+        <f>"Round( -99.224 - 0.5, 0 )"</f>
+        <v>Round( -99.224 - 0.5, 0 )</v>
       </c>
       <c r="M157" s="13">
-        <v>99.2</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -11515,16 +11714,16 @@
       <c r="J158" s="7"/>
       <c r="K158" s="8"/>
       <c r="L158" s="2" t="str">
-        <f>"Round( -99.224 + 0.5, 0 )"</f>
-        <v>Round( -99.224 + 0.5, 0 )</v>
-      </c>
-      <c r="M158" s="13" t="s">
-        <v>235</v>
+        <f>"Round( -99.224 - 0.05, 1 )"</f>
+        <v>Round( -99.224 - 0.05, 1 )</v>
+      </c>
+      <c r="M158" s="13">
+        <v>-99.3</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -11537,33 +11736,38 @@
       <c r="J159" s="7"/>
       <c r="K159" s="8"/>
       <c r="L159" s="2" t="str">
-        <f>"Round( -99.224 + 0.05, 1 )"</f>
-        <v>Round( -99.224 + 0.05, 1 )</v>
-      </c>
-      <c r="M159" s="13">
-        <v>-99.2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="21"/>
-      <c r="B160" s="21"/>
-      <c r="C160" s="21"/>
-      <c r="D160" s="21"/>
-      <c r="E160" s="21"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="21"/>
-      <c r="I160" s="21"/>
-      <c r="J160" s="21"/>
-      <c r="K160" s="22"/>
-      <c r="L160" s="23"/>
-      <c r="M160" s="24" t="s">
-        <v>171</v>
+        <f>"Round( 99.224 - 0.5, 0 )"</f>
+        <v>Round( 99.224 - 0.5, 0 )</v>
+      </c>
+      <c r="M159" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="8"/>
+      <c r="L160" s="2" t="str">
+        <f>"Round( 99.224 - 0.05, 1 )"</f>
+        <v>Round( 99.224 - 0.05, 1 )</v>
+      </c>
+      <c r="M160" s="13">
+        <v>99.2</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -11576,16 +11780,16 @@
       <c r="J161" s="7"/>
       <c r="K161" s="8"/>
       <c r="L161" s="2" t="str">
-        <f>"Now"</f>
-        <v>Now</v>
+        <f>"Round( -99.224 + 0.5, 0 )"</f>
+        <v>Round( -99.224 + 0.5, 0 )</v>
       </c>
       <c r="M161" s="13" t="s">
-        <v>435</v>
+        <v>235</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -11598,38 +11802,33 @@
       <c r="J162" s="7"/>
       <c r="K162" s="8"/>
       <c r="L162" s="2" t="str">
-        <f>"Date"</f>
-        <v>Date</v>
-      </c>
-      <c r="M162" s="13" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B163" s="7"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
-      <c r="I163" s="7"/>
-      <c r="J163" s="7"/>
-      <c r="K163" s="8"/>
-      <c r="L163" s="2" t="str">
-        <f>"Timer"</f>
-        <v>Timer</v>
-      </c>
-      <c r="M163" s="13" t="s">
-        <v>437</v>
+        <f>"Round( -99.224 + 0.05, 1 )"</f>
+        <v>Round( -99.224 + 0.05, 1 )</v>
+      </c>
+      <c r="M162" s="13">
+        <v>-99.2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="21"/>
+      <c r="B163" s="21"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="21"/>
+      <c r="H163" s="21"/>
+      <c r="I163" s="21"/>
+      <c r="J163" s="21"/>
+      <c r="K163" s="22"/>
+      <c r="L163" s="23"/>
+      <c r="M163" s="24" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="164" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -11642,22 +11841,16 @@
       <c r="J164" s="7"/>
       <c r="K164" s="8"/>
       <c r="L164" s="2" t="str">
-        <f>"If DateDiff(""s"", sCmpBaseTime, sModDate ) &gt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate が新しい"&amp;CHAR(10)&amp;"ElseIf DateDiff(""s"", sCmpBaseTime, sModDate ) &lt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate が古い"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate = sCmpBaseTime"&amp;CHAR(10)&amp;"End If"</f>
-        <v>If DateDiff("s", sCmpBaseTime, sModDate ) &gt; 0 Then
-	sModDate が新しい
-ElseIf DateDiff("s", sCmpBaseTime, sModDate ) &lt; 0 Then
-	sModDate が古い
-Else
-	sModDate = sCmpBaseTime
-End If</v>
+        <f>"Now"</f>
+        <v>Now</v>
       </c>
       <c r="M164" s="13" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="165" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -11670,34 +11863,38 @@
       <c r="J165" s="7"/>
       <c r="K165" s="8"/>
       <c r="L165" s="2" t="str">
-        <f>"Public Declare Sub Sleep Lib ""kernel32"" (ByVal dwMilliseconds As Long)"&amp;CHAR(10)&amp;"Sleep 1000"</f>
-        <v>Public Declare Sub Sleep Lib "kernel32" (ByVal dwMilliseconds As Long)
-Sleep 1000</v>
+        <f>"Date"</f>
+        <v>Date</v>
       </c>
       <c r="M165" s="13" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="21"/>
-      <c r="B166" s="21"/>
-      <c r="C166" s="21"/>
-      <c r="D166" s="21"/>
-      <c r="E166" s="21"/>
-      <c r="F166" s="21"/>
-      <c r="G166" s="21"/>
-      <c r="H166" s="21"/>
-      <c r="I166" s="21"/>
-      <c r="J166" s="21"/>
-      <c r="K166" s="22"/>
-      <c r="L166" s="23"/>
-      <c r="M166" s="24" t="s">
-        <v>171</v>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B166" s="7"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7"/>
+      <c r="J166" s="7"/>
+      <c r="K166" s="8"/>
+      <c r="L166" s="2" t="str">
+        <f>"Timer"</f>
+        <v>Timer</v>
+      </c>
+      <c r="M166" s="13" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="167" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="7" t="s">
-        <v>271</v>
+        <v>150</v>
       </c>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -11710,18 +11907,22 @@
       <c r="J167" s="7"/>
       <c r="K167" s="8"/>
       <c r="L167" s="2" t="str">
-        <f>"Dim wTrgtBook As Workbook"&amp;CHAR(10)&amp;"Application.SheetsInNewWorkbook = 1"&amp;CHAR(10)&amp;"Set wTrgtBook = Workbooks.Add"</f>
-        <v>Dim wTrgtBook As Workbook
-Application.SheetsInNewWorkbook = 1
-Set wTrgtBook = Workbooks.Add</v>
+        <f>"If DateDiff(""s"", sCmpBaseTime, sModDate ) &gt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate が新しい"&amp;CHAR(10)&amp;"ElseIf DateDiff(""s"", sCmpBaseTime, sModDate ) &lt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate が古い"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate = sCmpBaseTime"&amp;CHAR(10)&amp;"End If"</f>
+        <v>If DateDiff("s", sCmpBaseTime, sModDate ) &gt; 0 Then
+	sModDate が新しい
+ElseIf DateDiff("s", sCmpBaseTime, sModDate ) &lt; 0 Then
+	sModDate が古い
+Else
+	sModDate = sCmpBaseTime
+End If</v>
       </c>
       <c r="M167" s="13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="7" t="s">
-        <v>272</v>
+        <v>151</v>
       </c>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -11734,43 +11935,34 @@
       <c r="J168" s="7"/>
       <c r="K168" s="8"/>
       <c r="L168" s="2" t="str">
-        <f>"If wCsvBook.Name &lt;&gt; Dir(""C:\Book1.xlsx"") Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"処理"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"エラー"&amp;CHAR(10)&amp;"End If"</f>
-        <v>If wCsvBook.Name &lt;&gt; Dir("C:\Book1.xlsx") Then
-	処理
-Else
-	エラー
-End If</v>
+        <f>"Public Declare Sub Sleep Lib ""kernel32"" (ByVal dwMilliseconds As Long)"&amp;CHAR(10)&amp;"Sleep 1000"</f>
+        <v>Public Declare Sub Sleep Lib "kernel32" (ByVal dwMilliseconds As Long)
+Sleep 1000</v>
       </c>
       <c r="M168" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B169" s="7"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
-      <c r="I169" s="7"/>
-      <c r="J169" s="7"/>
-      <c r="K169" s="8"/>
-      <c r="L169" s="2" t="str">
-        <f>"Dim bAddBook As Workbook"&amp;CHAR(10)&amp;"Set bAddBook = Workbooks.Add"</f>
-        <v>Dim bAddBook As Workbook
-Set bAddBook = Workbooks.Add</v>
-      </c>
-      <c r="M169" s="13" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="21"/>
+      <c r="B169" s="21"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="21"/>
+      <c r="E169" s="21"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="21"/>
+      <c r="I169" s="21"/>
+      <c r="J169" s="21"/>
+      <c r="K169" s="22"/>
+      <c r="L169" s="23"/>
+      <c r="M169" s="24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="170" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -11783,16 +11975,18 @@
       <c r="J170" s="7"/>
       <c r="K170" s="8"/>
       <c r="L170" s="2" t="str">
-        <f>"ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook"</f>
-        <v>ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook</v>
+        <f>"Dim wTrgtBook As Workbook"&amp;CHAR(10)&amp;"Application.SheetsInNewWorkbook = 1"&amp;CHAR(10)&amp;"Set wTrgtBook = Workbooks.Add"</f>
+        <v>Dim wTrgtBook As Workbook
+Application.SheetsInNewWorkbook = 1
+Set wTrgtBook = Workbooks.Add</v>
       </c>
       <c r="M170" s="13" t="s">
-        <v>171</v>
+        <v>440</v>
       </c>
     </row>
     <row r="171" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -11805,8 +11999,12 @@
       <c r="J171" s="7"/>
       <c r="K171" s="8"/>
       <c r="L171" s="2" t="str">
-        <f>"wTrgtBook.SaveAs Filename:=sFilePath"</f>
-        <v>wTrgtBook.SaveAs Filename:=sFilePath</v>
+        <f>"If wCsvBook.Name &lt;&gt; Dir(""C:\Book1.xlsx"") Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"処理"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"エラー"&amp;CHAR(10)&amp;"End If"</f>
+        <v>If wCsvBook.Name &lt;&gt; Dir("C:\Book1.xlsx") Then
+	処理
+Else
+	エラー
+End If</v>
       </c>
       <c r="M171" s="13" t="s">
         <v>171</v>
@@ -11814,7 +12012,7 @@
     </row>
     <row r="172" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -11827,8 +12025,9 @@
       <c r="J172" s="7"/>
       <c r="K172" s="8"/>
       <c r="L172" s="2" t="str">
-        <f>".Sheets.Count"</f>
-        <v>.Sheets.Count</v>
+        <f>"Dim bAddBook As Workbook"&amp;CHAR(10)&amp;"Set bAddBook = Workbooks.Add"</f>
+        <v>Dim bAddBook As Workbook
+Set bAddBook = Workbooks.Add</v>
       </c>
       <c r="M172" s="13" t="s">
         <v>171</v>
@@ -11836,7 +12035,7 @@
     </row>
     <row r="173" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -11849,9 +12048,8 @@
       <c r="J173" s="7"/>
       <c r="K173" s="8"/>
       <c r="L173" s="2" t="str">
-        <f>"Dim shAddSht As Worksheet"&amp;CHAR(10)&amp;"Set shAddSht = ThisWorkbook.Sheets.Add"</f>
-        <v>Dim shAddSht As Worksheet
-Set shAddSht = ThisWorkbook.Sheets.Add</v>
+        <f>"ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook"</f>
+        <v>ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook</v>
       </c>
       <c r="M173" s="13" t="s">
         <v>171</v>
@@ -11859,7 +12057,7 @@
     </row>
     <row r="174" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -11872,8 +12070,8 @@
       <c r="J174" s="7"/>
       <c r="K174" s="8"/>
       <c r="L174" s="2" t="str">
-        <f>"ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )"</f>
-        <v>ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )</v>
+        <f>"wTrgtBook.SaveAs Filename:=sFilePath"</f>
+        <v>wTrgtBook.SaveAs Filename:=sFilePath</v>
       </c>
       <c r="M174" s="13" t="s">
         <v>171</v>
@@ -11881,7 +12079,7 @@
     </row>
     <row r="175" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -11894,10 +12092,8 @@
       <c r="J175" s="7"/>
       <c r="K175" s="8"/>
       <c r="L175" s="2" t="str">
-        <f>"Application.DisplayAlerts = False"&amp;CHAR(10)&amp;".Sheets(シート名).Delete"&amp;CHAR(10)&amp;"Application.DisplayAlerts = True"</f>
-        <v>Application.DisplayAlerts = False
-.Sheets(シート名).Delete
-Application.DisplayAlerts = True</v>
+        <f>".Sheets.Count"</f>
+        <v>.Sheets.Count</v>
       </c>
       <c r="M175" s="13" t="s">
         <v>171</v>
@@ -11905,7 +12101,7 @@
     </row>
     <row r="176" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -11918,8 +12114,9 @@
       <c r="J176" s="7"/>
       <c r="K176" s="8"/>
       <c r="L176" s="2" t="str">
-        <f>".Sheets(シート名).Visible = (True\|False)"</f>
-        <v>.Sheets(シート名).Visible = (True\|False)</v>
+        <f>"Dim shAddSht As Worksheet"&amp;CHAR(10)&amp;"Set shAddSht = ThisWorkbook.Sheets.Add"</f>
+        <v>Dim shAddSht As Worksheet
+Set shAddSht = ThisWorkbook.Sheets.Add</v>
       </c>
       <c r="M176" s="13" t="s">
         <v>171</v>
@@ -11927,7 +12124,7 @@
     </row>
     <row r="177" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -11940,8 +12137,8 @@
       <c r="J177" s="7"/>
       <c r="K177" s="8"/>
       <c r="L177" s="2" t="str">
-        <f>".Sheets(シート名).Move Before:=Sheets(1)"</f>
-        <v>.Sheets(シート名).Move Before:=Sheets(1)</v>
+        <f>"ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )"</f>
+        <v>ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )</v>
       </c>
       <c r="M177" s="13" t="s">
         <v>171</v>
@@ -11949,7 +12146,7 @@
     </row>
     <row r="178" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -11962,8 +12159,10 @@
       <c r="J178" s="7"/>
       <c r="K178" s="8"/>
       <c r="L178" s="2" t="str">
-        <f>"Application.ScreenUpdating = True"</f>
-        <v>Application.ScreenUpdating = True</v>
+        <f>"Application.DisplayAlerts = False"&amp;CHAR(10)&amp;".Sheets(シート名).Delete"&amp;CHAR(10)&amp;"Application.DisplayAlerts = True"</f>
+        <v>Application.DisplayAlerts = False
+.Sheets(シート名).Delete
+Application.DisplayAlerts = True</v>
       </c>
       <c r="M178" s="13" t="s">
         <v>171</v>
@@ -11971,7 +12170,7 @@
     </row>
     <row r="179" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -11984,8 +12183,8 @@
       <c r="J179" s="7"/>
       <c r="K179" s="8"/>
       <c r="L179" s="2" t="str">
-        <f>"Application.ScreenUpdating = False"</f>
-        <v>Application.ScreenUpdating = False</v>
+        <f>".Sheets(シート名).Visible = (True\|False)"</f>
+        <v>.Sheets(シート名).Visible = (True\|False)</v>
       </c>
       <c r="M179" s="13" t="s">
         <v>171</v>
@@ -11993,7 +12192,7 @@
     </row>
     <row r="180" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -12006,8 +12205,8 @@
       <c r="J180" s="7"/>
       <c r="K180" s="8"/>
       <c r="L180" s="2" t="str">
-        <f>"Application.Calculation = xlCalculationAutomatic"</f>
-        <v>Application.Calculation = xlCalculationAutomatic</v>
+        <f>".Sheets(シート名).Move Before:=Sheets(1)"</f>
+        <v>.Sheets(シート名).Move Before:=Sheets(1)</v>
       </c>
       <c r="M180" s="13" t="s">
         <v>171</v>
@@ -12015,7 +12214,7 @@
     </row>
     <row r="181" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -12028,8 +12227,8 @@
       <c r="J181" s="7"/>
       <c r="K181" s="8"/>
       <c r="L181" s="2" t="str">
-        <f>"Application.Calculation = xlCalculationManual"</f>
-        <v>Application.Calculation = xlCalculationManual</v>
+        <f>"Application.ScreenUpdating = True"</f>
+        <v>Application.ScreenUpdating = True</v>
       </c>
       <c r="M181" s="13" t="s">
         <v>171</v>
@@ -12037,7 +12236,7 @@
     </row>
     <row r="182" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -12050,8 +12249,8 @@
       <c r="J182" s="7"/>
       <c r="K182" s="8"/>
       <c r="L182" s="2" t="str">
-        <f>"Application.Calculate"</f>
-        <v>Application.Calculate</v>
+        <f>"Application.ScreenUpdating = False"</f>
+        <v>Application.ScreenUpdating = False</v>
       </c>
       <c r="M182" s="13" t="s">
         <v>171</v>
@@ -12059,7 +12258,7 @@
     </row>
     <row r="183" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -12072,8 +12271,8 @@
       <c r="J183" s="7"/>
       <c r="K183" s="8"/>
       <c r="L183" s="2" t="str">
-        <f>"Application.CalculateFull"</f>
-        <v>Application.CalculateFull</v>
+        <f>"Application.Calculation = xlCalculationAutomatic"</f>
+        <v>Application.Calculation = xlCalculationAutomatic</v>
       </c>
       <c r="M183" s="13" t="s">
         <v>171</v>
@@ -12081,7 +12280,7 @@
     </row>
     <row r="184" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="7" t="s">
-        <v>391</v>
+        <v>285</v>
       </c>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -12094,8 +12293,8 @@
       <c r="J184" s="7"/>
       <c r="K184" s="8"/>
       <c r="L184" s="2" t="str">
-        <f>"Application.DisplayAlerts = False"</f>
-        <v>Application.DisplayAlerts = False</v>
+        <f>"Application.Calculation = xlCalculationManual"</f>
+        <v>Application.Calculation = xlCalculationManual</v>
       </c>
       <c r="M184" s="13" t="s">
         <v>171</v>
@@ -12103,7 +12302,7 @@
     </row>
     <row r="185" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="7" t="s">
-        <v>390</v>
+        <v>286</v>
       </c>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -12116,8 +12315,8 @@
       <c r="J185" s="7"/>
       <c r="K185" s="8"/>
       <c r="L185" s="2" t="str">
-        <f>"Application.DisplayAlerts = True"</f>
-        <v>Application.DisplayAlerts = True</v>
+        <f>"Application.Calculate"</f>
+        <v>Application.Calculate</v>
       </c>
       <c r="M185" s="13" t="s">
         <v>171</v>
@@ -12125,7 +12324,7 @@
     </row>
     <row r="186" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -12138,8 +12337,8 @@
       <c r="J186" s="7"/>
       <c r="K186" s="8"/>
       <c r="L186" s="2" t="str">
-        <f>".Rows(2).Select"</f>
-        <v>.Rows(2).Select</v>
+        <f>"Application.CalculateFull"</f>
+        <v>Application.CalculateFull</v>
       </c>
       <c r="M186" s="13" t="s">
         <v>171</v>
@@ -12147,7 +12346,7 @@
     </row>
     <row r="187" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="7" t="s">
-        <v>289</v>
+        <v>391</v>
       </c>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -12160,8 +12359,8 @@
       <c r="J187" s="7"/>
       <c r="K187" s="8"/>
       <c r="L187" s="2" t="str">
-        <f>".Columns(2).Select"</f>
-        <v>.Columns(2).Select</v>
+        <f>"Application.DisplayAlerts = False"</f>
+        <v>Application.DisplayAlerts = False</v>
       </c>
       <c r="M187" s="13" t="s">
         <v>171</v>
@@ -12169,7 +12368,7 @@
     </row>
     <row r="188" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="7" t="s">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -12182,8 +12381,8 @@
       <c r="J188" s="7"/>
       <c r="K188" s="8"/>
       <c r="L188" s="2" t="str">
-        <f>".Cells(1,1).Select"</f>
-        <v>.Cells(1,1).Select</v>
+        <f>"Application.DisplayAlerts = True"</f>
+        <v>Application.DisplayAlerts = True</v>
       </c>
       <c r="M188" s="13" t="s">
         <v>171</v>
@@ -12191,7 +12390,7 @@
     </row>
     <row r="189" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -12204,8 +12403,8 @@
       <c r="J189" s="7"/>
       <c r="K189" s="8"/>
       <c r="L189" s="2" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
+        <f>".Rows(2).Select"</f>
+        <v>.Rows(2).Select</v>
       </c>
       <c r="M189" s="13" t="s">
         <v>171</v>
@@ -12213,7 +12412,7 @@
     </row>
     <row r="190" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -12226,8 +12425,8 @@
       <c r="J190" s="7"/>
       <c r="K190" s="8"/>
       <c r="L190" s="2" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
+        <f>".Columns(2).Select"</f>
+        <v>.Columns(2).Select</v>
       </c>
       <c r="M190" s="13" t="s">
         <v>171</v>
@@ -12235,7 +12434,7 @@
     </row>
     <row r="191" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -12248,8 +12447,8 @@
       <c r="J191" s="7"/>
       <c r="K191" s="8"/>
       <c r="L191" s="2" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
+        <f>".Cells(1,1).Select"</f>
+        <v>.Cells(1,1).Select</v>
       </c>
       <c r="M191" s="13" t="s">
         <v>171</v>
@@ -12257,7 +12456,7 @@
     </row>
     <row r="192" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -12270,16 +12469,16 @@
       <c r="J192" s="7"/>
       <c r="K192" s="8"/>
       <c r="L192" s="2" t="str">
-        <f>".Cells(X, Y).Value"</f>
-        <v>.Cells(X, Y).Value</v>
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
       </c>
       <c r="M192" s="13" t="s">
-        <v>441</v>
+        <v>171</v>
       </c>
     </row>
     <row r="193" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -12292,16 +12491,16 @@
       <c r="J193" s="7"/>
       <c r="K193" s="8"/>
       <c r="L193" s="2" t="str">
-        <f>".Cells(1, 1).Top"</f>
-        <v>.Cells(1, 1).Top</v>
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
       </c>
       <c r="M193" s="13" t="s">
-        <v>442</v>
+        <v>171</v>
       </c>
     </row>
     <row r="194" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -12314,16 +12513,16 @@
       <c r="J194" s="7"/>
       <c r="K194" s="8"/>
       <c r="L194" s="2" t="str">
-        <f>".Cells(1, 1).Left"</f>
-        <v>.Cells(1, 1).Left</v>
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
       </c>
       <c r="M194" s="13" t="s">
-        <v>443</v>
+        <v>171</v>
       </c>
     </row>
     <row r="195" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -12336,16 +12535,16 @@
       <c r="J195" s="7"/>
       <c r="K195" s="8"/>
       <c r="L195" s="2" t="str">
-        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
-        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
+        <f>".Cells(X, Y).Value"</f>
+        <v>.Cells(X, Y).Value</v>
       </c>
       <c r="M195" s="13" t="s">
-        <v>171</v>
+        <v>441</v>
       </c>
     </row>
     <row r="196" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -12358,17 +12557,16 @@
       <c r="J196" s="7"/>
       <c r="K196" s="8"/>
       <c r="L196" s="2" t="str">
-        <f>"Application.CutCopyMode = False"&amp;CHAR(10)&amp;".Range(""2:4"").Insert"</f>
-        <v>Application.CutCopyMode = False
-.Range("2:4").Insert</v>
+        <f>".Cells(1, 1).Top"</f>
+        <v>.Cells(1, 1).Top</v>
       </c>
       <c r="M196" s="13" t="s">
-        <v>171</v>
+        <v>442</v>
       </c>
     </row>
     <row r="197" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -12381,16 +12579,16 @@
       <c r="J197" s="7"/>
       <c r="K197" s="8"/>
       <c r="L197" s="2" t="str">
-        <f>".Cells(行, 列).Font.Strikethrough"</f>
-        <v>.Cells(行, 列).Font.Strikethrough</v>
+        <f>".Cells(1, 1).Left"</f>
+        <v>.Cells(1, 1).Left</v>
       </c>
       <c r="M197" s="13" t="s">
-        <v>171</v>
+        <v>443</v>
       </c>
     </row>
     <row r="198" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -12403,9 +12601,8 @@
       <c r="J198" s="7"/>
       <c r="K198" s="8"/>
       <c r="L198" s="2" t="str">
-        <f>"wTrgtBook.Sheets(シート名).Activate"&amp;CHAR(10)&amp;"ActiveWindow.DisplayGridlines = False"</f>
-        <v>wTrgtBook.Sheets(シート名).Activate
-ActiveWindow.DisplayGridlines = False</v>
+        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
+        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
       </c>
       <c r="M198" s="13" t="s">
         <v>171</v>
@@ -12413,7 +12610,7 @@
     </row>
     <row r="199" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -12426,8 +12623,9 @@
       <c r="J199" s="7"/>
       <c r="K199" s="8"/>
       <c r="L199" s="2" t="str">
-        <f>".Range(""A1"").EntireRow.Hidden"</f>
-        <v>.Range("A1").EntireRow.Hidden</v>
+        <f>"Application.CutCopyMode = False"&amp;CHAR(10)&amp;".Range(""2:4"").Insert"</f>
+        <v>Application.CutCopyMode = False
+.Range("2:4").Insert</v>
       </c>
       <c r="M199" s="13" t="s">
         <v>171</v>
@@ -12435,7 +12633,7 @@
     </row>
     <row r="200" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -12448,8 +12646,8 @@
       <c r="J200" s="7"/>
       <c r="K200" s="8"/>
       <c r="L200" s="2" t="str">
-        <f>".Range(""A1"").EntireColumn.Hidden"</f>
-        <v>.Range("A1").EntireColumn.Hidden</v>
+        <f>".Cells(行, 列).Font.Strikethrough"</f>
+        <v>.Cells(行, 列).Font.Strikethrough</v>
       </c>
       <c r="M200" s="13" t="s">
         <v>171</v>
@@ -12457,7 +12655,7 @@
     </row>
     <row r="201" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -12470,8 +12668,9 @@
       <c r="J201" s="7"/>
       <c r="K201" s="8"/>
       <c r="L201" s="2" t="str">
-        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
-        <v>文字列変数 = .Range("A1").Font.Name</v>
+        <f>"wTrgtBook.Sheets(シート名).Activate"&amp;CHAR(10)&amp;"ActiveWindow.DisplayGridlines = False"</f>
+        <v>wTrgtBook.Sheets(シート名).Activate
+ActiveWindow.DisplayGridlines = False</v>
       </c>
       <c r="M201" s="13" t="s">
         <v>171</v>
@@ -12479,7 +12678,7 @@
     </row>
     <row r="202" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -12492,8 +12691,8 @@
       <c r="J202" s="7"/>
       <c r="K202" s="8"/>
       <c r="L202" s="2" t="str">
-        <f>".Range(""A1"").Font.Size = 14"</f>
-        <v>.Range("A1").Font.Size = 14</v>
+        <f>".Range(""A1"").EntireRow.Hidden"</f>
+        <v>.Range("A1").EntireRow.Hidden</v>
       </c>
       <c r="M202" s="13" t="s">
         <v>171</v>
@@ -12501,7 +12700,7 @@
     </row>
     <row r="203" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -12514,8 +12713,8 @@
       <c r="J203" s="7"/>
       <c r="K203" s="8"/>
       <c r="L203" s="2" t="str">
-        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
-        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
+        <f>".Range(""A1"").EntireColumn.Hidden"</f>
+        <v>.Range("A1").EntireColumn.Hidden</v>
       </c>
       <c r="M203" s="13" t="s">
         <v>171</v>
@@ -12523,7 +12722,7 @@
     </row>
     <row r="204" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="7" t="s">
-        <v>305</v>
+        <v>484</v>
       </c>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -12536,8 +12735,18 @@
       <c r="J204" s="7"/>
       <c r="K204" s="8"/>
       <c r="L204" s="2" t="str">
-        <f>".Range(""A1"").Font.Bold = True"</f>
-        <v>.Range("A1").Font.Bold = True</v>
+        <f>"If .Cells(1, 1).EntireRow.Hidden Or .Cells(1, 1).EntireColumn.Hidden Then
+    '非表示セル
+Else
+    '表示セル
+End If
+"</f>
+        <v xml:space="preserve">If .Cells(1, 1).EntireRow.Hidden Or .Cells(1, 1).EntireColumn.Hidden Then
+    '非表示セル
+Else
+    '表示セル
+End If
+</v>
       </c>
       <c r="M204" s="13" t="s">
         <v>171</v>
@@ -12545,7 +12754,7 @@
     </row>
     <row r="205" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -12558,8 +12767,8 @@
       <c r="J205" s="7"/>
       <c r="K205" s="8"/>
       <c r="L205" s="2" t="str">
-        <f>".Range(""A1"").Font.Underline = True"</f>
-        <v>.Range("A1").Font.Underline = True</v>
+        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
+        <v>文字列変数 = .Range("A1").Font.Name</v>
       </c>
       <c r="M205" s="13" t="s">
         <v>171</v>
@@ -12567,7 +12776,7 @@
     </row>
     <row r="206" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -12580,8 +12789,8 @@
       <c r="J206" s="7"/>
       <c r="K206" s="8"/>
       <c r="L206" s="2" t="str">
-        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
-        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
+        <f>".Range(""A1"").Font.Size = 14"</f>
+        <v>.Range("A1").Font.Size = 14</v>
       </c>
       <c r="M206" s="13" t="s">
         <v>171</v>
@@ -12589,7 +12798,7 @@
     </row>
     <row r="207" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -12602,8 +12811,8 @@
       <c r="J207" s="7"/>
       <c r="K207" s="8"/>
       <c r="L207" s="2" t="str">
-        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
-        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
+        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
+        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
       </c>
       <c r="M207" s="13" t="s">
         <v>171</v>
@@ -12611,7 +12820,7 @@
     </row>
     <row r="208" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -12624,8 +12833,8 @@
       <c r="J208" s="7"/>
       <c r="K208" s="8"/>
       <c r="L208" s="2" t="str">
-        <f>".Range(""A1:C3"").MergeCells = True"</f>
-        <v>.Range("A1:C3").MergeCells = True</v>
+        <f>".Range(""A1"").Font.Bold = True"</f>
+        <v>.Range("A1").Font.Bold = True</v>
       </c>
       <c r="M208" s="13" t="s">
         <v>171</v>
@@ -12633,7 +12842,7 @@
     </row>
     <row r="209" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -12646,16 +12855,16 @@
       <c r="J209" s="7"/>
       <c r="K209" s="8"/>
       <c r="L209" s="2" t="str">
-        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
-        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
+        <f>".Range(""A1"").Font.Underline = True"</f>
+        <v>.Range("A1").Font.Underline = True</v>
       </c>
       <c r="M209" s="13" t="s">
-        <v>392</v>
+        <v>171</v>
       </c>
     </row>
     <row r="210" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -12668,16 +12877,16 @@
       <c r="J210" s="7"/>
       <c r="K210" s="8"/>
       <c r="L210" s="2" t="str">
-        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
-        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
+        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
+        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
       </c>
       <c r="M210" s="13" t="s">
-        <v>312</v>
+        <v>171</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -12690,8 +12899,8 @@
       <c r="J211" s="7"/>
       <c r="K211" s="8"/>
       <c r="L211" s="2" t="str">
-        <f>"数値変数 = .Cells(.Rows.Count, 列).End(xlUp).Row"</f>
-        <v>数値変数 = .Cells(.Rows.Count, 列).End(xlUp).Row</v>
+        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
+        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
       </c>
       <c r="M211" s="13" t="s">
         <v>171</v>
@@ -12699,7 +12908,7 @@
     </row>
     <row r="212" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
@@ -12712,8 +12921,8 @@
       <c r="J212" s="7"/>
       <c r="K212" s="8"/>
       <c r="L212" s="2" t="str">
-        <f>"数値変数 = .Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
-        <v>数値変数 = .Cells(行, .Columns.Count).End(xlToLeft).Column</v>
+        <f>".Range(""A1:C3"").MergeCells = True"</f>
+        <v>.Range("A1:C3").MergeCells = True</v>
       </c>
       <c r="M212" s="13" t="s">
         <v>171</v>
@@ -12721,7 +12930,7 @@
     </row>
     <row r="213" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
@@ -12734,16 +12943,16 @@
       <c r="J213" s="7"/>
       <c r="K213" s="8"/>
       <c r="L213" s="2" t="str">
-        <f>"数値変数 = .Sheets(シート名).UsedRange.Rows.Count + 1"</f>
-        <v>数値変数 = .Sheets(シート名).UsedRange.Rows.Count + 1</v>
+        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
+        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
       </c>
       <c r="M213" s="13" t="s">
-        <v>171</v>
+        <v>392</v>
       </c>
     </row>
     <row r="214" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -12756,16 +12965,16 @@
       <c r="J214" s="7"/>
       <c r="K214" s="8"/>
       <c r="L214" s="2" t="str">
-        <f>"数値変数 = .Sheets(シート名).UsedRange.Columns.Count + 1"</f>
-        <v>数値変数 = .Sheets(シート名).UsedRange.Columns.Count + 1</v>
+        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
+        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
       </c>
       <c r="M214" s="13" t="s">
-        <v>171</v>
+        <v>312</v>
       </c>
     </row>
     <row r="215" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -12778,8 +12987,8 @@
       <c r="J215" s="7"/>
       <c r="K215" s="8"/>
       <c r="L215" s="2" t="str">
-        <f>"Selection(1).Row"</f>
-        <v>Selection(1).Row</v>
+        <f>"数値変数 = .Cells(.Rows.Count, 列).End(xlUp).Row"</f>
+        <v>数値変数 = .Cells(.Rows.Count, 列).End(xlUp).Row</v>
       </c>
       <c r="M215" s="13" t="s">
         <v>171</v>
@@ -12787,7 +12996,7 @@
     </row>
     <row r="216" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -12800,8 +13009,8 @@
       <c r="J216" s="7"/>
       <c r="K216" s="8"/>
       <c r="L216" s="2" t="str">
-        <f>"Selection(Selection.Count).Row"</f>
-        <v>Selection(Selection.Count).Row</v>
+        <f>"数値変数 = .Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
+        <v>数値変数 = .Cells(行, .Columns.Count).End(xlToLeft).Column</v>
       </c>
       <c r="M216" s="13" t="s">
         <v>171</v>
@@ -12809,7 +13018,7 @@
     </row>
     <row r="217" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
@@ -12822,8 +13031,8 @@
       <c r="J217" s="7"/>
       <c r="K217" s="8"/>
       <c r="L217" s="2" t="str">
-        <f>"Selection(1).Column"</f>
-        <v>Selection(1).Column</v>
+        <f>"数値変数 = .Sheets(シート名).UsedRange.Rows.Count + 1"</f>
+        <v>数値変数 = .Sheets(シート名).UsedRange.Rows.Count + 1</v>
       </c>
       <c r="M217" s="13" t="s">
         <v>171</v>
@@ -12831,7 +13040,7 @@
     </row>
     <row r="218" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
@@ -12844,8 +13053,8 @@
       <c r="J218" s="7"/>
       <c r="K218" s="8"/>
       <c r="L218" s="2" t="str">
-        <f>"Selection(Selection.Count).Column"</f>
-        <v>Selection(Selection.Count).Column</v>
+        <f>"数値変数 = .Sheets(シート名).UsedRange.Columns.Count + 1"</f>
+        <v>数値変数 = .Sheets(シート名).UsedRange.Columns.Count + 1</v>
       </c>
       <c r="M218" s="13" t="s">
         <v>171</v>
@@ -12853,7 +13062,7 @@
     </row>
     <row r="219" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -12866,8 +13075,8 @@
       <c r="J219" s="7"/>
       <c r="K219" s="8"/>
       <c r="L219" s="2" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
-        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
+        <f>"Selection(1).Row"</f>
+        <v>Selection(1).Row</v>
       </c>
       <c r="M219" s="13" t="s">
         <v>171</v>
@@ -12875,7 +13084,7 @@
     </row>
     <row r="220" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -12888,8 +13097,8 @@
       <c r="J220" s="7"/>
       <c r="K220" s="8"/>
       <c r="L220" s="2" t="str">
-        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
-        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
+        <f>"Selection(Selection.Count).Row"</f>
+        <v>Selection(Selection.Count).Row</v>
       </c>
       <c r="M220" s="13" t="s">
         <v>171</v>
@@ -12897,7 +13106,7 @@
     </row>
     <row r="221" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -12910,8 +13119,8 @@
       <c r="J221" s="7"/>
       <c r="K221" s="8"/>
       <c r="L221" s="2" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
-        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
+        <f>"Selection(1).Column"</f>
+        <v>Selection(1).Column</v>
       </c>
       <c r="M221" s="13" t="s">
         <v>171</v>
@@ -12919,7 +13128,7 @@
     </row>
     <row r="222" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
@@ -12932,8 +13141,8 @@
       <c r="J222" s="7"/>
       <c r="K222" s="8"/>
       <c r="L222" s="2" t="str">
-        <f>".Range(""A1:A2"").ClearContents"</f>
-        <v>.Range("A1:A2").ClearContents</v>
+        <f>"Selection(Selection.Count).Column"</f>
+        <v>Selection(Selection.Count).Column</v>
       </c>
       <c r="M222" s="13" t="s">
         <v>171</v>
@@ -12941,7 +13150,7 @@
     </row>
     <row r="223" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
@@ -12954,8 +13163,8 @@
       <c r="J223" s="7"/>
       <c r="K223" s="8"/>
       <c r="L223" s="2" t="str">
-        <f>".Range(""A1:A2"").ClearFormats"</f>
-        <v>.Range("A1:A2").ClearFormats</v>
+        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
+        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
       </c>
       <c r="M223" s="13" t="s">
         <v>171</v>
@@ -12963,7 +13172,7 @@
     </row>
     <row r="224" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -12976,16 +13185,16 @@
       <c r="J224" s="7"/>
       <c r="K224" s="8"/>
       <c r="L224" s="2" t="str">
-        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
-        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
+        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
+        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
       </c>
       <c r="M224" s="13" t="s">
-        <v>312</v>
+        <v>171</v>
       </c>
     </row>
     <row r="225" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -12998,8 +13207,8 @@
       <c r="J225" s="7"/>
       <c r="K225" s="8"/>
       <c r="L225" s="2" t="str">
-        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
-        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
+        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
+        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
       </c>
       <c r="M225" s="13" t="s">
         <v>171</v>
@@ -13007,7 +13216,7 @@
     </row>
     <row r="226" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
@@ -13020,16 +13229,16 @@
       <c r="J226" s="7"/>
       <c r="K226" s="8"/>
       <c r="L226" s="2" t="str">
-        <f>".Range(""A1"").ColumnWidth = 5"</f>
-        <v>.Range("A1").ColumnWidth = 5</v>
+        <f>".Range(""A1:A2"").ClearContents"</f>
+        <v>.Range("A1:A2").ClearContents</v>
       </c>
       <c r="M226" s="13" t="s">
-        <v>444</v>
+        <v>171</v>
       </c>
     </row>
     <row r="227" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
@@ -13042,16 +13251,16 @@
       <c r="J227" s="7"/>
       <c r="K227" s="8"/>
       <c r="L227" s="2" t="str">
-        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
-        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
+        <f>".Range(""A1:A2"").ClearFormats"</f>
+        <v>.Range("A1:A2").ClearFormats</v>
       </c>
       <c r="M227" s="13" t="s">
-        <v>445</v>
+        <v>171</v>
       </c>
     </row>
     <row r="228" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
@@ -13064,16 +13273,16 @@
       <c r="J228" s="7"/>
       <c r="K228" s="8"/>
       <c r="L228" s="2" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
+        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
+        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
       </c>
       <c r="M228" s="13" t="s">
-        <v>445</v>
+        <v>312</v>
       </c>
     </row>
     <row r="229" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -13086,8 +13295,8 @@
       <c r="J229" s="7"/>
       <c r="K229" s="8"/>
       <c r="L229" s="2" t="str">
-        <f>"Application.CutCopyMode = False"</f>
-        <v>Application.CutCopyMode = False</v>
+        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
+        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
       </c>
       <c r="M229" s="13" t="s">
         <v>171</v>
@@ -13095,7 +13304,7 @@
     </row>
     <row r="230" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -13108,16 +13317,16 @@
       <c r="J230" s="7"/>
       <c r="K230" s="8"/>
       <c r="L230" s="2" t="str">
-        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
-        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
+        <f>".Range(""A1"").ColumnWidth = 5"</f>
+        <v>.Range("A1").ColumnWidth = 5</v>
       </c>
       <c r="M230" s="13" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="231" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -13130,16 +13339,16 @@
       <c r="J231" s="7"/>
       <c r="K231" s="8"/>
       <c r="L231" s="2" t="str">
-        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
-        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
+        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
+        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
       </c>
       <c r="M231" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="232" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -13152,16 +13361,16 @@
       <c r="J232" s="7"/>
       <c r="K232" s="8"/>
       <c r="L232" s="2" t="str">
-        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
-        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
+        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
       </c>
       <c r="M232" s="13" t="s">
-        <v>171</v>
+        <v>445</v>
       </c>
     </row>
     <row r="233" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -13174,8 +13383,8 @@
       <c r="J233" s="7"/>
       <c r="K233" s="8"/>
       <c r="L233" s="2" t="str">
-        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
-        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
+        <f>"Application.CutCopyMode = False"</f>
+        <v>Application.CutCopyMode = False</v>
       </c>
       <c r="M233" s="13" t="s">
         <v>171</v>
@@ -13183,7 +13392,7 @@
     </row>
     <row r="234" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -13196,16 +13405,16 @@
       <c r="J234" s="7"/>
       <c r="K234" s="8"/>
       <c r="L234" s="2" t="str">
-        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
-        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
+        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
+        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
       </c>
       <c r="M234" s="13" t="s">
-        <v>171</v>
+        <v>446</v>
       </c>
     </row>
     <row r="235" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -13218,16 +13427,16 @@
       <c r="J235" s="7"/>
       <c r="K235" s="8"/>
       <c r="L235" s="2" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
+        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
+        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
       </c>
       <c r="M235" s="13" t="s">
-        <v>171</v>
+        <v>446</v>
       </c>
     </row>
     <row r="236" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -13240,9 +13449,8 @@
       <c r="J236" s="7"/>
       <c r="K236" s="8"/>
       <c r="L236" s="2" t="str">
-        <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
-        <v>.Rows(行).Select
-ActiveWindow.FreezePanes = True</v>
+        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
+        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
       </c>
       <c r="M236" s="13" t="s">
         <v>171</v>
@@ -13250,7 +13458,7 @@
     </row>
     <row r="237" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -13263,9 +13471,8 @@
       <c r="J237" s="7"/>
       <c r="K237" s="8"/>
       <c r="L237" s="2" t="str">
-        <f>".Columns(列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
-        <v>.Columns(列).Select
-ActiveWindow.FreezePanes = True</v>
+        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
+        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
       </c>
       <c r="M237" s="13" t="s">
         <v>171</v>
@@ -13273,7 +13480,7 @@
     </row>
     <row r="238" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
@@ -13286,9 +13493,8 @@
       <c r="J238" s="7"/>
       <c r="K238" s="8"/>
       <c r="L238" s="2" t="str">
-        <f>".Cells(行,列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
-        <v>.Cells(行,列).Select
-ActiveWindow.FreezePanes = True</v>
+        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
+        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
       </c>
       <c r="M238" s="13" t="s">
         <v>171</v>
@@ -13296,7 +13502,7 @@
     </row>
     <row r="239" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -13309,33 +13515,39 @@
       <c r="J239" s="7"/>
       <c r="K239" s="8"/>
       <c r="L239" s="2" t="str">
-        <f>"ActiveWindow.FreezePanes = False"</f>
-        <v>ActiveWindow.FreezePanes = False</v>
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
       </c>
       <c r="M239" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="240" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="21"/>
-      <c r="B240" s="21"/>
-      <c r="C240" s="21"/>
-      <c r="D240" s="21"/>
-      <c r="E240" s="21"/>
-      <c r="F240" s="21"/>
-      <c r="G240" s="21"/>
-      <c r="H240" s="21"/>
-      <c r="I240" s="21"/>
-      <c r="J240" s="21"/>
-      <c r="K240" s="22"/>
-      <c r="L240" s="23"/>
-      <c r="M240" s="24" t="s">
+    <row r="240" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B240" s="7"/>
+      <c r="C240" s="7"/>
+      <c r="D240" s="7"/>
+      <c r="E240" s="7"/>
+      <c r="F240" s="7"/>
+      <c r="G240" s="7"/>
+      <c r="H240" s="7"/>
+      <c r="I240" s="7"/>
+      <c r="J240" s="7"/>
+      <c r="K240" s="8"/>
+      <c r="L240" s="2" t="str">
+        <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
+        <v>.Rows(行).Select
+ActiveWindow.FreezePanes = True</v>
+      </c>
+      <c r="M240" s="13" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="241" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
@@ -13348,19 +13560,19 @@
       <c r="J241" s="7"/>
       <c r="K241" s="8"/>
       <c r="L241" s="2" t="str">
-        <f>"Dim oChartObj As ChartObject"&amp;CHAR(10)&amp;"Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)"</f>
-        <v>Dim oChartObj As ChartObject
-Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)</v>
+        <f>".Columns(列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
+        <v>.Columns(列).Select
+ActiveWindow.FreezePanes = True</v>
       </c>
       <c r="M241" s="13" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="242" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A242" s="7"/>
-      <c r="B242" s="7" t="s">
-        <v>341</v>
-      </c>
+      <c r="A242" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B242" s="7"/>
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -13371,18 +13583,19 @@
       <c r="J242" s="7"/>
       <c r="K242" s="8"/>
       <c r="L242" s="2" t="str">
-        <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
-        <v>Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )</v>
+        <f>".Cells(行,列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
+        <v>.Cells(行,列).Select
+ActiveWindow.FreezePanes = True</v>
       </c>
       <c r="M242" s="13" t="s">
-        <v>447</v>
+        <v>171</v>
       </c>
     </row>
     <row r="243" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="7"/>
-      <c r="B243" s="7" t="s">
-        <v>342</v>
-      </c>
+      <c r="A243" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B243" s="7"/>
       <c r="C243" s="7"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -13393,18 +13606,18 @@
       <c r="J243" s="7"/>
       <c r="K243" s="8"/>
       <c r="L243" s="2" t="str">
-        <f>"oChartObj.Delete"</f>
-        <v>oChartObj.Delete</v>
+        <f>"ActiveWindow.FreezePanes = False"</f>
+        <v>ActiveWindow.FreezePanes = False</v>
       </c>
       <c r="M243" s="13" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="244" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="7"/>
-      <c r="B244" s="7" t="s">
-        <v>343</v>
-      </c>
+      <c r="A244" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B244" s="7"/>
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -13414,19 +13627,18 @@
       <c r="I244" s="7"/>
       <c r="J244" s="7"/>
       <c r="K244" s="8"/>
-      <c r="L244" s="2" t="str">
-        <f>"oChartObj.Chart.ChartArea.Copy"</f>
-        <v>oChartObj.Chart.ChartArea.Copy</v>
+      <c r="L244" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="M244" s="13" t="s">
-        <v>171</v>
+        <v>472</v>
       </c>
     </row>
     <row r="245" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="7"/>
-      <c r="B245" s="7" t="s">
-        <v>344</v>
-      </c>
+      <c r="A245" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B245" s="7"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -13436,19 +13648,18 @@
       <c r="I245" s="7"/>
       <c r="J245" s="7"/>
       <c r="K245" s="8"/>
-      <c r="L245" s="2" t="str">
-        <f>"oChartObj.Top = 10"</f>
-        <v>oChartObj.Top = 10</v>
+      <c r="L245" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="M245" s="13" t="s">
-        <v>171</v>
+        <v>470</v>
       </c>
     </row>
     <row r="246" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="7"/>
-      <c r="B246" s="7" t="s">
-        <v>345</v>
-      </c>
+      <c r="A246" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="B246" s="7"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -13458,41 +13669,35 @@
       <c r="I246" s="7"/>
       <c r="J246" s="7"/>
       <c r="K246" s="8"/>
-      <c r="L246" s="2" t="str">
-        <f>"oChartObj.Left = 20"</f>
-        <v>oChartObj.Left = 20</v>
+      <c r="L246" s="2" t="s">
+        <v>469</v>
       </c>
       <c r="M246" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="7"/>
-      <c r="B247" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C247" s="7"/>
-      <c r="D247" s="7"/>
-      <c r="E247" s="7"/>
-      <c r="F247" s="7"/>
-      <c r="G247" s="7"/>
-      <c r="H247" s="7"/>
-      <c r="I247" s="7"/>
-      <c r="J247" s="7"/>
-      <c r="K247" s="8"/>
-      <c r="L247" s="2" t="str">
-        <f>"oChartObj.Width = 200"</f>
-        <v>oChartObj.Width = 200</v>
-      </c>
-      <c r="M247" s="13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="21"/>
+      <c r="B247" s="21"/>
+      <c r="C247" s="21"/>
+      <c r="D247" s="21"/>
+      <c r="E247" s="21"/>
+      <c r="F247" s="21"/>
+      <c r="G247" s="21"/>
+      <c r="H247" s="21"/>
+      <c r="I247" s="21"/>
+      <c r="J247" s="21"/>
+      <c r="K247" s="22"/>
+      <c r="L247" s="23"/>
+      <c r="M247" s="24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="248" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="7"/>
-      <c r="B248" s="7" t="s">
-        <v>347</v>
-      </c>
+      <c r="A248" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B248" s="7"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -13503,8 +13708,9 @@
       <c r="J248" s="7"/>
       <c r="K248" s="8"/>
       <c r="L248" s="2" t="str">
-        <f>"oChartObj.Height = 300"</f>
-        <v>oChartObj.Height = 300</v>
+        <f>"Dim oChartObj As ChartObject"&amp;CHAR(10)&amp;"Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)"</f>
+        <v>Dim oChartObj As ChartObject
+Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)</v>
       </c>
       <c r="M248" s="13" t="s">
         <v>171</v>
@@ -13513,7 +13719,7 @@
     <row r="249" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="7"/>
       <c r="B249" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
@@ -13525,17 +13731,17 @@
       <c r="J249" s="7"/>
       <c r="K249" s="8"/>
       <c r="L249" s="2" t="str">
-        <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
-        <v>oChartObj.Chart.ChartType = xlXYScatterLines</v>
+        <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
+        <v>Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )</v>
       </c>
       <c r="M249" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="250" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="7"/>
       <c r="B250" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
@@ -13547,17 +13753,17 @@
       <c r="J250" s="7"/>
       <c r="K250" s="8"/>
       <c r="L250" s="2" t="str">
-        <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
-        <v>oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)</v>
+        <f>"oChartObj.Delete"</f>
+        <v>oChartObj.Delete</v>
       </c>
       <c r="M250" s="13" t="s">
-        <v>449</v>
+        <v>171</v>
       </c>
     </row>
     <row r="251" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="7"/>
       <c r="B251" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
@@ -13569,8 +13775,8 @@
       <c r="J251" s="7"/>
       <c r="K251" s="8"/>
       <c r="L251" s="2" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).HasTitle = True</v>
+        <f>"oChartObj.Chart.ChartArea.Copy"</f>
+        <v>oChartObj.Chart.ChartArea.Copy</v>
       </c>
       <c r="M251" s="13" t="s">
         <v>171</v>
@@ -13579,7 +13785,7 @@
     <row r="252" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="7"/>
       <c r="B252" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
@@ -13591,8 +13797,8 @@
       <c r="J252" s="7"/>
       <c r="K252" s="8"/>
       <c r="L252" s="2" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
-        <v>oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = "Test Axis X"</v>
+        <f>"oChartObj.Top = 10"</f>
+        <v>oChartObj.Top = 10</v>
       </c>
       <c r="M252" s="13" t="s">
         <v>171</v>
@@ -13601,7 +13807,7 @@
     <row r="253" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="7"/>
       <c r="B253" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
@@ -13613,8 +13819,8 @@
       <c r="J253" s="7"/>
       <c r="K253" s="8"/>
       <c r="L253" s="2" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True</v>
+        <f>"oChartObj.Left = 20"</f>
+        <v>oChartObj.Left = 20</v>
       </c>
       <c r="M253" s="13" t="s">
         <v>171</v>
@@ -13623,7 +13829,7 @@
     <row r="254" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="7"/>
       <c r="B254" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
@@ -13635,8 +13841,8 @@
       <c r="J254" s="7"/>
       <c r="K254" s="8"/>
       <c r="L254" s="2" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)</v>
+        <f>"oChartObj.Width = 200"</f>
+        <v>oChartObj.Width = 200</v>
       </c>
       <c r="M254" s="13" t="s">
         <v>171</v>
@@ -13645,7 +13851,7 @@
     <row r="255" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="7"/>
       <c r="B255" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
@@ -13657,8 +13863,8 @@
       <c r="J255" s="7"/>
       <c r="K255" s="8"/>
       <c r="L255" s="2" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2</v>
+        <f>"oChartObj.Height = 300"</f>
+        <v>oChartObj.Height = 300</v>
       </c>
       <c r="M255" s="13" t="s">
         <v>171</v>
@@ -13667,7 +13873,7 @@
     <row r="256" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="7"/>
       <c r="B256" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
@@ -13679,17 +13885,17 @@
       <c r="J256" s="7"/>
       <c r="K256" s="8"/>
       <c r="L256" s="2" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)</v>
+        <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
+        <v>oChartObj.Chart.ChartType = xlXYScatterLines</v>
       </c>
       <c r="M256" s="13" t="s">
-        <v>171</v>
+        <v>448</v>
       </c>
     </row>
     <row r="257" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="7"/>
       <c r="B257" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
@@ -13700,17 +13906,18 @@
       <c r="I257" s="7"/>
       <c r="J257" s="7"/>
       <c r="K257" s="8"/>
-      <c r="L257" s="13" t="s">
-        <v>393</v>
+      <c r="L257" s="2" t="str">
+        <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
+        <v>oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)</v>
       </c>
       <c r="M257" s="13" t="s">
-        <v>171</v>
+        <v>449</v>
       </c>
     </row>
     <row r="258" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="7"/>
       <c r="B258" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
@@ -13722,8 +13929,8 @@
       <c r="J258" s="7"/>
       <c r="K258" s="8"/>
       <c r="L258" s="2" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).HasTitle = True</v>
       </c>
       <c r="M258" s="13" t="s">
         <v>171</v>
@@ -13732,7 +13939,7 @@
     <row r="259" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="7"/>
       <c r="B259" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
@@ -13744,8 +13951,8 @@
       <c r="J259" s="7"/>
       <c r="K259" s="8"/>
       <c r="L259" s="2" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
+        <v>oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = "Test Axis X"</v>
       </c>
       <c r="M259" s="13" t="s">
         <v>171</v>
@@ -13754,7 +13961,7 @@
     <row r="260" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="7"/>
       <c r="B260" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
@@ -13766,8 +13973,8 @@
       <c r="J260" s="7"/>
       <c r="K260" s="8"/>
       <c r="L260" s="2" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MinimumScale = 0</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True</v>
       </c>
       <c r="M260" s="13" t="s">
         <v>171</v>
@@ -13776,7 +13983,7 @@
     <row r="261" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="7"/>
       <c r="B261" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C261" s="7"/>
       <c r="D261" s="7"/>
@@ -13788,8 +13995,8 @@
       <c r="J261" s="7"/>
       <c r="K261" s="8"/>
       <c r="L261" s="2" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MaximumScale = 100</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)</v>
       </c>
       <c r="M261" s="13" t="s">
         <v>171</v>
@@ -13798,7 +14005,7 @@
     <row r="262" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="7"/>
       <c r="B262" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C262" s="7"/>
       <c r="D262" s="7"/>
@@ -13810,8 +14017,8 @@
       <c r="J262" s="7"/>
       <c r="K262" s="8"/>
       <c r="L262" s="2" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2</v>
       </c>
       <c r="M262" s="13" t="s">
         <v>171</v>
@@ -13820,7 +14027,7 @@
     <row r="263" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="7"/>
       <c r="B263" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
@@ -13831,8 +14038,9 @@
       <c r="I263" s="7"/>
       <c r="J263" s="7"/>
       <c r="K263" s="8"/>
-      <c r="L263" s="2" t="s">
-        <v>394</v>
+      <c r="L263" s="2" t="str">
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)</v>
       </c>
       <c r="M263" s="13" t="s">
         <v>171</v>
@@ -13841,7 +14049,7 @@
     <row r="264" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="7"/>
       <c r="B264" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
@@ -13852,9 +14060,8 @@
       <c r="I264" s="7"/>
       <c r="J264" s="7"/>
       <c r="K264" s="8"/>
-      <c r="L264" s="2" t="str">
-        <f>"oChartObj.Chart.HasTitle = True"</f>
-        <v>oChartObj.Chart.HasTitle = True</v>
+      <c r="L264" s="13" t="s">
+        <v>393</v>
       </c>
       <c r="M264" s="13" t="s">
         <v>171</v>
@@ -13863,7 +14070,7 @@
     <row r="265" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="7"/>
       <c r="B265" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C265" s="7"/>
       <c r="D265" s="7"/>
@@ -13875,8 +14082,8 @@
       <c r="J265" s="7"/>
       <c r="K265" s="8"/>
       <c r="L265" s="2" t="str">
-        <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
-        <v>oChartObj.Chart.ChartTitle.Text = "Test Title"</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False</v>
       </c>
       <c r="M265" s="13" t="s">
         <v>171</v>
@@ -13885,7 +14092,7 @@
     <row r="266" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="7"/>
       <c r="B266" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C266" s="7"/>
       <c r="D266" s="7"/>
@@ -13897,17 +14104,17 @@
       <c r="J266" s="7"/>
       <c r="K266" s="8"/>
       <c r="L266" s="2" t="str">
-        <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
-        <v>oChartObj.Chart.ChartTitle.IncludeInLayout = False</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False</v>
       </c>
       <c r="M266" s="13" t="s">
-        <v>450</v>
+        <v>171</v>
       </c>
     </row>
     <row r="267" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="7"/>
       <c r="B267" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
@@ -13919,8 +14126,8 @@
       <c r="J267" s="7"/>
       <c r="K267" s="8"/>
       <c r="L267" s="2" t="str">
-        <f>"oChartObj.Chart.HasLegend = True"</f>
-        <v>oChartObj.Chart.HasLegend = True</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MinimumScale = 0</v>
       </c>
       <c r="M267" s="13" t="s">
         <v>171</v>
@@ -13929,7 +14136,7 @@
     <row r="268" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="7"/>
       <c r="B268" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
@@ -13941,17 +14148,17 @@
       <c r="J268" s="7"/>
       <c r="K268" s="8"/>
       <c r="L268" s="2" t="str">
-        <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
-        <v>oChartObj.Chart.Legend.Position = xlLegendPositionTop</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MaximumScale = 100</v>
       </c>
       <c r="M268" s="13" t="s">
-        <v>396</v>
+        <v>171</v>
       </c>
     </row>
     <row r="269" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="7"/>
       <c r="B269" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C269" s="7"/>
       <c r="D269" s="7"/>
@@ -13963,18 +14170,18 @@
       <c r="J269" s="7"/>
       <c r="K269" s="8"/>
       <c r="L269" s="2" t="str">
-        <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
-        <v>oChartObj.Chart.Legend.IncludeInLayout = False</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)</v>
       </c>
       <c r="M269" s="13" t="s">
-        <v>450</v>
+        <v>171</v>
       </c>
     </row>
     <row r="270" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A270" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B270" s="7"/>
+      <c r="A270" s="7"/>
+      <c r="B270" s="7" t="s">
+        <v>362</v>
+      </c>
       <c r="C270" s="7"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -13984,36 +14191,40 @@
       <c r="I270" s="7"/>
       <c r="J270" s="7"/>
       <c r="K270" s="8"/>
-      <c r="L270" s="2" t="str">
-        <f>".Sheets(シート名).PasteSpecial Format:=""図 (JPEG)"", Link:=False, DisplayAsIcon:=False"</f>
-        <v>.Sheets(シート名).PasteSpecial Format:="図 (JPEG)", Link:=False, DisplayAsIcon:=False</v>
+      <c r="L270" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="M270" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="271" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="21"/>
-      <c r="B271" s="21"/>
-      <c r="C271" s="21"/>
-      <c r="D271" s="21"/>
-      <c r="E271" s="21"/>
-      <c r="F271" s="21"/>
-      <c r="G271" s="21"/>
-      <c r="H271" s="21"/>
-      <c r="I271" s="21"/>
-      <c r="J271" s="21"/>
-      <c r="K271" s="22"/>
-      <c r="L271" s="23"/>
-      <c r="M271" s="24" t="s">
+    <row r="271" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="7"/>
+      <c r="B271" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C271" s="7"/>
+      <c r="D271" s="7"/>
+      <c r="E271" s="7"/>
+      <c r="F271" s="7"/>
+      <c r="G271" s="7"/>
+      <c r="H271" s="7"/>
+      <c r="I271" s="7"/>
+      <c r="J271" s="7"/>
+      <c r="K271" s="8"/>
+      <c r="L271" s="2" t="str">
+        <f>"oChartObj.Chart.HasTitle = True"</f>
+        <v>oChartObj.Chart.HasTitle = True</v>
+      </c>
+      <c r="M271" s="13" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="272" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A272" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="B272" s="7"/>
+      <c r="A272" s="7"/>
+      <c r="B272" s="7" t="s">
+        <v>364</v>
+      </c>
       <c r="C272" s="7"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
@@ -14024,35 +14235,40 @@
       <c r="J272" s="7"/>
       <c r="K272" s="8"/>
       <c r="L272" s="2" t="str">
-        <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
-        <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
+        <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
+        <v>oChartObj.Chart.ChartTitle.Text = "Test Title"</v>
       </c>
       <c r="M272" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="273" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="21"/>
-      <c r="B273" s="21"/>
-      <c r="C273" s="21"/>
-      <c r="D273" s="21"/>
-      <c r="E273" s="21"/>
-      <c r="F273" s="21"/>
-      <c r="G273" s="21"/>
-      <c r="H273" s="21"/>
-      <c r="I273" s="21"/>
-      <c r="J273" s="21"/>
-      <c r="K273" s="22"/>
-      <c r="L273" s="23"/>
-      <c r="M273" s="24" t="s">
-        <v>171</v>
+    <row r="273" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="7"/>
+      <c r="B273" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C273" s="7"/>
+      <c r="D273" s="7"/>
+      <c r="E273" s="7"/>
+      <c r="F273" s="7"/>
+      <c r="G273" s="7"/>
+      <c r="H273" s="7"/>
+      <c r="I273" s="7"/>
+      <c r="J273" s="7"/>
+      <c r="K273" s="8"/>
+      <c r="L273" s="2" t="str">
+        <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
+        <v>oChartObj.Chart.ChartTitle.IncludeInLayout = False</v>
+      </c>
+      <c r="M273" s="13" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="274" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="B274" s="7"/>
+      <c r="A274" s="7"/>
+      <c r="B274" s="7" t="s">
+        <v>366</v>
+      </c>
       <c r="C274" s="7"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -14063,19 +14279,18 @@
       <c r="J274" s="7"/>
       <c r="K274" s="8"/>
       <c r="L274" s="2" t="str">
-        <f>"Dim goPrgrsBar As New ProgressBar"&amp;CHAR(10)&amp;"goPrgrsBar.Show vbModeless"</f>
-        <v>Dim goPrgrsBar As New ProgressBar
-goPrgrsBar.Show vbModeless</v>
+        <f>"oChartObj.Chart.HasLegend = True"</f>
+        <v>oChartObj.Chart.HasLegend = True</v>
       </c>
       <c r="M274" s="13" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="275" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A275" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="B275" s="7"/>
+      <c r="A275" s="7"/>
+      <c r="B275" s="7" t="s">
+        <v>367</v>
+      </c>
       <c r="C275" s="7"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -14086,35 +14301,38 @@
       <c r="J275" s="7"/>
       <c r="K275" s="8"/>
       <c r="L275" s="2" t="str">
-        <f>"goPrgrsBar.Hide"&amp;CHAR(10)&amp;"Unload goPrgrsBar"&amp;CHAR(10)&amp;"Set goPrgrsBar = Nothing"</f>
-        <v>goPrgrsBar.Hide
-Unload goPrgrsBar
-Set goPrgrsBar = Nothing</v>
+        <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
+        <v>oChartObj.Chart.Legend.Position = xlLegendPositionTop</v>
       </c>
       <c r="M275" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A276" s="21"/>
-      <c r="B276" s="21"/>
-      <c r="C276" s="21"/>
-      <c r="D276" s="21"/>
-      <c r="E276" s="21"/>
-      <c r="F276" s="21"/>
-      <c r="G276" s="21"/>
-      <c r="H276" s="21"/>
-      <c r="I276" s="21"/>
-      <c r="J276" s="21"/>
-      <c r="K276" s="22"/>
-      <c r="L276" s="23"/>
-      <c r="M276" s="24" t="s">
-        <v>171</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A276" s="7"/>
+      <c r="B276" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C276" s="7"/>
+      <c r="D276" s="7"/>
+      <c r="E276" s="7"/>
+      <c r="F276" s="7"/>
+      <c r="G276" s="7"/>
+      <c r="H276" s="7"/>
+      <c r="I276" s="7"/>
+      <c r="J276" s="7"/>
+      <c r="K276" s="8"/>
+      <c r="L276" s="2" t="str">
+        <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
+        <v>oChartObj.Chart.Legend.IncludeInLayout = False</v>
+      </c>
+      <c r="M276" s="13" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="277" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B277" s="7"/>
       <c r="C277" s="7"/>
@@ -14127,38 +14345,33 @@
       <c r="J277" s="7"/>
       <c r="K277" s="8"/>
       <c r="L277" s="2" t="str">
-        <f>"cCollection.Item(""リンゴ"")"</f>
-        <v>cCollection.Item("リンゴ")</v>
+        <f>".Sheets(シート名).PasteSpecial Format:=""図 (JPEG)"", Link:=False, DisplayAsIcon:=False"</f>
+        <v>.Sheets(シート名).PasteSpecial Format:="図 (JPEG)", Link:=False, DisplayAsIcon:=False</v>
       </c>
       <c r="M277" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A278" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B278" s="7"/>
-      <c r="C278" s="7"/>
-      <c r="D278" s="7"/>
-      <c r="E278" s="7"/>
-      <c r="F278" s="7"/>
-      <c r="G278" s="7"/>
-      <c r="H278" s="7"/>
-      <c r="I278" s="7"/>
-      <c r="J278" s="7"/>
-      <c r="K278" s="8"/>
-      <c r="L278" s="2" t="str">
-        <f>"cCollection(0)"</f>
-        <v>cCollection(0)</v>
-      </c>
-      <c r="M278" s="13" t="s">
+    <row r="278" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A278" s="21"/>
+      <c r="B278" s="21"/>
+      <c r="C278" s="21"/>
+      <c r="D278" s="21"/>
+      <c r="E278" s="21"/>
+      <c r="F278" s="21"/>
+      <c r="G278" s="21"/>
+      <c r="H278" s="21"/>
+      <c r="I278" s="21"/>
+      <c r="J278" s="21"/>
+      <c r="K278" s="22"/>
+      <c r="L278" s="23"/>
+      <c r="M278" s="24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="279" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
@@ -14171,10 +14384,8 @@
       <c r="J279" s="7"/>
       <c r="K279" s="8"/>
       <c r="L279" s="2" t="str">
-        <f>"For Each vItem In cCollection"&amp;CHAR(10)&amp;"Debug.print vItem"&amp;CHAR(10)&amp;"Next"</f>
-        <v>For Each vItem In cCollection
-Debug.print vItem
-Next</v>
+        <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
+        <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
       </c>
       <c r="M279" s="13" t="s">
         <v>171</v>
@@ -14199,7 +14410,7 @@
     </row>
     <row r="281" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B281" s="7"/>
       <c r="C281" s="7"/>
@@ -14212,16 +14423,17 @@
       <c r="J281" s="7"/>
       <c r="K281" s="8"/>
       <c r="L281" s="2" t="str">
-        <f>"lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value"</f>
-        <v>lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value</v>
+        <f>"Dim goPrgrsBar As New ProgressBar"&amp;CHAR(10)&amp;"goPrgrsBar.Show vbModeless"</f>
+        <v>Dim goPrgrsBar As New ProgressBar
+goPrgrsBar.Show vbModeless</v>
       </c>
       <c r="M281" s="13" t="s">
-        <v>451</v>
+        <v>171</v>
       </c>
     </row>
     <row r="282" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
@@ -14234,12 +14446,13 @@
       <c r="J282" s="7"/>
       <c r="K282" s="8"/>
       <c r="L282" s="2" t="str">
-        <f>"Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)"&amp;CHAR(10)&amp;"End Sub"</f>
-        <v>Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)
-End Sub</v>
+        <f>"goPrgrsBar.Hide"&amp;CHAR(10)&amp;"Unload goPrgrsBar"&amp;CHAR(10)&amp;"Set goPrgrsBar = Nothing"</f>
+        <v>goPrgrsBar.Hide
+Unload goPrgrsBar
+Set goPrgrsBar = Nothing</v>
       </c>
       <c r="M282" s="13" t="s">
-        <v>395</v>
+        <v>171</v>
       </c>
     </row>
     <row r="283" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
@@ -14261,7 +14474,7 @@
     </row>
     <row r="284" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="7" t="s">
-        <v>168</v>
+        <v>373</v>
       </c>
       <c r="B284" s="7"/>
       <c r="C284" s="7"/>
@@ -14274,16 +14487,16 @@
       <c r="J284" s="7"/>
       <c r="K284" s="8"/>
       <c r="L284" s="2" t="str">
-        <f>"CreateObject(""WScript.Network"").UserName"</f>
-        <v>CreateObject("WScript.Network").UserName</v>
+        <f>"cCollection.Item(""リンゴ"")"</f>
+        <v>cCollection.Item("リンゴ")</v>
       </c>
       <c r="M284" s="13" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
     </row>
     <row r="285" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="7" t="s">
-        <v>169</v>
+        <v>374</v>
       </c>
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
@@ -14296,58 +14509,57 @@
       <c r="J285" s="7"/>
       <c r="K285" s="8"/>
       <c r="L285" s="2" t="str">
-        <f>"""C:\Users\"" &amp; CreateObject(""WScript.Network"").UserName &amp; ""\AppData\Local\Temp"""</f>
-        <v>"C:\Users\" &amp; CreateObject("WScript.Network").UserName &amp; "\AppData\Local\Temp"</v>
+        <f>"cCollection(0)"</f>
+        <v>cCollection(0)</v>
       </c>
       <c r="M285" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="286" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A286" s="21"/>
-      <c r="B286" s="21"/>
-      <c r="C286" s="21"/>
-      <c r="D286" s="21"/>
-      <c r="E286" s="21"/>
-      <c r="F286" s="21"/>
-      <c r="G286" s="21"/>
-      <c r="H286" s="21"/>
-      <c r="I286" s="21"/>
-      <c r="J286" s="21"/>
-      <c r="K286" s="22"/>
-      <c r="L286" s="23"/>
-      <c r="M286" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A287" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B287" s="7"/>
-      <c r="C287" s="7"/>
-      <c r="D287" s="7"/>
-      <c r="E287" s="7"/>
-      <c r="F287" s="7"/>
-      <c r="G287" s="7"/>
-      <c r="H287" s="7"/>
-      <c r="I287" s="7"/>
-      <c r="J287" s="7"/>
-      <c r="K287" s="8"/>
-      <c r="L287" s="2" t="str">
-        <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".GetFromClipboard"&amp;CHAR(10)&amp;CHAR(9)&amp;"sText = .GetText"&amp;CHAR(10)&amp;"End With"</f>
-        <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
-	.GetFromClipboard
-	sText = .GetText
-End With</v>
-      </c>
-      <c r="M287" s="13" t="s">
+    <row r="286" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A286" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B286" s="7"/>
+      <c r="C286" s="7"/>
+      <c r="D286" s="7"/>
+      <c r="E286" s="7"/>
+      <c r="F286" s="7"/>
+      <c r="G286" s="7"/>
+      <c r="H286" s="7"/>
+      <c r="I286" s="7"/>
+      <c r="J286" s="7"/>
+      <c r="K286" s="8"/>
+      <c r="L286" s="2" t="str">
+        <f>"For Each vItem In cCollection"&amp;CHAR(10)&amp;"Debug.print vItem"&amp;CHAR(10)&amp;"Next"</f>
+        <v>For Each vItem In cCollection
+Debug.print vItem
+Next</v>
+      </c>
+      <c r="M286" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A287" s="21"/>
+      <c r="B287" s="21"/>
+      <c r="C287" s="21"/>
+      <c r="D287" s="21"/>
+      <c r="E287" s="21"/>
+      <c r="F287" s="21"/>
+      <c r="G287" s="21"/>
+      <c r="H287" s="21"/>
+      <c r="I287" s="21"/>
+      <c r="J287" s="21"/>
+      <c r="K287" s="22"/>
+      <c r="L287" s="23"/>
+      <c r="M287" s="24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="288" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
@@ -14360,62 +14572,58 @@
       <c r="J288" s="7"/>
       <c r="K288" s="8"/>
       <c r="L288" s="2" t="str">
-        <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".SetText sText"&amp;CHAR(10)&amp;CHAR(9)&amp;".PutInClipboard"&amp;CHAR(10)&amp;"End With"</f>
-        <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
-	.SetText sText
-	.PutInClipboard
-End With</v>
+        <f>"lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value"</f>
+        <v>lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value</v>
       </c>
       <c r="M288" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A289" s="21"/>
-      <c r="B289" s="21"/>
-      <c r="C289" s="21"/>
-      <c r="D289" s="21"/>
-      <c r="E289" s="21"/>
-      <c r="F289" s="21"/>
-      <c r="G289" s="21"/>
-      <c r="H289" s="21"/>
-      <c r="I289" s="21"/>
-      <c r="J289" s="21"/>
-      <c r="K289" s="22"/>
-      <c r="L289" s="23"/>
-      <c r="M289" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A290" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="B290" s="7"/>
-      <c r="C290" s="7"/>
-      <c r="D290" s="7"/>
-      <c r="E290" s="7"/>
-      <c r="F290" s="7"/>
-      <c r="G290" s="7"/>
-      <c r="H290" s="7"/>
-      <c r="I290" s="7"/>
-      <c r="J290" s="7"/>
-      <c r="K290" s="8"/>
-      <c r="L290" s="2" t="str">
-        <f>"Dim wWord As Object" &amp; CHAR(10) &amp; "Set wWord = CreateObject(""Word.Application"")" &amp; CHAR(10) &amp; "wWord.Visible = False"</f>
-        <v>Dim wWord As Object
-Set wWord = CreateObject("Word.Application")
-wWord.Visible = False</v>
-      </c>
-      <c r="M290" s="13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A289" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B289" s="7"/>
+      <c r="C289" s="7"/>
+      <c r="D289" s="7"/>
+      <c r="E289" s="7"/>
+      <c r="F289" s="7"/>
+      <c r="G289" s="7"/>
+      <c r="H289" s="7"/>
+      <c r="I289" s="7"/>
+      <c r="J289" s="7"/>
+      <c r="K289" s="8"/>
+      <c r="L289" s="2" t="str">
+        <f>"Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)"&amp;CHAR(10)&amp;"End Sub"</f>
+        <v>Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)
+End Sub</v>
+      </c>
+      <c r="M289" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A290" s="21"/>
+      <c r="B290" s="21"/>
+      <c r="C290" s="21"/>
+      <c r="D290" s="21"/>
+      <c r="E290" s="21"/>
+      <c r="F290" s="21"/>
+      <c r="G290" s="21"/>
+      <c r="H290" s="21"/>
+      <c r="I290" s="21"/>
+      <c r="J290" s="21"/>
+      <c r="K290" s="22"/>
+      <c r="L290" s="23"/>
+      <c r="M290" s="24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A291" s="7"/>
-      <c r="B291" s="7" t="s">
-        <v>453</v>
-      </c>
+      <c r="A291" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B291" s="7"/>
       <c r="C291" s="7"/>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
@@ -14426,19 +14634,18 @@
       <c r="J291" s="7"/>
       <c r="K291" s="8"/>
       <c r="L291" s="2" t="str">
-        <f>"Dim dDoc As Object" &amp; CHAR(10) &amp; "Set dDoc = wWord.Documents.Open(""sFilePath"")"</f>
-        <v>Dim dDoc As Object
-Set dDoc = wWord.Documents.Open("sFilePath")</v>
+        <f>"CreateObject(""WScript.Network"").UserName"</f>
+        <v>CreateObject("WScript.Network").UserName</v>
       </c>
       <c r="M291" s="13" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
     </row>
     <row r="292" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A292" s="7"/>
-      <c r="B292" s="7" t="s">
-        <v>454</v>
-      </c>
+      <c r="A292" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B292" s="7"/>
       <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
@@ -14449,44 +14656,35 @@
       <c r="J292" s="7"/>
       <c r="K292" s="8"/>
       <c r="L292" s="2" t="str">
-        <f>"Dim sParagraph As Object" &amp; CHAR(10) &amp; "For Each sParagraph In dDoc.Paragraphs" &amp; CHAR(10) &amp; CHAR(9) &amp; "'～処理～" &amp; CHAR(10) &amp; "Next sParagraph"</f>
-        <v>Dim sParagraph As Object
-For Each sParagraph In dDoc.Paragraphs
-	'～処理～
-Next sParagraph</v>
+        <f>"""C:\Users\"" &amp; CreateObject(""WScript.Network"").UserName &amp; ""\AppData\Local\Temp"""</f>
+        <v>"C:\Users\" &amp; CreateObject("WScript.Network").UserName &amp; "\AppData\Local\Temp"</v>
       </c>
       <c r="M292" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A293" s="7"/>
-      <c r="B293" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="C293" s="7"/>
-      <c r="D293" s="7"/>
-      <c r="E293" s="7"/>
-      <c r="F293" s="7"/>
-      <c r="G293" s="7"/>
-      <c r="H293" s="7"/>
-      <c r="I293" s="7"/>
-      <c r="J293" s="7"/>
-      <c r="K293" s="8"/>
-      <c r="L293" s="2" t="str">
-        <f>"dDoc.Close" &amp; CHAR(10) &amp; "Set dDoc = Nothing"</f>
-        <v>dDoc.Close
-Set dDoc = Nothing</v>
-      </c>
-      <c r="M293" s="13" t="s">
+    <row r="293" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="21"/>
+      <c r="B293" s="21"/>
+      <c r="C293" s="21"/>
+      <c r="D293" s="21"/>
+      <c r="E293" s="21"/>
+      <c r="F293" s="21"/>
+      <c r="G293" s="21"/>
+      <c r="H293" s="21"/>
+      <c r="I293" s="21"/>
+      <c r="J293" s="21"/>
+      <c r="K293" s="22"/>
+      <c r="L293" s="23"/>
+      <c r="M293" s="24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="294" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A294" s="7"/>
-      <c r="B294" s="7" t="s">
-        <v>456</v>
-      </c>
+      <c r="A294" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B294" s="7"/>
       <c r="C294" s="7"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
@@ -14497,55 +14695,62 @@
       <c r="J294" s="7"/>
       <c r="K294" s="8"/>
       <c r="L294" s="2" t="str">
-        <f>"wWord.Visible = False" &amp; CHAR(10) &amp; "wWord.Quit" &amp; CHAR(10) &amp; "Set wWord = Nothing"</f>
-        <v>wWord.Visible = False
-wWord.Quit
-Set wWord = Nothing</v>
+        <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".GetFromClipboard"&amp;CHAR(10)&amp;CHAR(9)&amp;"sText = .GetText"&amp;CHAR(10)&amp;"End With"</f>
+        <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
+	.GetFromClipboard
+	sText = .GetText
+End With</v>
       </c>
       <c r="M294" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="295" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A295" s="21"/>
-      <c r="B295" s="21"/>
-      <c r="C295" s="21"/>
-      <c r="D295" s="21"/>
-      <c r="E295" s="21"/>
-      <c r="F295" s="21"/>
-      <c r="G295" s="21"/>
-      <c r="H295" s="21"/>
-      <c r="I295" s="21"/>
-      <c r="J295" s="21"/>
-      <c r="K295" s="22"/>
-      <c r="L295" s="23"/>
-      <c r="M295" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A296" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="B296" s="7"/>
-      <c r="C296" s="7"/>
-      <c r="D296" s="7"/>
-      <c r="E296" s="7"/>
-      <c r="F296" s="7"/>
-      <c r="G296" s="7"/>
-      <c r="H296" s="7"/>
-      <c r="I296" s="7"/>
-      <c r="J296" s="7"/>
-      <c r="K296" s="8"/>
-      <c r="L296" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="M296" s="13" t="s">
-        <v>457</v>
+    <row r="295" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B295" s="7"/>
+      <c r="C295" s="7"/>
+      <c r="D295" s="7"/>
+      <c r="E295" s="7"/>
+      <c r="F295" s="7"/>
+      <c r="G295" s="7"/>
+      <c r="H295" s="7"/>
+      <c r="I295" s="7"/>
+      <c r="J295" s="7"/>
+      <c r="K295" s="8"/>
+      <c r="L295" s="2" t="str">
+        <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".SetText sText"&amp;CHAR(10)&amp;CHAR(9)&amp;".PutInClipboard"&amp;CHAR(10)&amp;"End With"</f>
+        <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
+	.SetText sText
+	.PutInClipboard
+End With</v>
+      </c>
+      <c r="M295" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A296" s="21"/>
+      <c r="B296" s="21"/>
+      <c r="C296" s="21"/>
+      <c r="D296" s="21"/>
+      <c r="E296" s="21"/>
+      <c r="F296" s="21"/>
+      <c r="G296" s="21"/>
+      <c r="H296" s="21"/>
+      <c r="I296" s="21"/>
+      <c r="J296" s="21"/>
+      <c r="K296" s="22"/>
+      <c r="L296" s="23"/>
+      <c r="M296" s="24" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="297" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A297" s="7"/>
+      <c r="A297" s="7" t="s">
+        <v>452</v>
+      </c>
       <c r="B297" s="7"/>
       <c r="C297" s="7"/>
       <c r="D297" s="7"/>
@@ -14556,14 +14761,21 @@
       <c r="I297" s="7"/>
       <c r="J297" s="7"/>
       <c r="K297" s="8"/>
-      <c r="L297" s="2"/>
+      <c r="L297" s="2" t="str">
+        <f>"Dim wWord As Object" &amp; CHAR(10) &amp; "Set wWord = CreateObject(""Word.Application"")" &amp; CHAR(10) &amp; "wWord.Visible = False"</f>
+        <v>Dim wWord As Object
+Set wWord = CreateObject("Word.Application")
+wWord.Visible = False</v>
+      </c>
       <c r="M297" s="13" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="298" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="7"/>
-      <c r="B298" s="7"/>
+      <c r="B298" s="7" t="s">
+        <v>453</v>
+      </c>
       <c r="C298" s="7"/>
       <c r="D298" s="7"/>
       <c r="E298" s="7"/>
@@ -14573,14 +14785,20 @@
       <c r="I298" s="7"/>
       <c r="J298" s="7"/>
       <c r="K298" s="8"/>
-      <c r="L298" s="2"/>
+      <c r="L298" s="2" t="str">
+        <f>"Dim dDoc As Object" &amp; CHAR(10) &amp; "Set dDoc = wWord.Documents.Open(""sFilePath"")"</f>
+        <v>Dim dDoc As Object
+Set dDoc = wWord.Documents.Open("sFilePath")</v>
+      </c>
       <c r="M298" s="13" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="299" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="7"/>
-      <c r="B299" s="7"/>
+      <c r="B299" s="7" t="s">
+        <v>454</v>
+      </c>
       <c r="C299" s="7"/>
       <c r="D299" s="7"/>
       <c r="E299" s="7"/>
@@ -14590,14 +14808,22 @@
       <c r="I299" s="7"/>
       <c r="J299" s="7"/>
       <c r="K299" s="8"/>
-      <c r="L299" s="2"/>
+      <c r="L299" s="2" t="str">
+        <f>"Dim sParagraph As Object" &amp; CHAR(10) &amp; "For Each sParagraph In dDoc.Paragraphs" &amp; CHAR(10) &amp; CHAR(9) &amp; "'～処理～" &amp; CHAR(10) &amp; "Next sParagraph"</f>
+        <v>Dim sParagraph As Object
+For Each sParagraph In dDoc.Paragraphs
+	'～処理～
+Next sParagraph</v>
+      </c>
       <c r="M299" s="13" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="300" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="7"/>
-      <c r="B300" s="7"/>
+      <c r="B300" s="7" t="s">
+        <v>455</v>
+      </c>
       <c r="C300" s="7"/>
       <c r="D300" s="7"/>
       <c r="E300" s="7"/>
@@ -14607,14 +14833,20 @@
       <c r="I300" s="7"/>
       <c r="J300" s="7"/>
       <c r="K300" s="8"/>
-      <c r="L300" s="2"/>
+      <c r="L300" s="2" t="str">
+        <f>"dDoc.Close" &amp; CHAR(10) &amp; "Set dDoc = Nothing"</f>
+        <v>dDoc.Close
+Set dDoc = Nothing</v>
+      </c>
       <c r="M300" s="13" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="301" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="7"/>
-      <c r="B301" s="7"/>
+      <c r="B301" s="7" t="s">
+        <v>456</v>
+      </c>
       <c r="C301" s="7"/>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
@@ -14624,30 +14856,37 @@
       <c r="I301" s="7"/>
       <c r="J301" s="7"/>
       <c r="K301" s="8"/>
-      <c r="L301" s="2"/>
+      <c r="L301" s="2" t="str">
+        <f>"wWord.Visible = False" &amp; CHAR(10) &amp; "wWord.Quit" &amp; CHAR(10) &amp; "Set wWord = Nothing"</f>
+        <v>wWord.Visible = False
+wWord.Quit
+Set wWord = Nothing</v>
+      </c>
       <c r="M301" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A302" s="7"/>
-      <c r="B302" s="7"/>
-      <c r="C302" s="7"/>
-      <c r="D302" s="7"/>
-      <c r="E302" s="7"/>
-      <c r="F302" s="7"/>
-      <c r="G302" s="7"/>
-      <c r="H302" s="7"/>
-      <c r="I302" s="7"/>
-      <c r="J302" s="7"/>
-      <c r="K302" s="8"/>
-      <c r="L302" s="2"/>
-      <c r="M302" s="13" t="s">
+    <row r="302" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A302" s="21"/>
+      <c r="B302" s="21"/>
+      <c r="C302" s="21"/>
+      <c r="D302" s="21"/>
+      <c r="E302" s="21"/>
+      <c r="F302" s="21"/>
+      <c r="G302" s="21"/>
+      <c r="H302" s="21"/>
+      <c r="I302" s="21"/>
+      <c r="J302" s="21"/>
+      <c r="K302" s="22"/>
+      <c r="L302" s="23"/>
+      <c r="M302" s="24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="303" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A303" s="7"/>
+      <c r="A303" s="7" t="s">
+        <v>486</v>
+      </c>
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
       <c r="D303" s="7"/>
@@ -14658,9 +14897,12 @@
       <c r="I303" s="7"/>
       <c r="J303" s="7"/>
       <c r="K303" s="8"/>
-      <c r="L303" s="2"/>
-      <c r="M303" s="13" t="s">
-        <v>171</v>
+      <c r="L303" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="M303" s="25" t="str">
+        <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
+        <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
       </c>
     </row>
     <row r="304" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
@@ -17951,6 +18193,15 @@
         <v>240</v>
       </c>
     </row>
+    <row r="496" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:M495" xr:uid="{84F79218-22F9-4493-B22D-1CD9745B86E9}"/>
   <phoneticPr fontId="3"/>

--- a/構文.xlsx
+++ b/構文.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30657EE5-764E-4B7D-8790-5E4D94FE608F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AF6CE7-01AE-4672-A2F9-1F1F5436D418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21720" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="vba" sheetId="44" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">vba!$A$1:$M$495</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">vba!$A$1:$M$496</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">vbs!$A$1:$M$251</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">vba!$A$1:$M$495</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">vba!$A$1:$M$496</definedName>
     <definedName name="testname01">#REF!</definedName>
     <definedName name="testname03">!$A$1:$B$2</definedName>
   </definedNames>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="489">
   <si>
     <t>変数強制定義</t>
   </si>
@@ -1271,10 +1271,6 @@
   </si>
   <si>
     <t>要素数は０オリジン。左の例では要素数６の配列が作成される</t>
-  </si>
-  <si>
-    <t>要素数は０オリジン。左の例では要素数６の配列が作成される</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>#VALUEを返却</t>
@@ -1737,6 +1733,24 @@
     <rPh sb="9" eb="11">
       <t>セッテイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>変数定義(固定長文字列型)</t>
+    <rPh sb="5" eb="8">
+      <t>コテイチョウ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>モジレツガタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Dim sStr As String * 3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"ABCDE"→"ABC"、"A"→"A  "</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -4509,7 +4523,7 @@
       <c r="J88" s="7"/>
       <c r="K88" s="8"/>
       <c r="L88" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M88" s="13">
         <v>6</v>
@@ -4620,7 +4634,7 @@
     </row>
     <row r="93" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -4633,10 +4647,10 @@
       <c r="J93" s="7"/>
       <c r="K93" s="8"/>
       <c r="L93" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M93" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N93" s="19" t="s">
         <v>241</v>
@@ -4644,7 +4658,7 @@
     </row>
     <row r="94" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -4657,10 +4671,10 @@
       <c r="J94" s="7"/>
       <c r="K94" s="8"/>
       <c r="L94" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M94" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N94" s="19" t="s">
         <v>241</v>
@@ -4668,7 +4682,7 @@
     </row>
     <row r="95" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -4681,10 +4695,10 @@
       <c r="J95" s="7"/>
       <c r="K95" s="8"/>
       <c r="L95" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M95" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N95" s="19" t="s">
         <v>241</v>
@@ -8218,14 +8232,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE88FAF-CBE5-4D11-9E2A-3AD9DCB1A658}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M504"/>
+  <dimension ref="A1:M505"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L170" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="N251" sqref="N251"/>
       <selection pane="topRight" activeCell="N251" sqref="N251"/>
       <selection pane="bottomLeft" activeCell="N251" sqref="N251"/>
-      <selection pane="bottomRight" activeCell="A170" sqref="A170"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="10.199999999999999" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -8299,12 +8313,12 @@
         <v>Dim aVal(5) As Integer</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>381</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>6</v>
+        <v>486</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -8316,17 +8330,16 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="2" t="str">
-        <f>"Const NUM As Integer = 1"</f>
-        <v>Const NUM As Integer = 1</v>
+      <c r="L4" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>171</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>245</v>
+        <v>6</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -8339,11 +8352,8 @@
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
       <c r="L5" s="2" t="str">
-        <f>"Type T\_XXX"&amp;CHAR(10)&amp;"iVal1 As Integer"&amp;CHAR(10)&amp;"iVal2 As Integer"&amp;CHAR(10)&amp;"End Type"</f>
-        <v>Type T\_XXX
-iVal1 As Integer
-iVal2 As Integer
-End Type</v>
+        <f>"Const NUM As Integer = 1"</f>
+        <v>Const NUM As Integer = 1</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>171</v>
@@ -8351,7 +8361,7 @@
     </row>
     <row r="6" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>7</v>
+        <v>245</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -8364,9 +8374,11 @@
       <c r="J6" s="7"/>
       <c r="K6" s="8"/>
       <c r="L6" s="2" t="str">
-        <f>"Private Function FuncA ( sVal1 As String, sVal2 As Integer )"&amp;CHAR(10)&amp;"End Function"</f>
-        <v>Private Function FuncA ( sVal1 As String, sVal2 As Integer )
-End Function</v>
+        <f>"Type T\_XXX"&amp;CHAR(10)&amp;"iVal1 As Integer"&amp;CHAR(10)&amp;"iVal2 As Integer"&amp;CHAR(10)&amp;"End Type"</f>
+        <v>Type T\_XXX
+iVal1 As Integer
+iVal2 As Integer
+End Type</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>171</v>
@@ -8374,7 +8386,7 @@
     </row>
     <row r="7" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -8387,8 +8399,9 @@
       <c r="J7" s="7"/>
       <c r="K7" s="8"/>
       <c r="L7" s="2" t="str">
-        <f>"Call Func()"</f>
-        <v>Call Func()</v>
+        <f>"Private Function FuncA ( sVal1 As String, sVal2 As Integer )"&amp;CHAR(10)&amp;"End Function"</f>
+        <v>Private Function FuncA ( sVal1 As String, sVal2 As Integer )
+End Function</v>
       </c>
       <c r="M7" s="13" t="s">
         <v>171</v>
@@ -8396,7 +8409,7 @@
     </row>
     <row r="8" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>246</v>
+        <v>8</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -8409,17 +8422,16 @@
       <c r="J8" s="7"/>
       <c r="K8" s="8"/>
       <c r="L8" s="2" t="str">
-        <f>"Dim vRetVal As Variant"&amp;CHAR(10)&amp;"vRetVal = CVErr(xlErrRef)"</f>
-        <v>Dim vRetVal As Variant
-vRetVal = CVErr(xlErrRef)</v>
+        <f>"Call Func()"</f>
+        <v>Call Func()</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>382</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -8432,17 +8444,17 @@
       <c r="J9" s="7"/>
       <c r="K9" s="8"/>
       <c r="L9" s="2" t="str">
-        <f>"Public Sub SubA ( sVal1 As String, sVal2 As Integer )"&amp;CHAR(10)&amp;"End Sub"</f>
-        <v>Public Sub SubA ( sVal1 As String, sVal2 As Integer )
-End Sub</v>
+        <f>"Dim vRetVal As Variant"&amp;CHAR(10)&amp;"vRetVal = CVErr(xlErrRef)"</f>
+        <v>Dim vRetVal As Variant
+vRetVal = CVErr(xlErrRef)</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>171</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -8455,11 +8467,9 @@
       <c r="J10" s="7"/>
       <c r="K10" s="8"/>
       <c r="L10" s="2" t="str">
-        <f>"Enum E\_XXX"&amp;CHAR(10)&amp;"NUM1"&amp;CHAR(10)&amp;"NUM2"&amp;CHAR(10)&amp;"End Enum"</f>
-        <v>Enum E\_XXX
-NUM1
-NUM2
-End Enum</v>
+        <f>"Public Sub SubA ( sVal1 As String, sVal2 As Integer )"&amp;CHAR(10)&amp;"End Sub"</f>
+        <v>Public Sub SubA ( sVal1 As String, sVal2 As Integer )
+End Sub</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>171</v>
@@ -8467,7 +8477,7 @@
     </row>
     <row r="11" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -8480,8 +8490,11 @@
       <c r="J11" s="7"/>
       <c r="K11" s="8"/>
       <c r="L11" s="2" t="str">
-        <f>"Exit (Sub\|Function\|For\|Do)"</f>
-        <v>Exit (Sub\|Function\|For\|Do)</v>
+        <f>"Enum E\_XXX"&amp;CHAR(10)&amp;"NUM1"&amp;CHAR(10)&amp;"NUM2"&amp;CHAR(10)&amp;"End Enum"</f>
+        <v>Enum E\_XXX
+NUM1
+NUM2
+End Enum</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>171</v>
@@ -8489,7 +8502,7 @@
     </row>
     <row r="12" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -8502,8 +8515,8 @@
       <c r="J12" s="7"/>
       <c r="K12" s="8"/>
       <c r="L12" s="2" t="str">
-        <f>"Dim sStr As String : sStr = ""abc"""</f>
-        <v>Dim sStr As String : sStr = "abc"</v>
+        <f>"Exit (Sub\|Function\|For\|Do)"</f>
+        <v>Exit (Sub\|Function\|For\|Do)</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>171</v>
@@ -8511,7 +8524,7 @@
     </row>
     <row r="13" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -8524,8 +8537,8 @@
       <c r="J13" s="7"/>
       <c r="K13" s="8"/>
       <c r="L13" s="2" t="str">
-        <f>"Stop"</f>
-        <v>Stop</v>
+        <f>"Dim sStr As String : sStr = ""abc"""</f>
+        <v>Dim sStr As String : sStr = "abc"</v>
       </c>
       <c r="M13" s="13" t="s">
         <v>171</v>
@@ -8533,7 +8546,7 @@
     </row>
     <row r="14" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>9</v>
+        <v>249</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -8546,8 +8559,8 @@
       <c r="J14" s="7"/>
       <c r="K14" s="8"/>
       <c r="L14" s="2" t="str">
-        <f>"Dim cPrfrmMes As New PerformanceMeasurement"</f>
-        <v>Dim cPrfrmMes As New PerformanceMeasurement</v>
+        <f>"Stop"</f>
+        <v>Stop</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>171</v>
@@ -8555,7 +8568,7 @@
     </row>
     <row r="15" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -8568,8 +8581,8 @@
       <c r="J15" s="7"/>
       <c r="K15" s="8"/>
       <c r="L15" s="2" t="str">
-        <f>"Set cPrfrmMes = Nothing"</f>
-        <v>Set cPrfrmMes = Nothing</v>
+        <f>"Dim cPrfrmMes As New PerformanceMeasurement"</f>
+        <v>Dim cPrfrmMes As New PerformanceMeasurement</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>171</v>
@@ -8577,7 +8590,7 @@
     </row>
     <row r="16" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -8590,8 +8603,8 @@
       <c r="J16" s="7"/>
       <c r="K16" s="8"/>
       <c r="L16" s="2" t="str">
-        <f>"End"</f>
-        <v>End</v>
+        <f>"Set cPrfrmMes = Nothing"</f>
+        <v>Set cPrfrmMes = Nothing</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>171</v>
@@ -8599,7 +8612,7 @@
     </row>
     <row r="17" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>246</v>
+        <v>13</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -8612,59 +8625,56 @@
       <c r="J17" s="7"/>
       <c r="K17" s="8"/>
       <c r="L17" s="2" t="str">
+        <f>"End"</f>
+        <v>End</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="2" t="str">
         <f>"Dim vRetVal As Variant"&amp;CHAR(10)&amp;"vRetVal = CVErr(xlErrRef)"</f>
         <v>Dim vRetVal As Variant
 vRetVal = CVErr(xlErrRef)</v>
       </c>
-      <c r="M17" s="13" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="2" t="str">
-        <f>"If iVal = 1 Or iVal = 2 Then"&amp;CHAR(10)&amp;"ElseIf iVal = 3 Then"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;"End If"</f>
-        <v>If iVal = 1 Or iVal = 2 Then
-ElseIf iVal = 3 Then
-Else
-End If</v>
-      </c>
-      <c r="M19" s="13" t="s">
+      <c r="M18" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="14" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -8677,8 +8687,9 @@
       <c r="J20" s="7"/>
       <c r="K20" s="8"/>
       <c r="L20" s="2" t="str">
-        <f>"If objTest Is Nothing Then"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;"End If"</f>
-        <v>If objTest Is Nothing Then
+        <f>"If iVal = 1 Or iVal = 2 Then"&amp;CHAR(10)&amp;"ElseIf iVal = 3 Then"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;"End If"</f>
+        <v>If iVal = 1 Or iVal = 2 Then
+ElseIf iVal = 3 Then
 Else
 End If</v>
       </c>
@@ -8688,7 +8699,7 @@
     </row>
     <row r="21" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -8701,11 +8712,10 @@
       <c r="J21" s="7"/>
       <c r="K21" s="8"/>
       <c r="L21" s="2" t="str">
-        <f>"Select Case iVal"&amp;CHAR(10)&amp;"Case 1"&amp;CHAR(10)&amp;"Case Else"&amp;CHAR(10)&amp;"End Select"</f>
-        <v>Select Case iVal
-Case 1
-Case Else
-End Select</v>
+        <f>"If objTest Is Nothing Then"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;"End If"</f>
+        <v>If objTest Is Nothing Then
+Else
+End If</v>
       </c>
       <c r="M21" s="13" t="s">
         <v>171</v>
@@ -8713,7 +8723,7 @@
     </row>
     <row r="22" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -8726,9 +8736,11 @@
       <c r="J22" s="7"/>
       <c r="K22" s="8"/>
       <c r="L22" s="2" t="str">
-        <f>"For iVal1 = 1 To 3 [Step 1]"&amp;CHAR(10)&amp;"Next Val"</f>
-        <v>For iVal1 = 1 To 3 [Step 1]
-Next Val</v>
+        <f>"Select Case iVal"&amp;CHAR(10)&amp;"Case 1"&amp;CHAR(10)&amp;"Case Else"&amp;CHAR(10)&amp;"End Select"</f>
+        <v>Select Case iVal
+Case 1
+Case Else
+End Select</v>
       </c>
       <c r="M22" s="13" t="s">
         <v>171</v>
@@ -8736,7 +8748,7 @@
     </row>
     <row r="23" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -8749,10 +8761,9 @@
       <c r="J23" s="7"/>
       <c r="K23" s="8"/>
       <c r="L23" s="2" t="str">
-        <f>"For Each Value in Values"&amp;CHAR(10)&amp;CHAR(9)&amp;"処理"&amp;CHAR(10)&amp;"Next"</f>
-        <v>For Each Value in Values
-	処理
-Next</v>
+        <f>"For iVal1 = 1 To 3 [Step 1]"&amp;CHAR(10)&amp;"Next Val"</f>
+        <v>For iVal1 = 1 To 3 [Step 1]
+Next Val</v>
       </c>
       <c r="M23" s="13" t="s">
         <v>171</v>
@@ -8760,7 +8771,7 @@
     </row>
     <row r="24" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -8773,10 +8784,10 @@
       <c r="J24" s="7"/>
       <c r="K24" s="8"/>
       <c r="L24" s="2" t="str">
-        <f>"Do"&amp;CHAR(10)&amp;CHAR(9)&amp;"条件式＝真"&amp;CHAR(10)&amp;"Loop While 条件式"</f>
-        <v>Do
-	条件式＝真
-Loop While 条件式</v>
+        <f>"For Each Value in Values"&amp;CHAR(10)&amp;CHAR(9)&amp;"処理"&amp;CHAR(10)&amp;"Next"</f>
+        <v>For Each Value in Values
+	処理
+Next</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>171</v>
@@ -8784,7 +8795,7 @@
     </row>
     <row r="25" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -8797,10 +8808,10 @@
       <c r="J25" s="7"/>
       <c r="K25" s="8"/>
       <c r="L25" s="2" t="str">
-        <f>"Do While 条件式"&amp;CHAR(10)&amp;CHAR(9)&amp;"条件式＝真"&amp;CHAR(10)&amp;"Loop"</f>
-        <v>Do While 条件式
+        <f>"Do"&amp;CHAR(10)&amp;CHAR(9)&amp;"条件式＝真"&amp;CHAR(10)&amp;"Loop While 条件式"</f>
+        <v>Do
 	条件式＝真
-Loop</v>
+Loop While 条件式</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>171</v>
@@ -8808,7 +8819,7 @@
     </row>
     <row r="26" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -8821,9 +8832,9 @@
       <c r="J26" s="7"/>
       <c r="K26" s="8"/>
       <c r="L26" s="2" t="str">
-        <f>"Do Until 条件式"&amp;CHAR(10)&amp;CHAR(9)&amp;"条件式＝偽"&amp;CHAR(10)&amp;"Loop"</f>
-        <v>Do Until 条件式
-	条件式＝偽
+        <f>"Do While 条件式"&amp;CHAR(10)&amp;CHAR(9)&amp;"条件式＝真"&amp;CHAR(10)&amp;"Loop"</f>
+        <v>Do While 条件式
+	条件式＝真
 Loop</v>
       </c>
       <c r="M26" s="13" t="s">
@@ -8832,7 +8843,7 @@
     </row>
     <row r="27" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -8845,9 +8856,10 @@
       <c r="J27" s="7"/>
       <c r="K27" s="8"/>
       <c r="L27" s="2" t="str">
-        <f>"With オブジェクト名"&amp;CHAR(10)&amp;"End With"</f>
-        <v>With オブジェクト名
-End With</v>
+        <f>"Do Until 条件式"&amp;CHAR(10)&amp;CHAR(9)&amp;"条件式＝偽"&amp;CHAR(10)&amp;"Loop"</f>
+        <v>Do Until 条件式
+	条件式＝偽
+Loop</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>171</v>
@@ -8855,7 +8867,7 @@
     </row>
     <row r="28" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -8868,8 +8880,9 @@
       <c r="J28" s="7"/>
       <c r="K28" s="8"/>
       <c r="L28" s="2" t="str">
-        <f>"'コメント"</f>
-        <v>'コメント</v>
+        <f>"With オブジェクト名"&amp;CHAR(10)&amp;"End With"</f>
+        <v>With オブジェクト名
+End With</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>171</v>
@@ -8877,7 +8890,7 @@
     </row>
     <row r="29" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -8890,8 +8903,8 @@
       <c r="J29" s="7"/>
       <c r="K29" s="8"/>
       <c r="L29" s="2" t="str">
-        <f>"sStr = InputBox( ""テキストを入力してください"", ""title"", ""default value"" )"</f>
-        <v>sStr = InputBox( "テキストを入力してください", "title", "default value" )</v>
+        <f>"'コメント"</f>
+        <v>'コメント</v>
       </c>
       <c r="M29" s="13" t="s">
         <v>171</v>
@@ -8899,7 +8912,7 @@
     </row>
     <row r="30" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -8912,16 +8925,16 @@
       <c r="J30" s="7"/>
       <c r="K30" s="8"/>
       <c r="L30" s="2" t="str">
-        <f>"MsgBox ""Hello world"", vbExclamation"</f>
-        <v>MsgBox "Hello world", vbExclamation</v>
+        <f>"sStr = InputBox( ""テキストを入力してください"", ""title"", ""default value"" )"</f>
+        <v>sStr = InputBox( "テキストを入力してください", "title", "default value" )</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>384</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -8934,16 +8947,16 @@
       <c r="J31" s="7"/>
       <c r="K31" s="8"/>
       <c r="L31" s="2" t="str">
-        <f>"Debug.Print ""Hello world"""</f>
-        <v>Debug.Print "Hello world"</v>
+        <f>"MsgBox ""Hello world"", vbExclamation"</f>
+        <v>MsgBox "Hello world", vbExclamation</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>171</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -8956,16 +8969,16 @@
       <c r="J32" s="7"/>
       <c r="K32" s="8"/>
       <c r="L32" s="2" t="str">
-        <f>"Debug.Assert 条件式"</f>
-        <v>Debug.Assert 条件式</v>
+        <f>"Debug.Print ""Hello world"""</f>
+        <v>Debug.Print "Hello world"</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>385</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>28</v>
+        <v>252</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -8978,98 +8991,97 @@
       <c r="J33" s="7"/>
       <c r="K33" s="8"/>
       <c r="L33" s="2" t="str">
+        <f>"Debug.Assert 条件式"</f>
+        <v>Debug.Assert 条件式</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="2" t="str">
         <f>"Dim vAnswer As Variant"&amp;CHAR(10)&amp;"vAnswer = MsgBox(""処理を継続しますか？"", vbOKCancel, ""タイトル"")"</f>
         <v>Dim vAnswer As Variant
 vAnswer = MsgBox("処理を継続しますか？", vbOKCancel, "タイトル")</v>
       </c>
-      <c r="M33" s="13" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
+      <c r="M34" s="13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="2" t="str">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="2" t="str">
         <f>"サンプルコード参照"</f>
         <v>サンプルコード参照</v>
       </c>
-      <c r="M35" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
+      <c r="M36" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="2" t="str">
-        <f>"Dim cTrgtPaths As Variant"&amp;CHAR(10)&amp;"Set cTrgtPaths = CreateObject(""System.Collections.ArrayList"")"</f>
-        <v>Dim cTrgtPaths As Variant
-Set cTrgtPaths = CreateObject("System.Collections.ArrayList")</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -9080,8 +9092,9 @@
       <c r="J38" s="7"/>
       <c r="K38" s="8"/>
       <c r="L38" s="2" t="str">
-        <f>"cTrgtPaths.Add ""c:\test\a.txt"""</f>
-        <v>cTrgtPaths.Add "c:\test\a.txt"</v>
+        <f>"Dim cTrgtPaths As Variant"&amp;CHAR(10)&amp;"Set cTrgtPaths = CreateObject(""System.Collections.ArrayList"")"</f>
+        <v>Dim cTrgtPaths As Variant
+Set cTrgtPaths = CreateObject("System.Collections.ArrayList")</v>
       </c>
       <c r="M38" s="13" t="s">
         <v>171</v>
@@ -9090,7 +9103,7 @@
     <row r="39" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -9102,17 +9115,17 @@
       <c r="J39" s="7"/>
       <c r="K39" s="8"/>
       <c r="L39" s="2" t="str">
-        <f>"cTrgtPaths.Item(0)"</f>
-        <v>cTrgtPaths.Item(0)</v>
+        <f>"cTrgtPaths.Add ""c:\test\a.txt"""</f>
+        <v>cTrgtPaths.Add "c:\test\a.txt"</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>387</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -9124,20 +9137,17 @@
       <c r="J40" s="7"/>
       <c r="K40" s="8"/>
       <c r="L40" s="2" t="str">
-        <f>"Dim vTrgtPath As Variant"&amp;CHAR(10)&amp;"For Each vTrgtPath In cTrgtPaths"&amp;CHAR(10)&amp;"MsgBox vTrgtPath"&amp;CHAR(10)&amp;"Next"</f>
-        <v>Dim vTrgtPath As Variant
-For Each vTrgtPath In cTrgtPaths
-MsgBox vTrgtPath
-Next</v>
+        <f>"cTrgtPaths.Item(0)"</f>
+        <v>cTrgtPaths.Item(0)</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>171</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -9149,17 +9159,20 @@
       <c r="J41" s="7"/>
       <c r="K41" s="8"/>
       <c r="L41" s="2" t="str">
-        <f>"cTrgtPaths.Count"</f>
-        <v>cTrgtPaths.Count</v>
+        <f>"Dim vTrgtPath As Variant"&amp;CHAR(10)&amp;"For Each vTrgtPath In cTrgtPaths"&amp;CHAR(10)&amp;"MsgBox vTrgtPath"&amp;CHAR(10)&amp;"Next"</f>
+        <v>Dim vTrgtPath As Variant
+For Each vTrgtPath In cTrgtPaths
+MsgBox vTrgtPath
+Next</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>404</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -9171,17 +9184,17 @@
       <c r="J42" s="7"/>
       <c r="K42" s="8"/>
       <c r="L42" s="2" t="str">
-        <f>"cTrgtPaths.Remove ""c:\test\b.xlsx"""</f>
-        <v>cTrgtPaths.Remove "c:\test\b.xlsx"</v>
+        <f>"cTrgtPaths.Count"</f>
+        <v>cTrgtPaths.Count</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -9193,17 +9206,17 @@
       <c r="J43" s="7"/>
       <c r="K43" s="8"/>
       <c r="L43" s="2" t="str">
-        <f>"cTrgtPaths.Add Item:=""c:\test\e.ppt"", After:=2"</f>
-        <v>cTrgtPaths.Add Item:="c:\test\e.ppt", After:=2</v>
+        <f>"cTrgtPaths.Remove ""c:\test\b.xlsx"""</f>
+        <v>cTrgtPaths.Remove "c:\test\b.xlsx"</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>171</v>
+        <v>404</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -9215,8 +9228,8 @@
       <c r="J44" s="7"/>
       <c r="K44" s="8"/>
       <c r="L44" s="2" t="str">
-        <f>"cTrgtPaths.Sort"</f>
-        <v>cTrgtPaths.Sort</v>
+        <f>"cTrgtPaths.Add Item:=""c:\test\e.ppt"", After:=2"</f>
+        <v>cTrgtPaths.Add Item:="c:\test\e.ppt", After:=2</v>
       </c>
       <c r="M44" s="13" t="s">
         <v>171</v>
@@ -9225,7 +9238,7 @@
     <row r="45" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -9237,18 +9250,17 @@
       <c r="J45" s="7"/>
       <c r="K45" s="8"/>
       <c r="L45" s="2" t="str">
-        <f>"Dim avTrgtPaths As Variant"&amp;CHAR(10)&amp;"avTrgtPaths = cTrgtPaths.ToArray()"</f>
-        <v>Dim avTrgtPaths As Variant
-avTrgtPaths = cTrgtPaths.ToArray()</v>
+        <f>"cTrgtPaths.Sort"</f>
+        <v>cTrgtPaths.Sort</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>406</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -9260,58 +9272,58 @@
       <c r="J46" s="7"/>
       <c r="K46" s="8"/>
       <c r="L46" s="2" t="str">
+        <f>"Dim avTrgtPaths As Variant"&amp;CHAR(10)&amp;"avTrgtPaths = cTrgtPaths.ToArray()"</f>
+        <v>Dim avTrgtPaths As Variant
+avTrgtPaths = cTrgtPaths.ToArray()</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="2" t="str">
         <f>"cTrgtPaths.Clear"</f>
         <v>cTrgtPaths.Clear</v>
       </c>
-      <c r="M46" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="7" t="s">
+      <c r="M47" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="2" t="str">
-        <f>"Dim oPriceOfFruit As Object"&amp;CHAR(10)&amp;"Set oPriceOfFruit = CreateObject(""Scripting.Dictionary"")"</f>
-        <v>Dim oPriceOfFruit As Object
-Set oPriceOfFruit = CreateObject("Scripting.Dictionary")</v>
-      </c>
-      <c r="M48" s="13" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -9322,17 +9334,18 @@
       <c r="J49" s="7"/>
       <c r="K49" s="8"/>
       <c r="L49" s="2" t="str">
-        <f>"oPriceOfFruit.Add(""リンゴ"", ""100円"")"</f>
-        <v>oPriceOfFruit.Add("リンゴ", "100円")</v>
+        <f>"Dim oPriceOfFruit As Object"&amp;CHAR(10)&amp;"Set oPriceOfFruit = CreateObject(""Scripting.Dictionary"")"</f>
+        <v>Dim oPriceOfFruit As Object
+Set oPriceOfFruit = CreateObject("Scripting.Dictionary")</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>171</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -9344,8 +9357,8 @@
       <c r="J50" s="7"/>
       <c r="K50" s="8"/>
       <c r="L50" s="2" t="str">
-        <f>"oPriceOfFruit.Exists(""リンゴ"")"</f>
-        <v>oPriceOfFruit.Exists("リンゴ")</v>
+        <f>"oPriceOfFruit.Add(""リンゴ"", ""100円"")"</f>
+        <v>oPriceOfFruit.Add("リンゴ", "100円")</v>
       </c>
       <c r="M50" s="13" t="s">
         <v>171</v>
@@ -9354,7 +9367,7 @@
     <row r="51" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -9366,19 +9379,17 @@
       <c r="J51" s="7"/>
       <c r="K51" s="8"/>
       <c r="L51" s="2" t="str">
-        <f>"For Each vKey In oPriceOfFruit"&amp;CHAR(10)&amp;"Debug.print vKey"&amp;CHAR(10)&amp;"Next"</f>
-        <v>For Each vKey In oPriceOfFruit
-Debug.print vKey
-Next</v>
+        <f>"oPriceOfFruit.Exists(""リンゴ"")"</f>
+        <v>oPriceOfFruit.Exists("リンゴ")</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>407</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -9390,17 +9401,19 @@
       <c r="J52" s="7"/>
       <c r="K52" s="8"/>
       <c r="L52" s="2" t="str">
-        <f>"oPriceOfFruit.Item(""リンゴ"")"</f>
-        <v>oPriceOfFruit.Item("リンゴ")</v>
+        <f>"For Each vKey In oPriceOfFruit"&amp;CHAR(10)&amp;"Debug.print vKey"&amp;CHAR(10)&amp;"Next"</f>
+        <v>For Each vKey In oPriceOfFruit
+Debug.print vKey
+Next</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>171</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
       <c r="B53" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -9412,17 +9425,17 @@
       <c r="J53" s="7"/>
       <c r="K53" s="8"/>
       <c r="L53" s="2" t="str">
-        <f>"oPriceOfFruit.Keys()(0)"</f>
-        <v>oPriceOfFruit.Keys()(0)</v>
+        <f>"oPriceOfFruit.Item(""リンゴ"")"</f>
+        <v>oPriceOfFruit.Item("リンゴ")</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>408</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -9434,17 +9447,17 @@
       <c r="J54" s="7"/>
       <c r="K54" s="8"/>
       <c r="L54" s="2" t="str">
-        <f>"oPriceOfFruit.Items()(0)"</f>
-        <v>oPriceOfFruit.Items()(0)</v>
+        <f>"oPriceOfFruit.Keys()(0)"</f>
+        <v>oPriceOfFruit.Keys()(0)</v>
       </c>
       <c r="M54" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -9456,17 +9469,17 @@
       <c r="J55" s="7"/>
       <c r="K55" s="8"/>
       <c r="L55" s="2" t="str">
-        <f>"oPriceOfFruit.Key(""リンゴ"") = ""りんご"""</f>
-        <v>oPriceOfFruit.Key("リンゴ") = "りんご"</v>
+        <f>"oPriceOfFruit.Items()(0)"</f>
+        <v>oPriceOfFruit.Items()(0)</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>171</v>
+        <v>407</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -9478,8 +9491,8 @@
       <c r="J56" s="7"/>
       <c r="K56" s="8"/>
       <c r="L56" s="2" t="str">
-        <f>"oPriceOfFruit.Item(""リンゴ"") = ""200円"""</f>
-        <v>oPriceOfFruit.Item("リンゴ") = "200円"</v>
+        <f>"oPriceOfFruit.Key(""リンゴ"") = ""りんご"""</f>
+        <v>oPriceOfFruit.Key("リンゴ") = "りんご"</v>
       </c>
       <c r="M56" s="13" t="s">
         <v>171</v>
@@ -9488,7 +9501,7 @@
     <row r="57" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -9500,8 +9513,8 @@
       <c r="J57" s="7"/>
       <c r="K57" s="8"/>
       <c r="L57" s="2" t="str">
-        <f>"oPriceOfFruit.Count"</f>
-        <v>oPriceOfFruit.Count</v>
+        <f>"oPriceOfFruit.Item(""リンゴ"") = ""200円"""</f>
+        <v>oPriceOfFruit.Item("リンゴ") = "200円"</v>
       </c>
       <c r="M57" s="13" t="s">
         <v>171</v>
@@ -9510,7 +9523,7 @@
     <row r="58" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -9522,17 +9535,17 @@
       <c r="J58" s="7"/>
       <c r="K58" s="8"/>
       <c r="L58" s="2" t="str">
-        <f>"oPriceOfFruit.Remove(""リンゴ"")"</f>
-        <v>oPriceOfFruit.Remove("リンゴ")</v>
+        <f>"oPriceOfFruit.Count"</f>
+        <v>oPriceOfFruit.Count</v>
       </c>
       <c r="M58" s="13" t="s">
-        <v>409</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="B59" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -9544,17 +9557,17 @@
       <c r="J59" s="7"/>
       <c r="K59" s="8"/>
       <c r="L59" s="2" t="str">
-        <f>"oPriceOfFruit.RemoveAll"</f>
-        <v>oPriceOfFruit.RemoveAll</v>
+        <f>"oPriceOfFruit.Remove(""リンゴ"")"</f>
+        <v>oPriceOfFruit.Remove("リンゴ")</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>171</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -9566,17 +9579,17 @@
       <c r="J60" s="7"/>
       <c r="K60" s="8"/>
       <c r="L60" s="2" t="str">
-        <f>"asFruitPrice = oPriceOfFruit.Items"</f>
-        <v>asFruitPrice = oPriceOfFruit.Items</v>
+        <f>"oPriceOfFruit.RemoveAll"</f>
+        <v>oPriceOfFruit.RemoveAll</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>410</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="B61" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -9588,17 +9601,17 @@
       <c r="J61" s="7"/>
       <c r="K61" s="8"/>
       <c r="L61" s="2" t="str">
-        <f>"asFruitName = oPriceOfFruit.Keys"</f>
-        <v>asFruitName = oPriceOfFruit.Keys</v>
+        <f>"asFruitPrice = oPriceOfFruit.Items"</f>
+        <v>asFruitPrice = oPriceOfFruit.Items</v>
       </c>
       <c r="M61" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -9610,55 +9623,55 @@
       <c r="J62" s="7"/>
       <c r="K62" s="8"/>
       <c r="L62" s="2" t="str">
+        <f>"asFruitName = oPriceOfFruit.Keys"</f>
+        <v>asFruitName = oPriceOfFruit.Keys</v>
+      </c>
+      <c r="M62" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="2" t="str">
         <f>"oPriceOfFruit.CompareMode = vbBinaryCompare"</f>
         <v>oPriceOfFruit.CompareMode = vbBinaryCompare</v>
       </c>
-      <c r="M62" s="13" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="2" t="str">
-        <f>"On Error Resume Next"</f>
-        <v>On Error Resume Next</v>
-      </c>
-      <c r="M64" s="13" t="s">
+      <c r="M63" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -9671,8 +9684,8 @@
       <c r="J65" s="7"/>
       <c r="K65" s="8"/>
       <c r="L65" s="2" t="str">
-        <f>"On Error Goto 0"</f>
-        <v>On Error Goto 0</v>
+        <f>"On Error Resume Next"</f>
+        <v>On Error Resume Next</v>
       </c>
       <c r="M65" s="13" t="s">
         <v>171</v>
@@ -9680,7 +9693,7 @@
     </row>
     <row r="66" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -9693,8 +9706,8 @@
       <c r="J66" s="7"/>
       <c r="K66" s="8"/>
       <c r="L66" s="2" t="str">
-        <f>"Err.Number"</f>
-        <v>Err.Number</v>
+        <f>"On Error Goto 0"</f>
+        <v>On Error Goto 0</v>
       </c>
       <c r="M66" s="13" t="s">
         <v>171</v>
@@ -9702,7 +9715,7 @@
     </row>
     <row r="67" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -9715,8 +9728,8 @@
       <c r="J67" s="7"/>
       <c r="K67" s="8"/>
       <c r="L67" s="2" t="str">
-        <f>"Err.Description"</f>
-        <v>Err.Description</v>
+        <f>"Err.Number"</f>
+        <v>Err.Number</v>
       </c>
       <c r="M67" s="13" t="s">
         <v>171</v>
@@ -9724,7 +9737,7 @@
     </row>
     <row r="68" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
-        <v>253</v>
+        <v>58</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -9737,16 +9750,16 @@
       <c r="J68" s="7"/>
       <c r="K68" s="8"/>
       <c r="L68" s="2" t="str">
-        <f>"On Error GoTo ErrorLabel"</f>
-        <v>On Error GoTo ErrorLabel</v>
+        <f>"Err.Description"</f>
+        <v>Err.Description</v>
       </c>
       <c r="M68" s="13" t="s">
-        <v>412</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -9759,58 +9772,57 @@
       <c r="J69" s="7"/>
       <c r="K69" s="8"/>
       <c r="L69" s="2" t="str">
+        <f>"On Error GoTo ErrorLabel"</f>
+        <v>On Error GoTo ErrorLabel</v>
+      </c>
+      <c r="M69" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="2" t="str">
         <f>"ErrorLabel:"</f>
         <v>ErrorLabel:</v>
       </c>
-      <c r="M69" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="23"/>
-      <c r="M70" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="7" t="s">
+      <c r="M70" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="2" t="str">
-        <f>"Dim objWshShell"&amp;CHAR(10)&amp;"Set objWshShell = CreateObject(""WScript.Shell"")"</f>
-        <v>Dim objWshShell
-Set objWshShell = CreateObject("WScript.Shell")</v>
-      </c>
-      <c r="M71" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -9821,17 +9833,18 @@
       <c r="J72" s="7"/>
       <c r="K72" s="8"/>
       <c r="L72" s="2" t="str">
-        <f>"objWshShell.Exec(""C:\test.bat"")"</f>
-        <v>objWshShell.Exec("C:\test.bat")</v>
+        <f>"Dim objWshShell"&amp;CHAR(10)&amp;"Set objWshShell = CreateObject(""WScript.Shell"")"</f>
+        <v>Dim objWshShell
+Set objWshShell = CreateObject("WScript.Shell")</v>
       </c>
       <c r="M72" s="13" t="s">
-        <v>413</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -9843,17 +9856,17 @@
       <c r="J73" s="7"/>
       <c r="K73" s="8"/>
       <c r="L73" s="2" t="str">
-        <f>"objWshShell.Run ""C:\test.bat"", 0, True"</f>
-        <v>objWshShell.Run "C:\test.bat", 0, True</v>
+        <f>"objWshShell.Exec(""C:\test.bat"")"</f>
+        <v>objWshShell.Exec("C:\test.bat")</v>
       </c>
       <c r="M73" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -9865,17 +9878,17 @@
       <c r="J74" s="7"/>
       <c r="K74" s="8"/>
       <c r="L74" s="2" t="str">
-        <f>"objWshShell.RegRead(""HKCU\WshTest\Test1"")"</f>
-        <v>objWshShell.RegRead("HKCU\WshTest\Test1")</v>
+        <f>"objWshShell.Run ""C:\test.bat"", 0, True"</f>
+        <v>objWshShell.Run "C:\test.bat", 0, True</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>171</v>
+        <v>413</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -9887,17 +9900,17 @@
       <c r="J75" s="7"/>
       <c r="K75" s="8"/>
       <c r="L75" s="2" t="str">
-        <f>"objWshShell.RegWrite(""HKCU\WshTest\Test1"", ""test"", ""REG\_SZ"")"</f>
-        <v>objWshShell.RegWrite("HKCU\WshTest\Test1", "test", "REG\_SZ")</v>
+        <f>"objWshShell.RegRead(""HKCU\WshTest\Test1"")"</f>
+        <v>objWshShell.RegRead("HKCU\WshTest\Test1")</v>
       </c>
       <c r="M75" s="13" t="s">
-        <v>415</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="7" t="s">
-        <v>255</v>
+        <v>64</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -9909,17 +9922,17 @@
       <c r="J76" s="7"/>
       <c r="K76" s="8"/>
       <c r="L76" s="2" t="str">
-        <f>"objWshShell.ExpandEnvironmentStrings( ""%MYPATH\_CODES%"" )"</f>
-        <v>objWshShell.ExpandEnvironmentStrings( "%MYPATH\_CODES%" )</v>
+        <f>"objWshShell.RegWrite(""HKCU\WshTest\Test1"", ""test"", ""REG\_SZ"")"</f>
+        <v>objWshShell.RegWrite("HKCU\WshTest\Test1", "test", "REG\_SZ")</v>
       </c>
       <c r="M76" s="13" t="s">
-        <v>171</v>
+        <v>414</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="7" t="s">
-        <v>66</v>
+        <v>255</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -9931,17 +9944,17 @@
       <c r="J77" s="7"/>
       <c r="K77" s="8"/>
       <c r="L77" s="2" t="str">
-        <f>"objWshShell.SpecialFolders(""Desktop"")"</f>
-        <v>objWshShell.SpecialFolders("Desktop")</v>
+        <f>"objWshShell.ExpandEnvironmentStrings( ""%MYPATH\_CODES%"" )"</f>
+        <v>objWshShell.ExpandEnvironmentStrings( "%MYPATH\_CODES%" )</v>
       </c>
       <c r="M77" s="13" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="7" t="s">
-        <v>257</v>
+        <v>66</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -9953,20 +9966,17 @@
       <c r="J78" s="7"/>
       <c r="K78" s="8"/>
       <c r="L78" s="2" t="str">
-        <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".TargetPath = ""c:\test\dst.txt"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
-        <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
-.TargetPath = "c:\test\dst.txt"
-.Save
-End With</v>
+        <f>"objWshShell.SpecialFolders(""Desktop"")"</f>
+        <v>objWshShell.SpecialFolders("Desktop")</v>
       </c>
       <c r="M78" s="13" t="s">
-        <v>171</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="7" t="s">
-        <v>68</v>
+        <v>257</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -9978,17 +9988,20 @@
       <c r="J79" s="7"/>
       <c r="K79" s="8"/>
       <c r="L79" s="2" t="str">
-        <f>"objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" ).TargetPath"</f>
-        <v>objWshShell.CreateShortcut( "c:\test\src.txt.lnk" ).TargetPath</v>
+        <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".TargetPath = ""c:\test\dst.txt"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
+        <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
+.TargetPath = "c:\test\dst.txt"
+.Save
+End With</v>
       </c>
       <c r="M79" s="13" t="s">
-        <v>416</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -10000,61 +10013,60 @@
       <c r="J80" s="7"/>
       <c r="K80" s="8"/>
       <c r="L80" s="2" t="str">
+        <f>"objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" ).TargetPath"</f>
+        <v>objWshShell.CreateShortcut( "c:\test\src.txt.lnk" ).TargetPath</v>
+      </c>
+      <c r="M80" s="13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="2" t="str">
         <f>"With objWshShell.CreateShortcut( ""c:\test\src.txt.lnk"" )"&amp;CHAR(10)&amp;".TargetPath = ""c:\test\dst2.txt"""&amp;CHAR(10)&amp;".Save"&amp;CHAR(10)&amp;"End With"</f>
         <v>With objWshShell.CreateShortcut( "c:\test\src.txt.lnk" )
 .TargetPath = "c:\test\dst2.txt"
 .Save
 End With</v>
       </c>
-      <c r="M80" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="23"/>
-      <c r="M81" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="7" t="s">
+      <c r="M81" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="2" t="str">
-        <f>"Dim objFSO As Object"&amp;CHAR(10)&amp;"Set objFSO = CreateObject(""Scripting.FileSystemObject"")"</f>
-        <v>Dim objFSO As Object
-Set objFSO = CreateObject("Scripting.FileSystemObject")</v>
-      </c>
-      <c r="M82" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7" t="s">
-        <v>258</v>
-      </c>
+      <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -10065,8 +10077,9 @@
       <c r="J83" s="7"/>
       <c r="K83" s="8"/>
       <c r="L83" s="2" t="str">
-        <f>"objFSO.CopyFile ThisWorkbook.FullName, ""c:\temp\test.xlsm"""</f>
-        <v>objFSO.CopyFile ThisWorkbook.FullName, "c:\temp\test.xlsm"</v>
+        <f>"Dim objFSO As Object"&amp;CHAR(10)&amp;"Set objFSO = CreateObject(""Scripting.FileSystemObject"")"</f>
+        <v>Dim objFSO As Object
+Set objFSO = CreateObject("Scripting.FileSystemObject")</v>
       </c>
       <c r="M83" s="13" t="s">
         <v>171</v>
@@ -10075,7 +10088,7 @@
     <row r="84" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
       <c r="B84" s="7" t="s">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -10087,17 +10100,17 @@
       <c r="J84" s="7"/>
       <c r="K84" s="8"/>
       <c r="L84" s="2" t="str">
-        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
-        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
+        <f>"objFSO.CopyFile ThisWorkbook.FullName, ""c:\temp\test.xlsm"""</f>
+        <v>objFSO.CopyFile ThisWorkbook.FullName, "c:\temp\test.xlsm"</v>
       </c>
       <c r="M84" s="13" t="s">
-        <v>417</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -10109,17 +10122,17 @@
       <c r="J85" s="7"/>
       <c r="K85" s="8"/>
       <c r="L85" s="2" t="str">
-        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
-        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
+        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\"""</f>
+        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\"</v>
       </c>
       <c r="M85" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -10131,17 +10144,17 @@
       <c r="J86" s="7"/>
       <c r="K86" s="8"/>
       <c r="L86" s="2" t="str">
-        <f>"objFSO.DeleteFile ""c:\test"", True"</f>
-        <v>objFSO.DeleteFile "c:\test", True</v>
+        <f>"objFSO.CopyFile ""C:\codes\a.txt"", ""C:\codes\test\a.txt"""</f>
+        <v>objFSO.CopyFile "C:\codes\a.txt", "C:\codes\test\a.txt"</v>
       </c>
       <c r="M86" s="13" t="s">
-        <v>171</v>
+        <v>417</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
       <c r="B87" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -10153,8 +10166,8 @@
       <c r="J87" s="7"/>
       <c r="K87" s="8"/>
       <c r="L87" s="2" t="str">
-        <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
-        <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
+        <f>"objFSO.DeleteFile ""c:\test"", True"</f>
+        <v>objFSO.DeleteFile "c:\test", True</v>
       </c>
       <c r="M87" s="13" t="s">
         <v>171</v>
@@ -10163,7 +10176,7 @@
     <row r="88" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
       <c r="B88" s="7" t="s">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -10175,12 +10188,8 @@
       <c r="J88" s="7"/>
       <c r="K88" s="8"/>
       <c r="L88" s="2" t="str">
-        <f>"If Dir(""C:\Book1.xlsx"") &lt;&gt; """" Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"存在"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"非存在"&amp;CHAR(10)&amp;"End If"</f>
-        <v>If Dir("C:\Book1.xlsx") &lt;&gt; "" Then
-	存在
-Else
-	非存在
-End If</v>
+        <f>"objFSO.MoveFile ""C:\codes\src.txt"", ""C:\codes\dst.txt"""</f>
+        <v>objFSO.MoveFile "C:\codes\src.txt", "C:\codes\dst.txt"</v>
       </c>
       <c r="M88" s="13" t="s">
         <v>171</v>
@@ -10189,7 +10198,7 @@
     <row r="89" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
       <c r="B89" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -10201,17 +10210,21 @@
       <c r="J89" s="7"/>
       <c r="K89" s="8"/>
       <c r="L89" s="2" t="str">
-        <f>"objFSO.FileExists(""c:\codes\a.txt"")"</f>
-        <v>objFSO.FileExists("c:\codes\a.txt")</v>
+        <f>"If Dir(""C:\Book1.xlsx"") &lt;&gt; """" Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"存在"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"非存在"&amp;CHAR(10)&amp;"End If"</f>
+        <v>If Dir("C:\Book1.xlsx") &lt;&gt; "" Then
+	存在
+Else
+	非存在
+End If</v>
       </c>
       <c r="M89" s="13" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="7" t="s">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -10223,17 +10236,17 @@
       <c r="J90" s="7"/>
       <c r="K90" s="8"/>
       <c r="L90" s="2" t="str">
-        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes"</f>
-        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
+        <f>"objFSO.FileExists(""c:\codes\a.txt"")"</f>
+        <v>objFSO.FileExists("c:\codes\a.txt")</v>
       </c>
       <c r="M90" s="13" t="s">
-        <v>419</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -10245,17 +10258,17 @@
       <c r="J91" s="7"/>
       <c r="K91" s="8"/>
       <c r="L91" s="2" t="str">
-        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes = 2"</f>
-        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
+        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes"</f>
+        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes</v>
       </c>
       <c r="M91" s="13" t="s">
-        <v>171</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -10267,17 +10280,17 @@
       <c r="J92" s="7"/>
       <c r="K92" s="8"/>
       <c r="L92" s="2" t="str">
-        <f>"objFSO.GetAbsolutePathName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetFile( ""C:\codes\a.txt"" ).Attributes = 2"</f>
+        <v>objFSO.GetFile( "C:\codes\a.txt" ).Attributes = 2</v>
       </c>
       <c r="M92" s="13" t="s">
-        <v>397</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -10289,17 +10302,17 @@
       <c r="J93" s="7"/>
       <c r="K93" s="8"/>
       <c r="L93" s="2" t="str">
-        <f>"objFSO.GetDriveName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetAbsolutePathName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetAbsolutePathName( "C:\codes\a.txt" )</v>
       </c>
       <c r="M93" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -10311,17 +10324,17 @@
       <c r="J94" s="7"/>
       <c r="K94" s="8"/>
       <c r="L94" s="2" t="str">
-        <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetDriveName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetDriveName( "C:\codes\a.txt" )</v>
       </c>
       <c r="M94" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -10333,17 +10346,17 @@
       <c r="J95" s="7"/>
       <c r="K95" s="8"/>
       <c r="L95" s="2" t="str">
-        <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetFileName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetFileName( "C:\codes\a.txt" )</v>
       </c>
       <c r="M95" s="13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -10355,17 +10368,17 @@
       <c r="J96" s="7"/>
       <c r="K96" s="8"/>
       <c r="L96" s="2" t="str">
-        <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetBaseName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetBaseName( "C:\codes\a.txt" )</v>
       </c>
       <c r="M96" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -10377,17 +10390,17 @@
       <c r="J97" s="7"/>
       <c r="K97" s="8"/>
       <c r="L97" s="2" t="str">
-        <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
-        <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
+        <f>"objFSO.GetExtensionName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetExtensionName( "C:\codes\a.txt" )</v>
       </c>
       <c r="M97" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -10399,17 +10412,17 @@
       <c r="J98" s="7"/>
       <c r="K98" s="8"/>
       <c r="L98" s="2" t="str">
-        <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
-        <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
+        <f>"objFSO.GetParentFolderName( ""C:\codes\a.txt"" )"</f>
+        <v>objFSO.GetParentFolderName( "C:\codes\a.txt" )</v>
       </c>
       <c r="M98" s="13" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -10421,17 +10434,17 @@
       <c r="J99" s="7"/>
       <c r="K99" s="8"/>
       <c r="L99" s="2" t="str">
-        <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
-        <v>objFSO.DeleteFolder "C:\codes\test", True</v>
+        <f>"objFSO.CopyFolder ""C:\codes\src"", ""C:\codes\dst"", True"</f>
+        <v>objFSO.CopyFolder "C:\codes\src", "C:\codes\dst", True</v>
       </c>
       <c r="M99" s="13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -10443,17 +10456,17 @@
       <c r="J100" s="7"/>
       <c r="K100" s="8"/>
       <c r="L100" s="2" t="str">
-        <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
-        <v>objFSO.CreateFolder( "C:\codes\test" )</v>
+        <f>"objFSO.DeleteFolder ""C:\codes\test"", True"</f>
+        <v>objFSO.DeleteFolder "C:\codes\test", True</v>
       </c>
       <c r="M100" s="13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -10465,17 +10478,17 @@
       <c r="J101" s="7"/>
       <c r="K101" s="8"/>
       <c r="L101" s="2" t="str">
-        <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
-        <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
+        <f>"objFSO.CreateFolder( ""C:\codes\test"" )"</f>
+        <v>objFSO.CreateFolder( "C:\codes\test" )</v>
       </c>
       <c r="M101" s="13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
       <c r="B102" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -10487,17 +10500,17 @@
       <c r="J102" s="7"/>
       <c r="K102" s="8"/>
       <c r="L102" s="2" t="str">
-        <f>"objFSO.GetFolder( ""C:\codes"" ).Attributes"</f>
-        <v>objFSO.GetFolder( "C:\codes" ).Attributes</v>
+        <f>"objFSO.MoveFolder ""C:\codes\src"", ""C:\codes\dst"""</f>
+        <v>objFSO.MoveFolder "C:\codes\src", "C:\codes\dst"</v>
       </c>
       <c r="M102" s="13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
       <c r="B103" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -10509,17 +10522,17 @@
       <c r="J103" s="7"/>
       <c r="K103" s="8"/>
       <c r="L103" s="2" t="str">
-        <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
-        <v>objFSO.FolderExists( "C:\codes" )</v>
-      </c>
-      <c r="M103" s="13" t="b">
-        <v>1</v>
+        <f>"objFSO.GetFolder( ""C:\codes"" ).Attributes"</f>
+        <v>objFSO.GetFolder( "C:\codes" ).Attributes</v>
+      </c>
+      <c r="M103" s="13" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="7" t="s">
-        <v>261</v>
+        <v>92</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -10531,56 +10544,55 @@
       <c r="J104" s="7"/>
       <c r="K104" s="8"/>
       <c r="L104" s="2" t="str">
+        <f>"objFSO.FolderExists( ""C:\codes"" )"</f>
+        <v>objFSO.FolderExists( "C:\codes" )</v>
+      </c>
+      <c r="M104" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="2" t="str">
         <f>"objFSO.GetParentFolderName( ""C:\codes\src"" )"</f>
         <v>objFSO.GetParentFolderName( "C:\codes\src" )</v>
       </c>
-      <c r="M104" s="13" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="21"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="21"/>
-      <c r="I105" s="21"/>
-      <c r="J105" s="21"/>
-      <c r="K105" s="22"/>
-      <c r="L105" s="23"/>
-      <c r="M105" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="2" t="str">
-        <f>"Open ファイル名 For [Input\|Output\|Append] As #1"&amp;CHAR(10)&amp;"Close #1"</f>
-        <v>Open ファイル名 For [Input\|Output\|Append] As #1
-Close #1</v>
-      </c>
-      <c r="M106" s="13" t="s">
+      <c r="M105" s="13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="21"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="22"/>
+      <c r="L106" s="23"/>
+      <c r="M106" s="24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -10593,10 +10605,9 @@
       <c r="J107" s="7"/>
       <c r="K107" s="8"/>
       <c r="L107" s="2" t="str">
-        <f>"Do Until EOF(1)"&amp;CHAR(10)&amp;"Line Input #1, 文字列変数"&amp;CHAR(10)&amp;"Loop"</f>
-        <v>Do Until EOF(1)
-Line Input #1, 文字列変数
-Loop</v>
+        <f>"Open ファイル名 For [Input\|Output\|Append] As #1"&amp;CHAR(10)&amp;"Close #1"</f>
+        <v>Open ファイル名 For [Input\|Output\|Append] As #1
+Close #1</v>
       </c>
       <c r="M107" s="13" t="s">
         <v>171</v>
@@ -10604,7 +10615,7 @@
     </row>
     <row r="108" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -10617,16 +10628,18 @@
       <c r="J108" s="7"/>
       <c r="K108" s="8"/>
       <c r="L108" s="2" t="str">
-        <f>"sTestFile = objFSO.GetFile(ファイルパス).OpenAsTextStream.ReadAll"</f>
-        <v>sTestFile = objFSO.GetFile(ファイルパス).OpenAsTextStream.ReadAll</v>
+        <f>"Do Until EOF(1)"&amp;CHAR(10)&amp;"Line Input #1, 文字列変数"&amp;CHAR(10)&amp;"Loop"</f>
+        <v>Do Until EOF(1)
+Line Input #1, 文字列変数
+Loop</v>
       </c>
       <c r="M108" s="13" t="s">
-        <v>425</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -10639,16 +10652,16 @@
       <c r="J109" s="7"/>
       <c r="K109" s="8"/>
       <c r="L109" s="2" t="str">
-        <f>"Print #1, 文字列変数"</f>
-        <v>Print #1, 文字列変数</v>
+        <f>"sTestFile = objFSO.GetFile(ファイルパス).OpenAsTextStream.ReadAll"</f>
+        <v>sTestFile = objFSO.GetFile(ファイルパス).OpenAsTextStream.ReadAll</v>
       </c>
       <c r="M109" s="13" t="s">
-        <v>171</v>
+        <v>424</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -10661,56 +10674,56 @@
       <c r="J110" s="7"/>
       <c r="K110" s="8"/>
       <c r="L110" s="2" t="str">
+        <f>"Print #1, 文字列変数"</f>
+        <v>Print #1, 文字列変数</v>
+      </c>
+      <c r="M110" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="2" t="str">
         <f>"Set wTargetBook = Workbooks.Open(sTargetBookName)"&amp;CHAR(10)&amp;"wTargetBook.Close SaveChanges:=True"</f>
         <v>Set wTargetBook = Workbooks.Open(sTargetBookName)
 wTargetBook.Close SaveChanges:=True</v>
       </c>
-      <c r="M110" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="21"/>
-      <c r="B111" s="21"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="21"/>
-      <c r="E111" s="21"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="21"/>
-      <c r="H111" s="21"/>
-      <c r="I111" s="21"/>
-      <c r="J111" s="21"/>
-      <c r="K111" s="22"/>
-      <c r="L111" s="23"/>
-      <c r="M111" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="8"/>
-      <c r="L112" s="2" t="str">
-        <f>"Replace(文字列変数, ""  "", """")"</f>
-        <v>Replace(文字列変数, "  ", "")</v>
-      </c>
-      <c r="M112" s="13" t="s">
+      <c r="M111" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="21"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="21"/>
+      <c r="J112" s="21"/>
+      <c r="K112" s="22"/>
+      <c r="L112" s="23"/>
+      <c r="M112" s="24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -10723,16 +10736,16 @@
       <c r="J113" s="7"/>
       <c r="K113" s="8"/>
       <c r="L113" s="2" t="str">
-        <f>"InStr(""abcabc"", ""bc"")"</f>
-        <v>InStr("abcabc", "bc")</v>
+        <f>"Replace(文字列変数, ""  "", """")"</f>
+        <v>Replace(文字列変数, "  ", "")</v>
       </c>
       <c r="M113" s="13" t="s">
-        <v>403</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -10745,16 +10758,16 @@
       <c r="J114" s="7"/>
       <c r="K114" s="8"/>
       <c r="L114" s="2" t="str">
-        <f>"InStrRev(""abcabc"", ""bc"")"</f>
-        <v>InStrRev("abcabc", "bc")</v>
+        <f>"InStr(""abcabc"", ""bc"")"</f>
+        <v>InStr("abcabc", "bc")</v>
       </c>
       <c r="M114" s="13" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -10767,16 +10780,16 @@
       <c r="J115" s="7"/>
       <c r="K115" s="8"/>
       <c r="L115" s="2" t="str">
-        <f>"Len(""リンゴ"")"</f>
-        <v>Len("リンゴ")</v>
-      </c>
-      <c r="M115" s="13">
-        <v>3</v>
+        <f>"InStrRev(""abcabc"", ""bc"")"</f>
+        <v>InStrRev("abcabc", "bc")</v>
+      </c>
+      <c r="M115" s="13" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -10789,16 +10802,16 @@
       <c r="J116" s="7"/>
       <c r="K116" s="8"/>
       <c r="L116" s="2" t="str">
-        <f>"LenB(""リンゴ"")"</f>
-        <v>LenB("リンゴ")</v>
+        <f>"Len(""リンゴ"")"</f>
+        <v>Len("リンゴ")</v>
       </c>
       <c r="M116" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -10811,16 +10824,16 @@
       <c r="J117" s="7"/>
       <c r="K117" s="8"/>
       <c r="L117" s="2" t="str">
-        <f>"abcdef &amp; ""gh"""</f>
-        <v>abcdef &amp; "gh"</v>
-      </c>
-      <c r="M117" s="13" t="s">
-        <v>171</v>
+        <f>"LenB(""リンゴ"")"</f>
+        <v>LenB("リンゴ")</v>
+      </c>
+      <c r="M117" s="13">
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -10833,16 +10846,16 @@
       <c r="J118" s="7"/>
       <c r="K118" s="8"/>
       <c r="L118" s="2" t="str">
-        <f>"Left$(""abcd"", 3)"</f>
-        <v>Left$("abcd", 3)</v>
+        <f>"abcdef &amp; ""gh"""</f>
+        <v>abcdef &amp; "gh"</v>
       </c>
       <c r="M118" s="13" t="s">
-        <v>427</v>
+        <v>171</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -10855,16 +10868,16 @@
       <c r="J119" s="7"/>
       <c r="K119" s="8"/>
       <c r="L119" s="2" t="str">
-        <f>"Mid$(""abcdefgh"", 3, 2)"</f>
-        <v>Mid$("abcdefgh", 3, 2)</v>
+        <f>"Left$(""abcd"", 3)"</f>
+        <v>Left$("abcd", 3)</v>
       </c>
       <c r="M119" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -10877,16 +10890,16 @@
       <c r="J120" s="7"/>
       <c r="K120" s="8"/>
       <c r="L120" s="2" t="str">
-        <f>"Right$(""abcd"", 2)"</f>
-        <v>Right$("abcd", 2)</v>
+        <f>"Mid$(""abcdefgh"", 3, 2)"</f>
+        <v>Mid$("abcdefgh", 3, 2)</v>
       </c>
       <c r="M120" s="13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="7" t="s">
-        <v>474</v>
+        <v>107</v>
       </c>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -10898,16 +10911,17 @@
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="8"/>
-      <c r="L121" s="2" t="s">
-        <v>459</v>
+      <c r="L121" s="2" t="str">
+        <f>"Right$(""abcd"", 2)"</f>
+        <v>Right$("abcd", 2)</v>
       </c>
       <c r="M121" s="13" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -10920,15 +10934,15 @@
       <c r="J122" s="7"/>
       <c r="K122" s="8"/>
       <c r="L122" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="M122" s="13" t="s">
         <v>461</v>
-      </c>
-      <c r="M122" s="13" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -10941,15 +10955,15 @@
       <c r="J123" s="7"/>
       <c r="K123" s="8"/>
       <c r="L123" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="M123" s="13" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="7" t="s">
-        <v>108</v>
+        <v>477</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -10961,17 +10975,16 @@
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
       <c r="K124" s="8"/>
-      <c r="L124" s="2" t="str">
-        <f>"Asc(文字)"</f>
-        <v>Asc(文字)</v>
+      <c r="L124" s="2" t="s">
+        <v>456</v>
       </c>
       <c r="M124" s="13" t="s">
-        <v>171</v>
+        <v>457</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -10984,16 +10997,16 @@
       <c r="J125" s="7"/>
       <c r="K125" s="8"/>
       <c r="L125" s="2" t="str">
-        <f>"IsNumeric( sStr )"</f>
-        <v>IsNumeric( sStr )</v>
+        <f>"Asc(文字)"</f>
+        <v>Asc(文字)</v>
       </c>
       <c r="M125" s="13" t="s">
-        <v>430</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -11006,16 +11019,16 @@
       <c r="J126" s="7"/>
       <c r="K126" s="8"/>
       <c r="L126" s="2" t="str">
-        <f>"Chr(ASCIIコード)"</f>
-        <v>Chr(ASCIIコード)</v>
+        <f>"IsNumeric( sStr )"</f>
+        <v>IsNumeric( sStr )</v>
       </c>
       <c r="M126" s="13" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -11028,16 +11041,16 @@
       <c r="J127" s="7"/>
       <c r="K127" s="8"/>
       <c r="L127" s="2" t="str">
-        <f>"a &amp; String(""b"", 4)"</f>
-        <v>a &amp; String("b", 4)</v>
+        <f>"Chr(ASCIIコード)"</f>
+        <v>Chr(ASCIIコード)</v>
       </c>
       <c r="M127" s="13" t="s">
-        <v>431</v>
+        <v>388</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -11050,16 +11063,16 @@
       <c r="J128" s="7"/>
       <c r="K128" s="8"/>
       <c r="L128" s="2" t="str">
-        <f>"UCase(""aaa"")"</f>
-        <v>UCase("aaa")</v>
+        <f>"a &amp; String(""b"", 4)"</f>
+        <v>a &amp; String("b", 4)</v>
       </c>
       <c r="M128" s="13" t="s">
-        <v>171</v>
+        <v>430</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -11072,8 +11085,8 @@
       <c r="J129" s="7"/>
       <c r="K129" s="8"/>
       <c r="L129" s="2" t="str">
-        <f>"LCase(""AAA"")"</f>
-        <v>LCase("AAA")</v>
+        <f>"UCase(""aaa"")"</f>
+        <v>UCase("aaa")</v>
       </c>
       <c r="M129" s="13" t="s">
         <v>171</v>
@@ -11081,7 +11094,7 @@
     </row>
     <row r="130" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -11094,16 +11107,16 @@
       <c r="J130" s="7"/>
       <c r="K130" s="8"/>
       <c r="L130" s="2" t="str">
-        <f>"ReDim Preserve 配列名(5)"</f>
-        <v>ReDim Preserve 配列名(5)</v>
+        <f>"LCase(""AAA"")"</f>
+        <v>LCase("AAA")</v>
       </c>
       <c r="M130" s="13" t="s">
-        <v>380</v>
+        <v>171</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -11116,16 +11129,16 @@
       <c r="J131" s="7"/>
       <c r="K131" s="8"/>
       <c r="L131" s="2" t="str">
-        <f>"UBound(配列名)"</f>
-        <v>UBound(配列名)</v>
+        <f>"ReDim Preserve 配列名(5)"</f>
+        <v>ReDim Preserve 配列名(5)</v>
       </c>
       <c r="M131" s="13" t="s">
-        <v>432</v>
+        <v>380</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -11138,20 +11151,16 @@
       <c r="J132" s="7"/>
       <c r="K132" s="8"/>
       <c r="L132" s="2" t="str">
-        <f>"If Sgn(asStr) = 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"未初期化配列"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"要素数１配列"&amp;CHAR(10)&amp;"End If"</f>
-        <v>If Sgn(asStr) = 0 Then
-	未初期化配列
-Else
-	要素数１配列
-End If</v>
+        <f>"UBound(配列名)"</f>
+        <v>UBound(配列名)</v>
       </c>
       <c r="M132" s="13" t="s">
-        <v>171</v>
+        <v>431</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -11164,8 +11173,12 @@
       <c r="J133" s="7"/>
       <c r="K133" s="8"/>
       <c r="L133" s="2" t="str">
-        <f>"Join(配列, "","")"</f>
-        <v>Join(配列, ",")</v>
+        <f>"If Sgn(asStr) = 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"未初期化配列"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"要素数１配列"&amp;CHAR(10)&amp;"End If"</f>
+        <v>If Sgn(asStr) = 0 Then
+	未初期化配列
+Else
+	要素数１配列
+End If</v>
       </c>
       <c r="M133" s="13" t="s">
         <v>171</v>
@@ -11173,7 +11186,7 @@
     </row>
     <row r="134" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -11186,8 +11199,8 @@
       <c r="J134" s="7"/>
       <c r="K134" s="8"/>
       <c r="L134" s="2" t="str">
-        <f>"文字列配列 = Split(""aaa,bbb,ccc"", "","")"</f>
-        <v>文字列配列 = Split("aaa,bbb,ccc", ",")</v>
+        <f>"Join(配列, "","")"</f>
+        <v>Join(配列, ",")</v>
       </c>
       <c r="M134" s="13" t="s">
         <v>171</v>
@@ -11195,7 +11208,7 @@
     </row>
     <row r="135" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -11208,16 +11221,16 @@
       <c r="J135" s="7"/>
       <c r="K135" s="8"/>
       <c r="L135" s="2" t="str">
-        <f>"TypeName(""Test"")"</f>
-        <v>TypeName("Test")</v>
+        <f>"文字列配列 = Split(""aaa,bbb,ccc"", "","")"</f>
+        <v>文字列配列 = Split("aaa,bbb,ccc", ",")</v>
       </c>
       <c r="M135" s="13" t="s">
-        <v>433</v>
+        <v>171</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -11230,16 +11243,16 @@
       <c r="J136" s="7"/>
       <c r="K136" s="8"/>
       <c r="L136" s="2" t="str">
-        <f>"VarType(""Test"")"</f>
-        <v>VarType("Test")</v>
+        <f>"TypeName(""Test"")"</f>
+        <v>TypeName("Test")</v>
       </c>
       <c r="M136" s="13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -11252,16 +11265,16 @@
       <c r="J137" s="7"/>
       <c r="K137" s="8"/>
       <c r="L137" s="2" t="str">
-        <f>"文字列変数 = Hex(734)"</f>
-        <v>文字列変数 = Hex(734)</v>
+        <f>"VarType(""Test"")"</f>
+        <v>VarType("Test")</v>
       </c>
       <c r="M137" s="13" t="s">
-        <v>171</v>
+        <v>433</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="7" t="s">
-        <v>267</v>
+        <v>121</v>
       </c>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -11274,8 +11287,8 @@
       <c r="J138" s="7"/>
       <c r="K138" s="8"/>
       <c r="L138" s="2" t="str">
-        <f>"Long変数 = CLng(""&amp;H"" &amp; ""FA"")"</f>
-        <v>Long変数 = CLng("&amp;H" &amp; "FA")</v>
+        <f>"文字列変数 = Hex(734)"</f>
+        <v>文字列変数 = Hex(734)</v>
       </c>
       <c r="M138" s="13" t="s">
         <v>171</v>
@@ -11283,7 +11296,7 @@
     </row>
     <row r="139" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -11296,8 +11309,8 @@
       <c r="J139" s="7"/>
       <c r="K139" s="8"/>
       <c r="L139" s="2" t="str">
-        <f>"Int変数 = CInt(""&amp;H"" &amp; ""FA"")"</f>
-        <v>Int変数 = CInt("&amp;H" &amp; "FA")</v>
+        <f>"Long変数 = CLng(""&amp;H"" &amp; ""FA"")"</f>
+        <v>Long変数 = CLng("&amp;H" &amp; "FA")</v>
       </c>
       <c r="M139" s="13" t="s">
         <v>171</v>
@@ -11305,7 +11318,7 @@
     </row>
     <row r="140" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="7" t="s">
-        <v>123</v>
+        <v>268</v>
       </c>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -11318,8 +11331,8 @@
       <c r="J140" s="7"/>
       <c r="K140" s="8"/>
       <c r="L140" s="2" t="str">
-        <f>"&amp;HFFF0"</f>
-        <v>&amp;HFFF0</v>
+        <f>"Int変数 = CInt(""&amp;H"" &amp; ""FA"")"</f>
+        <v>Int変数 = CInt("&amp;H" &amp; "FA")</v>
       </c>
       <c r="M140" s="13" t="s">
         <v>171</v>
@@ -11327,7 +11340,7 @@
     </row>
     <row r="141" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -11340,8 +11353,8 @@
       <c r="J141" s="7"/>
       <c r="K141" s="8"/>
       <c r="L141" s="2" t="str">
-        <f>"&amp;HFFF0&amp;"</f>
-        <v>&amp;HFFF0&amp;</v>
+        <f>"&amp;HFFF0"</f>
+        <v>&amp;HFFF0</v>
       </c>
       <c r="M141" s="13" t="s">
         <v>171</v>
@@ -11349,7 +11362,7 @@
     </row>
     <row r="142" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="7" t="s">
-        <v>269</v>
+        <v>124</v>
       </c>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -11362,8 +11375,8 @@
       <c r="J142" s="7"/>
       <c r="K142" s="8"/>
       <c r="L142" s="2" t="str">
-        <f>"Val(文字列式)"</f>
-        <v>Val(文字列式)</v>
+        <f>"&amp;HFFF0&amp;"</f>
+        <v>&amp;HFFF0&amp;</v>
       </c>
       <c r="M142" s="13" t="s">
         <v>171</v>
@@ -11371,7 +11384,7 @@
     </row>
     <row r="143" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -11384,8 +11397,8 @@
       <c r="J143" s="7"/>
       <c r="K143" s="8"/>
       <c r="L143" s="2" t="str">
-        <f>"Str(数値)"</f>
-        <v>Str(数値)</v>
+        <f>"Val(文字列式)"</f>
+        <v>Val(文字列式)</v>
       </c>
       <c r="M143" s="13" t="s">
         <v>171</v>
@@ -11393,7 +11406,7 @@
     </row>
     <row r="144" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="7" t="s">
-        <v>128</v>
+        <v>270</v>
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -11406,8 +11419,8 @@
       <c r="J144" s="7"/>
       <c r="K144" s="8"/>
       <c r="L144" s="2" t="str">
-        <f>"( vbNewLine \| vbCr \| vbLf \| vbCrLf )"</f>
-        <v>( vbNewLine \| vbCr \| vbLf \| vbCrLf )</v>
+        <f>"Str(数値)"</f>
+        <v>Str(数値)</v>
       </c>
       <c r="M144" s="13" t="s">
         <v>171</v>
@@ -11415,7 +11428,7 @@
     </row>
     <row r="145" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -11428,16 +11441,16 @@
       <c r="J145" s="7"/>
       <c r="K145" s="8"/>
       <c r="L145" s="2" t="str">
-        <f>"Fix( 99.224 )"</f>
-        <v>Fix( 99.224 )</v>
-      </c>
-      <c r="M145" s="13">
-        <v>99</v>
+        <f>"( vbNewLine \| vbCr \| vbLf \| vbCrLf )"</f>
+        <v>( vbNewLine \| vbCr \| vbLf \| vbCrLf )</v>
+      </c>
+      <c r="M145" s="13" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -11450,8 +11463,8 @@
       <c r="J146" s="7"/>
       <c r="K146" s="8"/>
       <c r="L146" s="2" t="str">
-        <f>"Int( 99.224 )"</f>
-        <v>Int( 99.224 )</v>
+        <f>"Fix( 99.224 )"</f>
+        <v>Fix( 99.224 )</v>
       </c>
       <c r="M146" s="13">
         <v>99</v>
@@ -11459,7 +11472,7 @@
     </row>
     <row r="147" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -11472,16 +11485,16 @@
       <c r="J147" s="7"/>
       <c r="K147" s="8"/>
       <c r="L147" s="2" t="str">
-        <f>"Fix( -99.224 )"</f>
-        <v>Fix( -99.224 )</v>
-      </c>
-      <c r="M147" s="13" t="s">
-        <v>232</v>
+        <f>"Int( 99.224 )"</f>
+        <v>Int( 99.224 )</v>
+      </c>
+      <c r="M147" s="13">
+        <v>99</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -11494,16 +11507,16 @@
       <c r="J148" s="7"/>
       <c r="K148" s="8"/>
       <c r="L148" s="2" t="str">
-        <f>"Int( -99.224 )"</f>
-        <v>Int( -99.224 )</v>
+        <f>"Fix( -99.224 )"</f>
+        <v>Fix( -99.224 )</v>
       </c>
       <c r="M148" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -11516,16 +11529,16 @@
       <c r="J149" s="7"/>
       <c r="K149" s="8"/>
       <c r="L149" s="2" t="str">
-        <f>"Round( 99.555, 0 )"</f>
-        <v>Round( 99.555, 0 )</v>
-      </c>
-      <c r="M149" s="13">
-        <v>100</v>
+        <f>"Int( -99.224 )"</f>
+        <v>Int( -99.224 )</v>
+      </c>
+      <c r="M149" s="13" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -11538,16 +11551,16 @@
       <c r="J150" s="7"/>
       <c r="K150" s="8"/>
       <c r="L150" s="2" t="str">
-        <f>"Round( 99.555, 1 )"</f>
-        <v>Round( 99.555, 1 )</v>
+        <f>"Round( 99.555, 0 )"</f>
+        <v>Round( 99.555, 0 )</v>
       </c>
       <c r="M150" s="13">
-        <v>99.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -11560,16 +11573,16 @@
       <c r="J151" s="7"/>
       <c r="K151" s="8"/>
       <c r="L151" s="2" t="str">
-        <f>"Round( 99.555, 2 )"</f>
-        <v>Round( 99.555, 2 )</v>
+        <f>"Round( 99.555, 1 )"</f>
+        <v>Round( 99.555, 1 )</v>
       </c>
       <c r="M151" s="13">
-        <v>99.56</v>
+        <v>99.6</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -11582,16 +11595,16 @@
       <c r="J152" s="7"/>
       <c r="K152" s="8"/>
       <c r="L152" s="2" t="str">
-        <f>"Round( -99.555, 0 )"</f>
-        <v>Round( -99.555, 0 )</v>
+        <f>"Round( 99.555, 2 )"</f>
+        <v>Round( 99.555, 2 )</v>
       </c>
       <c r="M152" s="13">
-        <v>-100</v>
+        <v>99.56</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -11604,16 +11617,16 @@
       <c r="J153" s="7"/>
       <c r="K153" s="8"/>
       <c r="L153" s="2" t="str">
-        <f>"Round( -99.555, 1 )"</f>
-        <v>Round( -99.555, 1 )</v>
+        <f>"Round( -99.555, 0 )"</f>
+        <v>Round( -99.555, 0 )</v>
       </c>
       <c r="M153" s="13">
-        <v>-99.6</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -11626,16 +11639,16 @@
       <c r="J154" s="7"/>
       <c r="K154" s="8"/>
       <c r="L154" s="2" t="str">
-        <f>"Round( -99.555, 2 )"</f>
-        <v>Round( -99.555, 2 )</v>
+        <f>"Round( -99.555, 1 )"</f>
+        <v>Round( -99.555, 1 )</v>
       </c>
       <c r="M154" s="13">
-        <v>-99.56</v>
+        <v>-99.6</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -11648,16 +11661,16 @@
       <c r="J155" s="7"/>
       <c r="K155" s="8"/>
       <c r="L155" s="2" t="str">
-        <f>"Round( 99.224 + 0.5, 0 )"</f>
-        <v>Round( 99.224 + 0.5, 0 )</v>
+        <f>"Round( -99.555, 2 )"</f>
+        <v>Round( -99.555, 2 )</v>
       </c>
       <c r="M155" s="13">
-        <v>100</v>
+        <v>-99.56</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -11670,16 +11683,16 @@
       <c r="J156" s="7"/>
       <c r="K156" s="8"/>
       <c r="L156" s="2" t="str">
-        <f>"Round( 99.224 + 0.05, 1 )"</f>
-        <v>Round( 99.224 + 0.05, 1 )</v>
+        <f>"Round( 99.224 + 0.5, 0 )"</f>
+        <v>Round( 99.224 + 0.5, 0 )</v>
       </c>
       <c r="M156" s="13">
-        <v>99.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -11692,16 +11705,16 @@
       <c r="J157" s="7"/>
       <c r="K157" s="8"/>
       <c r="L157" s="2" t="str">
-        <f>"Round( -99.224 - 0.5, 0 )"</f>
-        <v>Round( -99.224 - 0.5, 0 )</v>
+        <f>"Round( 99.224 + 0.05, 1 )"</f>
+        <v>Round( 99.224 + 0.05, 1 )</v>
       </c>
       <c r="M157" s="13">
-        <v>-100</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -11714,16 +11727,16 @@
       <c r="J158" s="7"/>
       <c r="K158" s="8"/>
       <c r="L158" s="2" t="str">
-        <f>"Round( -99.224 - 0.05, 1 )"</f>
-        <v>Round( -99.224 - 0.05, 1 )</v>
+        <f>"Round( -99.224 - 0.5, 0 )"</f>
+        <v>Round( -99.224 - 0.5, 0 )</v>
       </c>
       <c r="M158" s="13">
-        <v>-99.3</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -11736,16 +11749,16 @@
       <c r="J159" s="7"/>
       <c r="K159" s="8"/>
       <c r="L159" s="2" t="str">
-        <f>"Round( 99.224 - 0.5, 0 )"</f>
-        <v>Round( 99.224 - 0.5, 0 )</v>
-      </c>
-      <c r="M159" s="13" t="s">
-        <v>234</v>
+        <f>"Round( -99.224 - 0.05, 1 )"</f>
+        <v>Round( -99.224 - 0.05, 1 )</v>
+      </c>
+      <c r="M159" s="13">
+        <v>-99.3</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -11758,16 +11771,16 @@
       <c r="J160" s="7"/>
       <c r="K160" s="8"/>
       <c r="L160" s="2" t="str">
-        <f>"Round( 99.224 - 0.05, 1 )"</f>
-        <v>Round( 99.224 - 0.05, 1 )</v>
-      </c>
-      <c r="M160" s="13">
-        <v>99.2</v>
+        <f>"Round( 99.224 - 0.5, 0 )"</f>
+        <v>Round( 99.224 - 0.5, 0 )</v>
+      </c>
+      <c r="M160" s="13" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -11780,16 +11793,16 @@
       <c r="J161" s="7"/>
       <c r="K161" s="8"/>
       <c r="L161" s="2" t="str">
-        <f>"Round( -99.224 + 0.5, 0 )"</f>
-        <v>Round( -99.224 + 0.5, 0 )</v>
-      </c>
-      <c r="M161" s="13" t="s">
-        <v>235</v>
+        <f>"Round( 99.224 - 0.05, 1 )"</f>
+        <v>Round( 99.224 - 0.05, 1 )</v>
+      </c>
+      <c r="M161" s="13">
+        <v>99.2</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -11802,55 +11815,55 @@
       <c r="J162" s="7"/>
       <c r="K162" s="8"/>
       <c r="L162" s="2" t="str">
+        <f>"Round( -99.224 + 0.5, 0 )"</f>
+        <v>Round( -99.224 + 0.5, 0 )</v>
+      </c>
+      <c r="M162" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="7"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="8"/>
+      <c r="L163" s="2" t="str">
         <f>"Round( -99.224 + 0.05, 1 )"</f>
         <v>Round( -99.224 + 0.05, 1 )</v>
       </c>
-      <c r="M162" s="13">
+      <c r="M163" s="13">
         <v>-99.2</v>
       </c>
     </row>
-    <row r="163" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="21"/>
-      <c r="B163" s="21"/>
-      <c r="C163" s="21"/>
-      <c r="D163" s="21"/>
-      <c r="E163" s="21"/>
-      <c r="F163" s="21"/>
-      <c r="G163" s="21"/>
-      <c r="H163" s="21"/>
-      <c r="I163" s="21"/>
-      <c r="J163" s="21"/>
-      <c r="K163" s="22"/>
-      <c r="L163" s="23"/>
-      <c r="M163" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B164" s="7"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
-      <c r="I164" s="7"/>
-      <c r="J164" s="7"/>
-      <c r="K164" s="8"/>
-      <c r="L164" s="2" t="str">
-        <f>"Now"</f>
-        <v>Now</v>
-      </c>
-      <c r="M164" s="13" t="s">
-        <v>435</v>
+    <row r="164" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="21"/>
+      <c r="B164" s="21"/>
+      <c r="C164" s="21"/>
+      <c r="D164" s="21"/>
+      <c r="E164" s="21"/>
+      <c r="F164" s="21"/>
+      <c r="G164" s="21"/>
+      <c r="H164" s="21"/>
+      <c r="I164" s="21"/>
+      <c r="J164" s="21"/>
+      <c r="K164" s="22"/>
+      <c r="L164" s="23"/>
+      <c r="M164" s="24" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="165" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -11863,16 +11876,16 @@
       <c r="J165" s="7"/>
       <c r="K165" s="8"/>
       <c r="L165" s="2" t="str">
-        <f>"Date"</f>
-        <v>Date</v>
+        <f>"Now"</f>
+        <v>Now</v>
       </c>
       <c r="M165" s="13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="166" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -11885,16 +11898,16 @@
       <c r="J166" s="7"/>
       <c r="K166" s="8"/>
       <c r="L166" s="2" t="str">
-        <f>"Timer"</f>
-        <v>Timer</v>
+        <f>"Date"</f>
+        <v>Date</v>
       </c>
       <c r="M166" s="13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="167" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -11907,22 +11920,16 @@
       <c r="J167" s="7"/>
       <c r="K167" s="8"/>
       <c r="L167" s="2" t="str">
-        <f>"If DateDiff(""s"", sCmpBaseTime, sModDate ) &gt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate が新しい"&amp;CHAR(10)&amp;"ElseIf DateDiff(""s"", sCmpBaseTime, sModDate ) &lt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate が古い"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate = sCmpBaseTime"&amp;CHAR(10)&amp;"End If"</f>
-        <v>If DateDiff("s", sCmpBaseTime, sModDate ) &gt; 0 Then
-	sModDate が新しい
-ElseIf DateDiff("s", sCmpBaseTime, sModDate ) &lt; 0 Then
-	sModDate が古い
-Else
-	sModDate = sCmpBaseTime
-End If</v>
+        <f>"Timer"</f>
+        <v>Timer</v>
       </c>
       <c r="M167" s="13" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -11935,58 +11942,62 @@
       <c r="J168" s="7"/>
       <c r="K168" s="8"/>
       <c r="L168" s="2" t="str">
+        <f>"If DateDiff(""s"", sCmpBaseTime, sModDate ) &gt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate が新しい"&amp;CHAR(10)&amp;"ElseIf DateDiff(""s"", sCmpBaseTime, sModDate ) &lt; 0 Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate が古い"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"sModDate = sCmpBaseTime"&amp;CHAR(10)&amp;"End If"</f>
+        <v>If DateDiff("s", sCmpBaseTime, sModDate ) &gt; 0 Then
+	sModDate が新しい
+ElseIf DateDiff("s", sCmpBaseTime, sModDate ) &lt; 0 Then
+	sModDate が古い
+Else
+	sModDate = sCmpBaseTime
+End If</v>
+      </c>
+      <c r="M168" s="13" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="7"/>
+      <c r="J169" s="7"/>
+      <c r="K169" s="8"/>
+      <c r="L169" s="2" t="str">
         <f>"Public Declare Sub Sleep Lib ""kernel32"" (ByVal dwMilliseconds As Long)"&amp;CHAR(10)&amp;"Sleep 1000"</f>
         <v>Public Declare Sub Sleep Lib "kernel32" (ByVal dwMilliseconds As Long)
 Sleep 1000</v>
       </c>
-      <c r="M168" s="13" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="21"/>
-      <c r="B169" s="21"/>
-      <c r="C169" s="21"/>
-      <c r="D169" s="21"/>
-      <c r="E169" s="21"/>
-      <c r="F169" s="21"/>
-      <c r="G169" s="21"/>
-      <c r="H169" s="21"/>
-      <c r="I169" s="21"/>
-      <c r="J169" s="21"/>
-      <c r="K169" s="22"/>
-      <c r="L169" s="23"/>
-      <c r="M169" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B170" s="7"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7"/>
-      <c r="I170" s="7"/>
-      <c r="J170" s="7"/>
-      <c r="K170" s="8"/>
-      <c r="L170" s="2" t="str">
-        <f>"Dim wTrgtBook As Workbook"&amp;CHAR(10)&amp;"Application.SheetsInNewWorkbook = 1"&amp;CHAR(10)&amp;"Set wTrgtBook = Workbooks.Add"</f>
-        <v>Dim wTrgtBook As Workbook
-Application.SheetsInNewWorkbook = 1
-Set wTrgtBook = Workbooks.Add</v>
-      </c>
-      <c r="M170" s="13" t="s">
-        <v>440</v>
+      <c r="M169" s="13" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="21"/>
+      <c r="B170" s="21"/>
+      <c r="C170" s="21"/>
+      <c r="D170" s="21"/>
+      <c r="E170" s="21"/>
+      <c r="F170" s="21"/>
+      <c r="G170" s="21"/>
+      <c r="H170" s="21"/>
+      <c r="I170" s="21"/>
+      <c r="J170" s="21"/>
+      <c r="K170" s="22"/>
+      <c r="L170" s="23"/>
+      <c r="M170" s="24" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="171" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -11999,20 +12010,18 @@
       <c r="J171" s="7"/>
       <c r="K171" s="8"/>
       <c r="L171" s="2" t="str">
-        <f>"If wCsvBook.Name &lt;&gt; Dir(""C:\Book1.xlsx"") Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"処理"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"エラー"&amp;CHAR(10)&amp;"End If"</f>
-        <v>If wCsvBook.Name &lt;&gt; Dir("C:\Book1.xlsx") Then
-	処理
-Else
-	エラー
-End If</v>
+        <f>"Dim wTrgtBook As Workbook"&amp;CHAR(10)&amp;"Application.SheetsInNewWorkbook = 1"&amp;CHAR(10)&amp;"Set wTrgtBook = Workbooks.Add"</f>
+        <v>Dim wTrgtBook As Workbook
+Application.SheetsInNewWorkbook = 1
+Set wTrgtBook = Workbooks.Add</v>
       </c>
       <c r="M171" s="13" t="s">
-        <v>171</v>
+        <v>439</v>
       </c>
     </row>
     <row r="172" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -12025,9 +12034,12 @@
       <c r="J172" s="7"/>
       <c r="K172" s="8"/>
       <c r="L172" s="2" t="str">
-        <f>"Dim bAddBook As Workbook"&amp;CHAR(10)&amp;"Set bAddBook = Workbooks.Add"</f>
-        <v>Dim bAddBook As Workbook
-Set bAddBook = Workbooks.Add</v>
+        <f>"If wCsvBook.Name &lt;&gt; Dir(""C:\Book1.xlsx"") Then"&amp;CHAR(10)&amp;CHAR(9)&amp;"処理"&amp;CHAR(10)&amp;"Else"&amp;CHAR(10)&amp;CHAR(9)&amp;"エラー"&amp;CHAR(10)&amp;"End If"</f>
+        <v>If wCsvBook.Name &lt;&gt; Dir("C:\Book1.xlsx") Then
+	処理
+Else
+	エラー
+End If</v>
       </c>
       <c r="M172" s="13" t="s">
         <v>171</v>
@@ -12035,7 +12047,7 @@
     </row>
     <row r="173" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -12048,8 +12060,9 @@
       <c r="J173" s="7"/>
       <c r="K173" s="8"/>
       <c r="L173" s="2" t="str">
-        <f>"ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook"</f>
-        <v>ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook</v>
+        <f>"Dim bAddBook As Workbook"&amp;CHAR(10)&amp;"Set bAddBook = Workbooks.Add"</f>
+        <v>Dim bAddBook As Workbook
+Set bAddBook = Workbooks.Add</v>
       </c>
       <c r="M173" s="13" t="s">
         <v>171</v>
@@ -12057,7 +12070,7 @@
     </row>
     <row r="174" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -12070,8 +12083,8 @@
       <c r="J174" s="7"/>
       <c r="K174" s="8"/>
       <c r="L174" s="2" t="str">
-        <f>"wTrgtBook.SaveAs Filename:=sFilePath"</f>
-        <v>wTrgtBook.SaveAs Filename:=sFilePath</v>
+        <f>"ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook"</f>
+        <v>ThisWorkbook.Sheets(シート名).Copy: Set wTrgtBook = ActiveWorkbook</v>
       </c>
       <c r="M174" s="13" t="s">
         <v>171</v>
@@ -12079,7 +12092,7 @@
     </row>
     <row r="175" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -12092,8 +12105,8 @@
       <c r="J175" s="7"/>
       <c r="K175" s="8"/>
       <c r="L175" s="2" t="str">
-        <f>".Sheets.Count"</f>
-        <v>.Sheets.Count</v>
+        <f>"wTrgtBook.SaveAs Filename:=sFilePath"</f>
+        <v>wTrgtBook.SaveAs Filename:=sFilePath</v>
       </c>
       <c r="M175" s="13" t="s">
         <v>171</v>
@@ -12101,7 +12114,7 @@
     </row>
     <row r="176" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -12114,9 +12127,8 @@
       <c r="J176" s="7"/>
       <c r="K176" s="8"/>
       <c r="L176" s="2" t="str">
-        <f>"Dim shAddSht As Worksheet"&amp;CHAR(10)&amp;"Set shAddSht = ThisWorkbook.Sheets.Add"</f>
-        <v>Dim shAddSht As Worksheet
-Set shAddSht = ThisWorkbook.Sheets.Add</v>
+        <f>".Sheets.Count"</f>
+        <v>.Sheets.Count</v>
       </c>
       <c r="M176" s="13" t="s">
         <v>171</v>
@@ -12124,7 +12136,7 @@
     </row>
     <row r="177" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -12137,8 +12149,9 @@
       <c r="J177" s="7"/>
       <c r="K177" s="8"/>
       <c r="L177" s="2" t="str">
-        <f>"ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )"</f>
-        <v>ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )</v>
+        <f>"Dim shAddSht As Worksheet"&amp;CHAR(10)&amp;"Set shAddSht = ThisWorkbook.Sheets.Add"</f>
+        <v>Dim shAddSht As Worksheet
+Set shAddSht = ThisWorkbook.Sheets.Add</v>
       </c>
       <c r="M177" s="13" t="s">
         <v>171</v>
@@ -12146,7 +12159,7 @@
     </row>
     <row r="178" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -12159,10 +12172,8 @@
       <c r="J178" s="7"/>
       <c r="K178" s="8"/>
       <c r="L178" s="2" t="str">
-        <f>"Application.DisplayAlerts = False"&amp;CHAR(10)&amp;".Sheets(シート名).Delete"&amp;CHAR(10)&amp;"Application.DisplayAlerts = True"</f>
-        <v>Application.DisplayAlerts = False
-.Sheets(シート名).Delete
-Application.DisplayAlerts = True</v>
+        <f>"ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )"</f>
+        <v>ThisWorkbook.Sheets(シート名).Move After:=ThisWorkbook.Sheets( ThisWorkbook.Sheets.Count )</v>
       </c>
       <c r="M178" s="13" t="s">
         <v>171</v>
@@ -12170,7 +12181,7 @@
     </row>
     <row r="179" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -12183,8 +12194,10 @@
       <c r="J179" s="7"/>
       <c r="K179" s="8"/>
       <c r="L179" s="2" t="str">
-        <f>".Sheets(シート名).Visible = (True\|False)"</f>
-        <v>.Sheets(シート名).Visible = (True\|False)</v>
+        <f>"Application.DisplayAlerts = False"&amp;CHAR(10)&amp;".Sheets(シート名).Delete"&amp;CHAR(10)&amp;"Application.DisplayAlerts = True"</f>
+        <v>Application.DisplayAlerts = False
+.Sheets(シート名).Delete
+Application.DisplayAlerts = True</v>
       </c>
       <c r="M179" s="13" t="s">
         <v>171</v>
@@ -12192,7 +12205,7 @@
     </row>
     <row r="180" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -12205,8 +12218,8 @@
       <c r="J180" s="7"/>
       <c r="K180" s="8"/>
       <c r="L180" s="2" t="str">
-        <f>".Sheets(シート名).Move Before:=Sheets(1)"</f>
-        <v>.Sheets(シート名).Move Before:=Sheets(1)</v>
+        <f>".Sheets(シート名).Visible = (True\|False)"</f>
+        <v>.Sheets(シート名).Visible = (True\|False)</v>
       </c>
       <c r="M180" s="13" t="s">
         <v>171</v>
@@ -12214,7 +12227,7 @@
     </row>
     <row r="181" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -12227,8 +12240,8 @@
       <c r="J181" s="7"/>
       <c r="K181" s="8"/>
       <c r="L181" s="2" t="str">
-        <f>"Application.ScreenUpdating = True"</f>
-        <v>Application.ScreenUpdating = True</v>
+        <f>".Sheets(シート名).Move Before:=Sheets(1)"</f>
+        <v>.Sheets(シート名).Move Before:=Sheets(1)</v>
       </c>
       <c r="M181" s="13" t="s">
         <v>171</v>
@@ -12236,7 +12249,7 @@
     </row>
     <row r="182" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -12249,8 +12262,8 @@
       <c r="J182" s="7"/>
       <c r="K182" s="8"/>
       <c r="L182" s="2" t="str">
-        <f>"Application.ScreenUpdating = False"</f>
-        <v>Application.ScreenUpdating = False</v>
+        <f>"Application.ScreenUpdating = True"</f>
+        <v>Application.ScreenUpdating = True</v>
       </c>
       <c r="M182" s="13" t="s">
         <v>171</v>
@@ -12258,7 +12271,7 @@
     </row>
     <row r="183" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -12271,8 +12284,8 @@
       <c r="J183" s="7"/>
       <c r="K183" s="8"/>
       <c r="L183" s="2" t="str">
-        <f>"Application.Calculation = xlCalculationAutomatic"</f>
-        <v>Application.Calculation = xlCalculationAutomatic</v>
+        <f>"Application.ScreenUpdating = False"</f>
+        <v>Application.ScreenUpdating = False</v>
       </c>
       <c r="M183" s="13" t="s">
         <v>171</v>
@@ -12280,7 +12293,7 @@
     </row>
     <row r="184" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -12293,8 +12306,8 @@
       <c r="J184" s="7"/>
       <c r="K184" s="8"/>
       <c r="L184" s="2" t="str">
-        <f>"Application.Calculation = xlCalculationManual"</f>
-        <v>Application.Calculation = xlCalculationManual</v>
+        <f>"Application.Calculation = xlCalculationAutomatic"</f>
+        <v>Application.Calculation = xlCalculationAutomatic</v>
       </c>
       <c r="M184" s="13" t="s">
         <v>171</v>
@@ -12302,7 +12315,7 @@
     </row>
     <row r="185" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -12315,8 +12328,8 @@
       <c r="J185" s="7"/>
       <c r="K185" s="8"/>
       <c r="L185" s="2" t="str">
-        <f>"Application.Calculate"</f>
-        <v>Application.Calculate</v>
+        <f>"Application.Calculation = xlCalculationManual"</f>
+        <v>Application.Calculation = xlCalculationManual</v>
       </c>
       <c r="M185" s="13" t="s">
         <v>171</v>
@@ -12324,7 +12337,7 @@
     </row>
     <row r="186" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -12337,8 +12350,8 @@
       <c r="J186" s="7"/>
       <c r="K186" s="8"/>
       <c r="L186" s="2" t="str">
-        <f>"Application.CalculateFull"</f>
-        <v>Application.CalculateFull</v>
+        <f>"Application.Calculate"</f>
+        <v>Application.Calculate</v>
       </c>
       <c r="M186" s="13" t="s">
         <v>171</v>
@@ -12346,7 +12359,7 @@
     </row>
     <row r="187" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="7" t="s">
-        <v>391</v>
+        <v>287</v>
       </c>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -12359,8 +12372,8 @@
       <c r="J187" s="7"/>
       <c r="K187" s="8"/>
       <c r="L187" s="2" t="str">
-        <f>"Application.DisplayAlerts = False"</f>
-        <v>Application.DisplayAlerts = False</v>
+        <f>"Application.CalculateFull"</f>
+        <v>Application.CalculateFull</v>
       </c>
       <c r="M187" s="13" t="s">
         <v>171</v>
@@ -12381,8 +12394,8 @@
       <c r="J188" s="7"/>
       <c r="K188" s="8"/>
       <c r="L188" s="2" t="str">
-        <f>"Application.DisplayAlerts = True"</f>
-        <v>Application.DisplayAlerts = True</v>
+        <f>"Application.DisplayAlerts = False"</f>
+        <v>Application.DisplayAlerts = False</v>
       </c>
       <c r="M188" s="13" t="s">
         <v>171</v>
@@ -12390,7 +12403,7 @@
     </row>
     <row r="189" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="7" t="s">
-        <v>288</v>
+        <v>389</v>
       </c>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -12403,8 +12416,8 @@
       <c r="J189" s="7"/>
       <c r="K189" s="8"/>
       <c r="L189" s="2" t="str">
-        <f>".Rows(2).Select"</f>
-        <v>.Rows(2).Select</v>
+        <f>"Application.DisplayAlerts = True"</f>
+        <v>Application.DisplayAlerts = True</v>
       </c>
       <c r="M189" s="13" t="s">
         <v>171</v>
@@ -12412,7 +12425,7 @@
     </row>
     <row r="190" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -12425,8 +12438,8 @@
       <c r="J190" s="7"/>
       <c r="K190" s="8"/>
       <c r="L190" s="2" t="str">
-        <f>".Columns(2).Select"</f>
-        <v>.Columns(2).Select</v>
+        <f>".Rows(2).Select"</f>
+        <v>.Rows(2).Select</v>
       </c>
       <c r="M190" s="13" t="s">
         <v>171</v>
@@ -12434,7 +12447,7 @@
     </row>
     <row r="191" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -12447,8 +12460,8 @@
       <c r="J191" s="7"/>
       <c r="K191" s="8"/>
       <c r="L191" s="2" t="str">
-        <f>".Cells(1,1).Select"</f>
-        <v>.Cells(1,1).Select</v>
+        <f>".Columns(2).Select"</f>
+        <v>.Columns(2).Select</v>
       </c>
       <c r="M191" s="13" t="s">
         <v>171</v>
@@ -12456,7 +12469,7 @@
     </row>
     <row r="192" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -12469,8 +12482,8 @@
       <c r="J192" s="7"/>
       <c r="K192" s="8"/>
       <c r="L192" s="2" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
+        <f>".Cells(1,1).Select"</f>
+        <v>.Cells(1,1).Select</v>
       </c>
       <c r="M192" s="13" t="s">
         <v>171</v>
@@ -12478,7 +12491,7 @@
     </row>
     <row r="193" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -12491,8 +12504,8 @@
       <c r="J193" s="7"/>
       <c r="K193" s="8"/>
       <c r="L193" s="2" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).Select</v>
       </c>
       <c r="M193" s="13" t="s">
         <v>171</v>
@@ -12513,8 +12526,8 @@
       <c r="J194" s="7"/>
       <c r="K194" s="8"/>
       <c r="L194" s="2" t="str">
-        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
-        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Row"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Row</v>
       </c>
       <c r="M194" s="13" t="s">
         <v>171</v>
@@ -12522,7 +12535,7 @@
     </row>
     <row r="195" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -12535,16 +12548,16 @@
       <c r="J195" s="7"/>
       <c r="K195" s="8"/>
       <c r="L195" s="2" t="str">
-        <f>".Cells(X, Y).Value"</f>
-        <v>.Cells(X, Y).Value</v>
+        <f>".Cells.Find(""りんご"", LookAt:=xlWhole).Column"</f>
+        <v>.Cells.Find("りんご", LookAt:=xlWhole).Column</v>
       </c>
       <c r="M195" s="13" t="s">
-        <v>441</v>
+        <v>171</v>
       </c>
     </row>
     <row r="196" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -12557,16 +12570,16 @@
       <c r="J196" s="7"/>
       <c r="K196" s="8"/>
       <c r="L196" s="2" t="str">
-        <f>".Cells(1, 1).Top"</f>
-        <v>.Cells(1, 1).Top</v>
+        <f>".Cells(X, Y).Value"</f>
+        <v>.Cells(X, Y).Value</v>
       </c>
       <c r="M196" s="13" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="197" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -12579,16 +12592,16 @@
       <c r="J197" s="7"/>
       <c r="K197" s="8"/>
       <c r="L197" s="2" t="str">
-        <f>".Cells(1, 1).Left"</f>
-        <v>.Cells(1, 1).Left</v>
+        <f>".Cells(1, 1).Top"</f>
+        <v>.Cells(1, 1).Top</v>
       </c>
       <c r="M197" s="13" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="198" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -12601,16 +12614,16 @@
       <c r="J198" s="7"/>
       <c r="K198" s="8"/>
       <c r="L198" s="2" t="str">
-        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
-        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
+        <f>".Cells(1, 1).Left"</f>
+        <v>.Cells(1, 1).Left</v>
       </c>
       <c r="M198" s="13" t="s">
-        <v>171</v>
+        <v>442</v>
       </c>
     </row>
     <row r="199" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -12623,9 +12636,8 @@
       <c r="J199" s="7"/>
       <c r="K199" s="8"/>
       <c r="L199" s="2" t="str">
-        <f>"Application.CutCopyMode = False"&amp;CHAR(10)&amp;".Range(""2:4"").Insert"</f>
-        <v>Application.CutCopyMode = False
-.Range("2:4").Insert</v>
+        <f>".Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp"</f>
+        <v>.Cells(1, 1).EntireRow.Delete Shift:=xlShiftUp</v>
       </c>
       <c r="M199" s="13" t="s">
         <v>171</v>
@@ -12633,7 +12645,7 @@
     </row>
     <row r="200" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -12646,8 +12658,9 @@
       <c r="J200" s="7"/>
       <c r="K200" s="8"/>
       <c r="L200" s="2" t="str">
-        <f>".Cells(行, 列).Font.Strikethrough"</f>
-        <v>.Cells(行, 列).Font.Strikethrough</v>
+        <f>"Application.CutCopyMode = False"&amp;CHAR(10)&amp;".Range(""2:4"").Insert"</f>
+        <v>Application.CutCopyMode = False
+.Range("2:4").Insert</v>
       </c>
       <c r="M200" s="13" t="s">
         <v>171</v>
@@ -12655,7 +12668,7 @@
     </row>
     <row r="201" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -12668,9 +12681,8 @@
       <c r="J201" s="7"/>
       <c r="K201" s="8"/>
       <c r="L201" s="2" t="str">
-        <f>"wTrgtBook.Sheets(シート名).Activate"&amp;CHAR(10)&amp;"ActiveWindow.DisplayGridlines = False"</f>
-        <v>wTrgtBook.Sheets(シート名).Activate
-ActiveWindow.DisplayGridlines = False</v>
+        <f>".Cells(行, 列).Font.Strikethrough"</f>
+        <v>.Cells(行, 列).Font.Strikethrough</v>
       </c>
       <c r="M201" s="13" t="s">
         <v>171</v>
@@ -12678,7 +12690,7 @@
     </row>
     <row r="202" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -12691,8 +12703,9 @@
       <c r="J202" s="7"/>
       <c r="K202" s="8"/>
       <c r="L202" s="2" t="str">
-        <f>".Range(""A1"").EntireRow.Hidden"</f>
-        <v>.Range("A1").EntireRow.Hidden</v>
+        <f>"wTrgtBook.Sheets(シート名).Activate"&amp;CHAR(10)&amp;"ActiveWindow.DisplayGridlines = False"</f>
+        <v>wTrgtBook.Sheets(シート名).Activate
+ActiveWindow.DisplayGridlines = False</v>
       </c>
       <c r="M202" s="13" t="s">
         <v>171</v>
@@ -12700,7 +12713,7 @@
     </row>
     <row r="203" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -12713,8 +12726,8 @@
       <c r="J203" s="7"/>
       <c r="K203" s="8"/>
       <c r="L203" s="2" t="str">
-        <f>".Range(""A1"").EntireColumn.Hidden"</f>
-        <v>.Range("A1").EntireColumn.Hidden</v>
+        <f>".Range(""A1"").EntireRow.Hidden"</f>
+        <v>.Range("A1").EntireRow.Hidden</v>
       </c>
       <c r="M203" s="13" t="s">
         <v>171</v>
@@ -12722,7 +12735,7 @@
     </row>
     <row r="204" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="7" t="s">
-        <v>484</v>
+        <v>301</v>
       </c>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -12735,6 +12748,28 @@
       <c r="J204" s="7"/>
       <c r="K204" s="8"/>
       <c r="L204" s="2" t="str">
+        <f>".Range(""A1"").EntireColumn.Hidden"</f>
+        <v>.Range("A1").EntireColumn.Hidden</v>
+      </c>
+      <c r="M204" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B205" s="7"/>
+      <c r="C205" s="7"/>
+      <c r="D205" s="7"/>
+      <c r="E205" s="7"/>
+      <c r="F205" s="7"/>
+      <c r="G205" s="7"/>
+      <c r="H205" s="7"/>
+      <c r="I205" s="7"/>
+      <c r="J205" s="7"/>
+      <c r="K205" s="8"/>
+      <c r="L205" s="2" t="str">
         <f>"If .Cells(1, 1).EntireRow.Hidden Or .Cells(1, 1).EntireColumn.Hidden Then
     '非表示セル
 Else
@@ -12748,35 +12783,13 @@
 End If
 </v>
       </c>
-      <c r="M204" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B205" s="7"/>
-      <c r="C205" s="7"/>
-      <c r="D205" s="7"/>
-      <c r="E205" s="7"/>
-      <c r="F205" s="7"/>
-      <c r="G205" s="7"/>
-      <c r="H205" s="7"/>
-      <c r="I205" s="7"/>
-      <c r="J205" s="7"/>
-      <c r="K205" s="8"/>
-      <c r="L205" s="2" t="str">
-        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
-        <v>文字列変数 = .Range("A1").Font.Name</v>
-      </c>
       <c r="M205" s="13" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="206" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -12789,8 +12802,8 @@
       <c r="J206" s="7"/>
       <c r="K206" s="8"/>
       <c r="L206" s="2" t="str">
-        <f>".Range(""A1"").Font.Size = 14"</f>
-        <v>.Range("A1").Font.Size = 14</v>
+        <f>"文字列変数 = .Range(""A1"").Font.Name"</f>
+        <v>文字列変数 = .Range("A1").Font.Name</v>
       </c>
       <c r="M206" s="13" t="s">
         <v>171</v>
@@ -12798,7 +12811,7 @@
     </row>
     <row r="207" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -12811,8 +12824,8 @@
       <c r="J207" s="7"/>
       <c r="K207" s="8"/>
       <c r="L207" s="2" t="str">
-        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
-        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
+        <f>".Range(""A1"").Font.Size = 14"</f>
+        <v>.Range("A1").Font.Size = 14</v>
       </c>
       <c r="M207" s="13" t="s">
         <v>171</v>
@@ -12820,7 +12833,7 @@
     </row>
     <row r="208" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -12833,8 +12846,8 @@
       <c r="J208" s="7"/>
       <c r="K208" s="8"/>
       <c r="L208" s="2" t="str">
-        <f>".Range(""A1"").Font.Bold = True"</f>
-        <v>.Range("A1").Font.Bold = True</v>
+        <f>".Range(""A1"").Font.Color = RGB(0, 255, 0)"</f>
+        <v>.Range("A1").Font.Color = RGB(0, 255, 0)</v>
       </c>
       <c r="M208" s="13" t="s">
         <v>171</v>
@@ -12842,7 +12855,7 @@
     </row>
     <row r="209" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -12855,8 +12868,8 @@
       <c r="J209" s="7"/>
       <c r="K209" s="8"/>
       <c r="L209" s="2" t="str">
-        <f>".Range(""A1"").Font.Underline = True"</f>
-        <v>.Range("A1").Font.Underline = True</v>
+        <f>".Range(""A1"").Font.Bold = True"</f>
+        <v>.Range("A1").Font.Bold = True</v>
       </c>
       <c r="M209" s="13" t="s">
         <v>171</v>
@@ -12864,7 +12877,7 @@
     </row>
     <row r="210" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -12877,8 +12890,8 @@
       <c r="J210" s="7"/>
       <c r="K210" s="8"/>
       <c r="L210" s="2" t="str">
-        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
-        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
+        <f>".Range(""A1"").Font.Underline = True"</f>
+        <v>.Range("A1").Font.Underline = True</v>
       </c>
       <c r="M210" s="13" t="s">
         <v>171</v>
@@ -12886,7 +12899,7 @@
     </row>
     <row r="211" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -12899,8 +12912,8 @@
       <c r="J211" s="7"/>
       <c r="K211" s="8"/>
       <c r="L211" s="2" t="str">
-        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
-        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
+        <f>".Range(""A1"").Interior.Color = RGB(255, 255, 0)"</f>
+        <v>.Range("A1").Interior.Color = RGB(255, 255, 0)</v>
       </c>
       <c r="M211" s="13" t="s">
         <v>171</v>
@@ -12908,7 +12921,7 @@
     </row>
     <row r="212" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
@@ -12921,8 +12934,8 @@
       <c r="J212" s="7"/>
       <c r="K212" s="8"/>
       <c r="L212" s="2" t="str">
-        <f>".Range(""A1:C3"").MergeCells = True"</f>
-        <v>.Range("A1:C3").MergeCells = True</v>
+        <f>".Range(""A1:C3"").Borders.LineStyle = xlContinuous"</f>
+        <v>.Range("A1:C3").Borders.LineStyle = xlContinuous</v>
       </c>
       <c r="M212" s="13" t="s">
         <v>171</v>
@@ -12930,7 +12943,7 @@
     </row>
     <row r="213" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
@@ -12943,16 +12956,16 @@
       <c r="J213" s="7"/>
       <c r="K213" s="8"/>
       <c r="L213" s="2" t="str">
-        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
-        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
+        <f>".Range(""A1:C3"").MergeCells = True"</f>
+        <v>.Range("A1:C3").MergeCells = True</v>
       </c>
       <c r="M213" s="13" t="s">
-        <v>392</v>
+        <v>171</v>
       </c>
     </row>
     <row r="214" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -12965,16 +12978,16 @@
       <c r="J214" s="7"/>
       <c r="K214" s="8"/>
       <c r="L214" s="2" t="str">
-        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
-        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
+        <f>".Range(""A1:C3"").HorizontalAlignment = xlGeneral"</f>
+        <v>.Range("A1:C3").HorizontalAlignment = xlGeneral</v>
       </c>
       <c r="M214" s="13" t="s">
-        <v>312</v>
+        <v>391</v>
       </c>
     </row>
     <row r="215" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -12987,16 +13000,16 @@
       <c r="J215" s="7"/>
       <c r="K215" s="8"/>
       <c r="L215" s="2" t="str">
-        <f>"数値変数 = .Cells(.Rows.Count, 列).End(xlUp).Row"</f>
-        <v>数値変数 = .Cells(.Rows.Count, 列).End(xlUp).Row</v>
+        <f>".Range(""A1:C3"").VerticalAlignment = xlCenter"</f>
+        <v>.Range("A1:C3").VerticalAlignment = xlCenter</v>
       </c>
       <c r="M215" s="13" t="s">
-        <v>171</v>
+        <v>312</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -13009,8 +13022,8 @@
       <c r="J216" s="7"/>
       <c r="K216" s="8"/>
       <c r="L216" s="2" t="str">
-        <f>"数値変数 = .Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
-        <v>数値変数 = .Cells(行, .Columns.Count).End(xlToLeft).Column</v>
+        <f>"数値変数 = .Cells(.Rows.Count, 列).End(xlUp).Row"</f>
+        <v>数値変数 = .Cells(.Rows.Count, 列).End(xlUp).Row</v>
       </c>
       <c r="M216" s="13" t="s">
         <v>171</v>
@@ -13018,7 +13031,7 @@
     </row>
     <row r="217" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
@@ -13031,8 +13044,8 @@
       <c r="J217" s="7"/>
       <c r="K217" s="8"/>
       <c r="L217" s="2" t="str">
-        <f>"数値変数 = .Sheets(シート名).UsedRange.Rows.Count + 1"</f>
-        <v>数値変数 = .Sheets(シート名).UsedRange.Rows.Count + 1</v>
+        <f>"数値変数 = .Cells(行, .Columns.Count).End(xlToLeft).Column"</f>
+        <v>数値変数 = .Cells(行, .Columns.Count).End(xlToLeft).Column</v>
       </c>
       <c r="M217" s="13" t="s">
         <v>171</v>
@@ -13040,7 +13053,7 @@
     </row>
     <row r="218" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
@@ -13053,8 +13066,8 @@
       <c r="J218" s="7"/>
       <c r="K218" s="8"/>
       <c r="L218" s="2" t="str">
-        <f>"数値変数 = .Sheets(シート名).UsedRange.Columns.Count + 1"</f>
-        <v>数値変数 = .Sheets(シート名).UsedRange.Columns.Count + 1</v>
+        <f>"数値変数 = .Sheets(シート名).UsedRange.Rows.Count + 1"</f>
+        <v>数値変数 = .Sheets(シート名).UsedRange.Rows.Count + 1</v>
       </c>
       <c r="M218" s="13" t="s">
         <v>171</v>
@@ -13062,7 +13075,7 @@
     </row>
     <row r="219" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -13075,8 +13088,8 @@
       <c r="J219" s="7"/>
       <c r="K219" s="8"/>
       <c r="L219" s="2" t="str">
-        <f>"Selection(1).Row"</f>
-        <v>Selection(1).Row</v>
+        <f>"数値変数 = .Sheets(シート名).UsedRange.Columns.Count + 1"</f>
+        <v>数値変数 = .Sheets(シート名).UsedRange.Columns.Count + 1</v>
       </c>
       <c r="M219" s="13" t="s">
         <v>171</v>
@@ -13084,7 +13097,7 @@
     </row>
     <row r="220" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -13097,8 +13110,8 @@
       <c r="J220" s="7"/>
       <c r="K220" s="8"/>
       <c r="L220" s="2" t="str">
-        <f>"Selection(Selection.Count).Row"</f>
-        <v>Selection(Selection.Count).Row</v>
+        <f>"Selection(1).Row"</f>
+        <v>Selection(1).Row</v>
       </c>
       <c r="M220" s="13" t="s">
         <v>171</v>
@@ -13106,7 +13119,7 @@
     </row>
     <row r="221" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -13119,8 +13132,8 @@
       <c r="J221" s="7"/>
       <c r="K221" s="8"/>
       <c r="L221" s="2" t="str">
-        <f>"Selection(1).Column"</f>
-        <v>Selection(1).Column</v>
+        <f>"Selection(Selection.Count).Row"</f>
+        <v>Selection(Selection.Count).Row</v>
       </c>
       <c r="M221" s="13" t="s">
         <v>171</v>
@@ -13128,7 +13141,7 @@
     </row>
     <row r="222" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
@@ -13141,8 +13154,8 @@
       <c r="J222" s="7"/>
       <c r="K222" s="8"/>
       <c r="L222" s="2" t="str">
-        <f>"Selection(Selection.Count).Column"</f>
-        <v>Selection(Selection.Count).Column</v>
+        <f>"Selection(1).Column"</f>
+        <v>Selection(1).Column</v>
       </c>
       <c r="M222" s="13" t="s">
         <v>171</v>
@@ -13150,7 +13163,7 @@
     </row>
     <row r="223" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
@@ -13163,8 +13176,8 @@
       <c r="J223" s="7"/>
       <c r="K223" s="8"/>
       <c r="L223" s="2" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
-        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
+        <f>"Selection(Selection.Count).Column"</f>
+        <v>Selection(Selection.Count).Column</v>
       </c>
       <c r="M223" s="13" t="s">
         <v>171</v>
@@ -13172,7 +13185,7 @@
     </row>
     <row r="224" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -13185,8 +13198,8 @@
       <c r="J224" s="7"/>
       <c r="K224" s="8"/>
       <c r="L224" s="2" t="str">
-        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
-        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
+        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
+        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
       </c>
       <c r="M224" s="13" t="s">
         <v>171</v>
@@ -13194,7 +13207,7 @@
     </row>
     <row r="225" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -13207,8 +13220,8 @@
       <c r="J225" s="7"/>
       <c r="K225" s="8"/>
       <c r="L225" s="2" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
-        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
+        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
+        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
       </c>
       <c r="M225" s="13" t="s">
         <v>171</v>
@@ -13216,7 +13229,7 @@
     </row>
     <row r="226" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
@@ -13229,8 +13242,8 @@
       <c r="J226" s="7"/>
       <c r="K226" s="8"/>
       <c r="L226" s="2" t="str">
-        <f>".Range(""A1:A2"").ClearContents"</f>
-        <v>.Range("A1:A2").ClearContents</v>
+        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
+        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
       </c>
       <c r="M226" s="13" t="s">
         <v>171</v>
@@ -13238,7 +13251,7 @@
     </row>
     <row r="227" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
@@ -13251,8 +13264,8 @@
       <c r="J227" s="7"/>
       <c r="K227" s="8"/>
       <c r="L227" s="2" t="str">
-        <f>".Range(""A1:A2"").ClearFormats"</f>
-        <v>.Range("A1:A2").ClearFormats</v>
+        <f>".Range(""A1:A2"").ClearContents"</f>
+        <v>.Range("A1:A2").ClearContents</v>
       </c>
       <c r="M227" s="13" t="s">
         <v>171</v>
@@ -13260,7 +13273,7 @@
     </row>
     <row r="228" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
@@ -13273,16 +13286,16 @@
       <c r="J228" s="7"/>
       <c r="K228" s="8"/>
       <c r="L228" s="2" t="str">
-        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
-        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
+        <f>".Range(""A1:A2"").ClearFormats"</f>
+        <v>.Range("A1:A2").ClearFormats</v>
       </c>
       <c r="M228" s="13" t="s">
-        <v>312</v>
+        <v>171</v>
       </c>
     </row>
     <row r="229" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -13295,16 +13308,16 @@
       <c r="J229" s="7"/>
       <c r="K229" s="8"/>
       <c r="L229" s="2" t="str">
-        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
-        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
+        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
+        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
       </c>
       <c r="M229" s="13" t="s">
-        <v>171</v>
+        <v>312</v>
       </c>
     </row>
     <row r="230" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -13317,16 +13330,16 @@
       <c r="J230" s="7"/>
       <c r="K230" s="8"/>
       <c r="L230" s="2" t="str">
-        <f>".Range(""A1"").ColumnWidth = 5"</f>
-        <v>.Range("A1").ColumnWidth = 5</v>
+        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
+        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
       </c>
       <c r="M230" s="13" t="s">
-        <v>444</v>
+        <v>171</v>
       </c>
     </row>
     <row r="231" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -13339,16 +13352,16 @@
       <c r="J231" s="7"/>
       <c r="K231" s="8"/>
       <c r="L231" s="2" t="str">
-        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
-        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
+        <f>".Range(""A1"").ColumnWidth = 5"</f>
+        <v>.Range("A1").ColumnWidth = 5</v>
       </c>
       <c r="M231" s="13" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="232" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -13361,16 +13374,16 @@
       <c r="J232" s="7"/>
       <c r="K232" s="8"/>
       <c r="L232" s="2" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
+        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
+        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
       </c>
       <c r="M232" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="233" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -13383,16 +13396,16 @@
       <c r="J233" s="7"/>
       <c r="K233" s="8"/>
       <c r="L233" s="2" t="str">
-        <f>"Application.CutCopyMode = False"</f>
-        <v>Application.CutCopyMode = False</v>
+        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
       </c>
       <c r="M233" s="13" t="s">
-        <v>171</v>
+        <v>444</v>
       </c>
     </row>
     <row r="234" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -13405,11 +13418,11 @@
       <c r="J234" s="7"/>
       <c r="K234" s="8"/>
       <c r="L234" s="2" t="str">
-        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
-        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
+        <f>"Application.CutCopyMode = False"</f>
+        <v>Application.CutCopyMode = False</v>
       </c>
       <c r="M234" s="13" t="s">
-        <v>446</v>
+        <v>171</v>
       </c>
     </row>
     <row r="235" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
@@ -13427,16 +13440,16 @@
       <c r="J235" s="7"/>
       <c r="K235" s="8"/>
       <c r="L235" s="2" t="str">
-        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
-        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
+        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
+        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
       </c>
       <c r="M235" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="236" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -13449,16 +13462,16 @@
       <c r="J236" s="7"/>
       <c r="K236" s="8"/>
       <c r="L236" s="2" t="str">
-        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
-        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
+        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
+        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
       </c>
       <c r="M236" s="13" t="s">
-        <v>171</v>
+        <v>445</v>
       </c>
     </row>
     <row r="237" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -13471,8 +13484,8 @@
       <c r="J237" s="7"/>
       <c r="K237" s="8"/>
       <c r="L237" s="2" t="str">
-        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
-        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
+        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
+        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
       </c>
       <c r="M237" s="13" t="s">
         <v>171</v>
@@ -13480,7 +13493,7 @@
     </row>
     <row r="238" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
@@ -13493,8 +13506,8 @@
       <c r="J238" s="7"/>
       <c r="K238" s="8"/>
       <c r="L238" s="2" t="str">
-        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
-        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
+        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
+        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
       </c>
       <c r="M238" s="13" t="s">
         <v>171</v>
@@ -13502,7 +13515,7 @@
     </row>
     <row r="239" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -13515,8 +13528,8 @@
       <c r="J239" s="7"/>
       <c r="K239" s="8"/>
       <c r="L239" s="2" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
+        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
+        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
       </c>
       <c r="M239" s="13" t="s">
         <v>171</v>
@@ -13524,7 +13537,7 @@
     </row>
     <row r="240" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
@@ -13537,9 +13550,8 @@
       <c r="J240" s="7"/>
       <c r="K240" s="8"/>
       <c r="L240" s="2" t="str">
-        <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
-        <v>.Rows(行).Select
-ActiveWindow.FreezePanes = True</v>
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
       </c>
       <c r="M240" s="13" t="s">
         <v>171</v>
@@ -13560,8 +13572,8 @@
       <c r="J241" s="7"/>
       <c r="K241" s="8"/>
       <c r="L241" s="2" t="str">
-        <f>".Columns(列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
-        <v>.Columns(列).Select
+        <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
+        <v>.Rows(行).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
       <c r="M241" s="13" t="s">
@@ -13570,7 +13582,7 @@
     </row>
     <row r="242" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
@@ -13583,8 +13595,8 @@
       <c r="J242" s="7"/>
       <c r="K242" s="8"/>
       <c r="L242" s="2" t="str">
-        <f>".Cells(行,列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
-        <v>.Cells(行,列).Select
+        <f>".Columns(列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
+        <v>.Columns(列).Select
 ActiveWindow.FreezePanes = True</v>
       </c>
       <c r="M242" s="13" t="s">
@@ -13593,7 +13605,7 @@
     </row>
     <row r="243" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
@@ -13606,8 +13618,9 @@
       <c r="J243" s="7"/>
       <c r="K243" s="8"/>
       <c r="L243" s="2" t="str">
-        <f>"ActiveWindow.FreezePanes = False"</f>
-        <v>ActiveWindow.FreezePanes = False</v>
+        <f>".Cells(行,列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
+        <v>.Cells(行,列).Select
+ActiveWindow.FreezePanes = True</v>
       </c>
       <c r="M243" s="13" t="s">
         <v>171</v>
@@ -13615,7 +13628,7 @@
     </row>
     <row r="244" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="7" t="s">
-        <v>466</v>
+        <v>339</v>
       </c>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
@@ -13627,16 +13640,17 @@
       <c r="I244" s="7"/>
       <c r="J244" s="7"/>
       <c r="K244" s="8"/>
-      <c r="L244" s="2" t="s">
-        <v>464</v>
+      <c r="L244" s="2" t="str">
+        <f>"ActiveWindow.FreezePanes = False"</f>
+        <v>ActiveWindow.FreezePanes = False</v>
       </c>
       <c r="M244" s="13" t="s">
-        <v>472</v>
+        <v>171</v>
       </c>
     </row>
     <row r="245" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
@@ -13649,15 +13663,15 @@
       <c r="J245" s="7"/>
       <c r="K245" s="8"/>
       <c r="L245" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M245" s="13" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="246" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
@@ -13670,57 +13684,55 @@
       <c r="J246" s="7"/>
       <c r="K246" s="8"/>
       <c r="L246" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="M246" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="M246" s="13" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="21"/>
-      <c r="B247" s="21"/>
-      <c r="C247" s="21"/>
-      <c r="D247" s="21"/>
-      <c r="E247" s="21"/>
-      <c r="F247" s="21"/>
-      <c r="G247" s="21"/>
-      <c r="H247" s="21"/>
-      <c r="I247" s="21"/>
-      <c r="J247" s="21"/>
-      <c r="K247" s="22"/>
-      <c r="L247" s="23"/>
-      <c r="M247" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="7" t="s">
+    </row>
+    <row r="247" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B247" s="7"/>
+      <c r="C247" s="7"/>
+      <c r="D247" s="7"/>
+      <c r="E247" s="7"/>
+      <c r="F247" s="7"/>
+      <c r="G247" s="7"/>
+      <c r="H247" s="7"/>
+      <c r="I247" s="7"/>
+      <c r="J247" s="7"/>
+      <c r="K247" s="8"/>
+      <c r="L247" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="M247" s="13" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="21"/>
+      <c r="B248" s="21"/>
+      <c r="C248" s="21"/>
+      <c r="D248" s="21"/>
+      <c r="E248" s="21"/>
+      <c r="F248" s="21"/>
+      <c r="G248" s="21"/>
+      <c r="H248" s="21"/>
+      <c r="I248" s="21"/>
+      <c r="J248" s="21"/>
+      <c r="K248" s="22"/>
+      <c r="L248" s="23"/>
+      <c r="M248" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B248" s="7"/>
-      <c r="C248" s="7"/>
-      <c r="D248" s="7"/>
-      <c r="E248" s="7"/>
-      <c r="F248" s="7"/>
-      <c r="G248" s="7"/>
-      <c r="H248" s="7"/>
-      <c r="I248" s="7"/>
-      <c r="J248" s="7"/>
-      <c r="K248" s="8"/>
-      <c r="L248" s="2" t="str">
-        <f>"Dim oChartObj As ChartObject"&amp;CHAR(10)&amp;"Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)"</f>
-        <v>Dim oChartObj As ChartObject
-Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)</v>
-      </c>
-      <c r="M248" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="7"/>
-      <c r="B249" s="7" t="s">
-        <v>341</v>
-      </c>
+      <c r="B249" s="7"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -13731,17 +13743,18 @@
       <c r="J249" s="7"/>
       <c r="K249" s="8"/>
       <c r="L249" s="2" t="str">
-        <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
-        <v>Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )</v>
+        <f>"Dim oChartObj As ChartObject"&amp;CHAR(10)&amp;"Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)"</f>
+        <v>Dim oChartObj As ChartObject
+Set oChartObj = ThisWorkbook.Sheets(シート名).ChartObjects(1)</v>
       </c>
       <c r="M249" s="13" t="s">
-        <v>447</v>
+        <v>171</v>
       </c>
     </row>
     <row r="250" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="7"/>
       <c r="B250" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
@@ -13753,17 +13766,17 @@
       <c r="J250" s="7"/>
       <c r="K250" s="8"/>
       <c r="L250" s="2" t="str">
-        <f>"oChartObj.Delete"</f>
-        <v>oChartObj.Delete</v>
+        <f>"Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )"</f>
+        <v>Set oChartObj = .Sheets(シート名).ChartObjects.Add( XPOS, YPOS, WIDTH, HEIGHT )</v>
       </c>
       <c r="M250" s="13" t="s">
-        <v>171</v>
+        <v>446</v>
       </c>
     </row>
     <row r="251" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="7"/>
       <c r="B251" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
@@ -13775,8 +13788,8 @@
       <c r="J251" s="7"/>
       <c r="K251" s="8"/>
       <c r="L251" s="2" t="str">
-        <f>"oChartObj.Chart.ChartArea.Copy"</f>
-        <v>oChartObj.Chart.ChartArea.Copy</v>
+        <f>"oChartObj.Delete"</f>
+        <v>oChartObj.Delete</v>
       </c>
       <c r="M251" s="13" t="s">
         <v>171</v>
@@ -13785,7 +13798,7 @@
     <row r="252" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="7"/>
       <c r="B252" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
@@ -13797,8 +13810,8 @@
       <c r="J252" s="7"/>
       <c r="K252" s="8"/>
       <c r="L252" s="2" t="str">
-        <f>"oChartObj.Top = 10"</f>
-        <v>oChartObj.Top = 10</v>
+        <f>"oChartObj.Chart.ChartArea.Copy"</f>
+        <v>oChartObj.Chart.ChartArea.Copy</v>
       </c>
       <c r="M252" s="13" t="s">
         <v>171</v>
@@ -13807,7 +13820,7 @@
     <row r="253" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="7"/>
       <c r="B253" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
@@ -13819,8 +13832,8 @@
       <c r="J253" s="7"/>
       <c r="K253" s="8"/>
       <c r="L253" s="2" t="str">
-        <f>"oChartObj.Left = 20"</f>
-        <v>oChartObj.Left = 20</v>
+        <f>"oChartObj.Top = 10"</f>
+        <v>oChartObj.Top = 10</v>
       </c>
       <c r="M253" s="13" t="s">
         <v>171</v>
@@ -13829,7 +13842,7 @@
     <row r="254" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="7"/>
       <c r="B254" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
@@ -13841,8 +13854,8 @@
       <c r="J254" s="7"/>
       <c r="K254" s="8"/>
       <c r="L254" s="2" t="str">
-        <f>"oChartObj.Width = 200"</f>
-        <v>oChartObj.Width = 200</v>
+        <f>"oChartObj.Left = 20"</f>
+        <v>oChartObj.Left = 20</v>
       </c>
       <c r="M254" s="13" t="s">
         <v>171</v>
@@ -13851,7 +13864,7 @@
     <row r="255" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="7"/>
       <c r="B255" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
@@ -13863,8 +13876,8 @@
       <c r="J255" s="7"/>
       <c r="K255" s="8"/>
       <c r="L255" s="2" t="str">
-        <f>"oChartObj.Height = 300"</f>
-        <v>oChartObj.Height = 300</v>
+        <f>"oChartObj.Width = 200"</f>
+        <v>oChartObj.Width = 200</v>
       </c>
       <c r="M255" s="13" t="s">
         <v>171</v>
@@ -13873,7 +13886,7 @@
     <row r="256" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="7"/>
       <c r="B256" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
@@ -13885,17 +13898,17 @@
       <c r="J256" s="7"/>
       <c r="K256" s="8"/>
       <c r="L256" s="2" t="str">
-        <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
-        <v>oChartObj.Chart.ChartType = xlXYScatterLines</v>
+        <f>"oChartObj.Height = 300"</f>
+        <v>oChartObj.Height = 300</v>
       </c>
       <c r="M256" s="13" t="s">
-        <v>448</v>
+        <v>171</v>
       </c>
     </row>
     <row r="257" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="7"/>
       <c r="B257" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
@@ -13907,17 +13920,17 @@
       <c r="J257" s="7"/>
       <c r="K257" s="8"/>
       <c r="L257" s="2" t="str">
-        <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
-        <v>oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)</v>
+        <f>"oChartObj.Chart.ChartType = xlXYScatterLines"</f>
+        <v>oChartObj.Chart.ChartType = xlXYScatterLines</v>
       </c>
       <c r="M257" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="258" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="7"/>
       <c r="B258" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
@@ -13929,17 +13942,17 @@
       <c r="J258" s="7"/>
       <c r="K258" s="8"/>
       <c r="L258" s="2" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).HasTitle = True</v>
+        <f>"oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)"</f>
+        <v>oChartObj.Chart.SetSourceData Source:=Union(rXAxsRng, rDataRng)</v>
       </c>
       <c r="M258" s="13" t="s">
-        <v>171</v>
+        <v>448</v>
       </c>
     </row>
     <row r="259" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="7"/>
       <c r="B259" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
@@ -13951,8 +13964,8 @@
       <c r="J259" s="7"/>
       <c r="K259" s="8"/>
       <c r="L259" s="2" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
-        <v>oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = "Test Axis X"</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).HasTitle = True"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).HasTitle = True</v>
       </c>
       <c r="M259" s="13" t="s">
         <v>171</v>
@@ -13961,7 +13974,7 @@
     <row r="260" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="7"/>
       <c r="B260" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
@@ -13973,8 +13986,8 @@
       <c r="J260" s="7"/>
       <c r="K260" s="8"/>
       <c r="L260" s="2" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = ""Test Axis X"""</f>
+        <v>oChartObj.Chart.Axes(xlCategory).AxisTitle.Text = "Test Axis X"</v>
       </c>
       <c r="M260" s="13" t="s">
         <v>171</v>
@@ -13983,7 +13996,7 @@
     <row r="261" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="7"/>
       <c r="B261" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C261" s="7"/>
       <c r="D261" s="7"/>
@@ -13995,8 +14008,8 @@
       <c r="J261" s="7"/>
       <c r="K261" s="8"/>
       <c r="L261" s="2" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).HasMajorGridlines = True</v>
       </c>
       <c r="M261" s="13" t="s">
         <v>171</v>
@@ -14005,7 +14018,7 @@
     <row r="262" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="7"/>
       <c r="B262" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C262" s="7"/>
       <c r="D262" s="7"/>
@@ -14017,8 +14030,8 @@
       <c r="J262" s="7"/>
       <c r="K262" s="8"/>
       <c r="L262" s="2" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Color = RGB(217, 217, 217)</v>
       </c>
       <c r="M262" s="13" t="s">
         <v>171</v>
@@ -14027,7 +14040,7 @@
     <row r="263" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="7"/>
       <c r="B263" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
@@ -14039,8 +14052,8 @@
       <c r="J263" s="7"/>
       <c r="K263" s="8"/>
       <c r="L263" s="2" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.Weight = 2</v>
       </c>
       <c r="M263" s="13" t="s">
         <v>171</v>
@@ -14049,7 +14062,7 @@
     <row r="264" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="7"/>
       <c r="B264" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
@@ -14060,8 +14073,9 @@
       <c r="I264" s="7"/>
       <c r="J264" s="7"/>
       <c r="K264" s="8"/>
-      <c r="L264" s="13" t="s">
-        <v>393</v>
+      <c r="L264" s="2" t="str">
+        <f>"oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MajorGridlines.Border.LineStyle = (xlContinuous\|xlDot\|xlDouble\|xlLineStyleNone\|...)</v>
       </c>
       <c r="M264" s="13" t="s">
         <v>171</v>
@@ -14070,7 +14084,7 @@
     <row r="265" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="7"/>
       <c r="B265" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C265" s="7"/>
       <c r="D265" s="7"/>
@@ -14081,9 +14095,8 @@
       <c r="I265" s="7"/>
       <c r="J265" s="7"/>
       <c r="K265" s="8"/>
-      <c r="L265" s="2" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False</v>
+      <c r="L265" s="13" t="s">
+        <v>392</v>
       </c>
       <c r="M265" s="13" t="s">
         <v>171</v>
@@ -14092,7 +14105,7 @@
     <row r="266" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="7"/>
       <c r="B266" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C266" s="7"/>
       <c r="D266" s="7"/>
@@ -14104,8 +14117,8 @@
       <c r="J266" s="7"/>
       <c r="K266" s="8"/>
       <c r="L266" s="2" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MinimumScaleIsAuto = False</v>
       </c>
       <c r="M266" s="13" t="s">
         <v>171</v>
@@ -14114,7 +14127,7 @@
     <row r="267" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="7"/>
       <c r="B267" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
@@ -14126,8 +14139,8 @@
       <c r="J267" s="7"/>
       <c r="K267" s="8"/>
       <c r="L267" s="2" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MinimumScale = 0</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MaximumScaleIsAuto = False</v>
       </c>
       <c r="M267" s="13" t="s">
         <v>171</v>
@@ -14136,7 +14149,7 @@
     <row r="268" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="7"/>
       <c r="B268" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
@@ -14148,8 +14161,8 @@
       <c r="J268" s="7"/>
       <c r="K268" s="8"/>
       <c r="L268" s="2" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).MaximumScale = 100</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MinimumScale = 0"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MinimumScale = 0</v>
       </c>
       <c r="M268" s="13" t="s">
         <v>171</v>
@@ -14158,7 +14171,7 @@
     <row r="269" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="7"/>
       <c r="B269" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C269" s="7"/>
       <c r="D269" s="7"/>
@@ -14170,8 +14183,8 @@
       <c r="J269" s="7"/>
       <c r="K269" s="8"/>
       <c r="L269" s="2" t="str">
-        <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
-        <v>oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)</v>
+        <f>"oChartObj.Chart.Axes(xlCategory).MaximumScale = 100"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).MaximumScale = 100</v>
       </c>
       <c r="M269" s="13" t="s">
         <v>171</v>
@@ -14180,7 +14193,7 @@
     <row r="270" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="7"/>
       <c r="B270" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C270" s="7"/>
       <c r="D270" s="7"/>
@@ -14191,8 +14204,9 @@
       <c r="I270" s="7"/>
       <c r="J270" s="7"/>
       <c r="K270" s="8"/>
-      <c r="L270" s="2" t="s">
-        <v>394</v>
+      <c r="L270" s="2" t="str">
+        <f>"oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)"</f>
+        <v>oChartObj.Chart.Axes(xlCategory).Crosses = (xlMinimum\|xlMaximum\|xlAutomatic)</v>
       </c>
       <c r="M270" s="13" t="s">
         <v>171</v>
@@ -14201,7 +14215,7 @@
     <row r="271" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="7"/>
       <c r="B271" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C271" s="7"/>
       <c r="D271" s="7"/>
@@ -14212,9 +14226,8 @@
       <c r="I271" s="7"/>
       <c r="J271" s="7"/>
       <c r="K271" s="8"/>
-      <c r="L271" s="2" t="str">
-        <f>"oChartObj.Chart.HasTitle = True"</f>
-        <v>oChartObj.Chart.HasTitle = True</v>
+      <c r="L271" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="M271" s="13" t="s">
         <v>171</v>
@@ -14223,7 +14236,7 @@
     <row r="272" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="7"/>
       <c r="B272" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C272" s="7"/>
       <c r="D272" s="7"/>
@@ -14235,8 +14248,8 @@
       <c r="J272" s="7"/>
       <c r="K272" s="8"/>
       <c r="L272" s="2" t="str">
-        <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
-        <v>oChartObj.Chart.ChartTitle.Text = "Test Title"</v>
+        <f>"oChartObj.Chart.HasTitle = True"</f>
+        <v>oChartObj.Chart.HasTitle = True</v>
       </c>
       <c r="M272" s="13" t="s">
         <v>171</v>
@@ -14245,7 +14258,7 @@
     <row r="273" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="7"/>
       <c r="B273" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C273" s="7"/>
       <c r="D273" s="7"/>
@@ -14257,17 +14270,17 @@
       <c r="J273" s="7"/>
       <c r="K273" s="8"/>
       <c r="L273" s="2" t="str">
-        <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
-        <v>oChartObj.Chart.ChartTitle.IncludeInLayout = False</v>
+        <f>"oChartObj.Chart.ChartTitle.Text = ""Test Title"""</f>
+        <v>oChartObj.Chart.ChartTitle.Text = "Test Title"</v>
       </c>
       <c r="M273" s="13" t="s">
-        <v>450</v>
+        <v>171</v>
       </c>
     </row>
     <row r="274" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="7"/>
       <c r="B274" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C274" s="7"/>
       <c r="D274" s="7"/>
@@ -14279,17 +14292,17 @@
       <c r="J274" s="7"/>
       <c r="K274" s="8"/>
       <c r="L274" s="2" t="str">
-        <f>"oChartObj.Chart.HasLegend = True"</f>
-        <v>oChartObj.Chart.HasLegend = True</v>
+        <f>"oChartObj.Chart.ChartTitle.IncludeInLayout = False"</f>
+        <v>oChartObj.Chart.ChartTitle.IncludeInLayout = False</v>
       </c>
       <c r="M274" s="13" t="s">
-        <v>171</v>
+        <v>449</v>
       </c>
     </row>
     <row r="275" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="7"/>
       <c r="B275" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C275" s="7"/>
       <c r="D275" s="7"/>
@@ -14301,17 +14314,17 @@
       <c r="J275" s="7"/>
       <c r="K275" s="8"/>
       <c r="L275" s="2" t="str">
-        <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
-        <v>oChartObj.Chart.Legend.Position = xlLegendPositionTop</v>
+        <f>"oChartObj.Chart.HasLegend = True"</f>
+        <v>oChartObj.Chart.HasLegend = True</v>
       </c>
       <c r="M275" s="13" t="s">
-        <v>396</v>
+        <v>171</v>
       </c>
     </row>
     <row r="276" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="7"/>
       <c r="B276" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C276" s="7"/>
       <c r="D276" s="7"/>
@@ -14323,18 +14336,18 @@
       <c r="J276" s="7"/>
       <c r="K276" s="8"/>
       <c r="L276" s="2" t="str">
-        <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
-        <v>oChartObj.Chart.Legend.IncludeInLayout = False</v>
+        <f>"oChartObj.Chart.Legend.Position = xlLegendPositionTop"</f>
+        <v>oChartObj.Chart.Legend.Position = xlLegendPositionTop</v>
       </c>
       <c r="M276" s="13" t="s">
-        <v>450</v>
+        <v>395</v>
       </c>
     </row>
     <row r="277" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A277" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B277" s="7"/>
+      <c r="A277" s="7"/>
+      <c r="B277" s="7" t="s">
+        <v>368</v>
+      </c>
       <c r="C277" s="7"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -14345,95 +14358,94 @@
       <c r="J277" s="7"/>
       <c r="K277" s="8"/>
       <c r="L277" s="2" t="str">
+        <f>"oChartObj.Chart.Legend.IncludeInLayout = False"</f>
+        <v>oChartObj.Chart.Legend.IncludeInLayout = False</v>
+      </c>
+      <c r="M277" s="13" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A278" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B278" s="7"/>
+      <c r="C278" s="7"/>
+      <c r="D278" s="7"/>
+      <c r="E278" s="7"/>
+      <c r="F278" s="7"/>
+      <c r="G278" s="7"/>
+      <c r="H278" s="7"/>
+      <c r="I278" s="7"/>
+      <c r="J278" s="7"/>
+      <c r="K278" s="8"/>
+      <c r="L278" s="2" t="str">
         <f>".Sheets(シート名).PasteSpecial Format:=""図 (JPEG)"", Link:=False, DisplayAsIcon:=False"</f>
         <v>.Sheets(シート名).PasteSpecial Format:="図 (JPEG)", Link:=False, DisplayAsIcon:=False</v>
       </c>
-      <c r="M277" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A278" s="21"/>
-      <c r="B278" s="21"/>
-      <c r="C278" s="21"/>
-      <c r="D278" s="21"/>
-      <c r="E278" s="21"/>
-      <c r="F278" s="21"/>
-      <c r="G278" s="21"/>
-      <c r="H278" s="21"/>
-      <c r="I278" s="21"/>
-      <c r="J278" s="21"/>
-      <c r="K278" s="22"/>
-      <c r="L278" s="23"/>
-      <c r="M278" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A279" s="7" t="s">
+      <c r="M278" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A279" s="21"/>
+      <c r="B279" s="21"/>
+      <c r="C279" s="21"/>
+      <c r="D279" s="21"/>
+      <c r="E279" s="21"/>
+      <c r="F279" s="21"/>
+      <c r="G279" s="21"/>
+      <c r="H279" s="21"/>
+      <c r="I279" s="21"/>
+      <c r="J279" s="21"/>
+      <c r="K279" s="22"/>
+      <c r="L279" s="23"/>
+      <c r="M279" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A280" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B279" s="7"/>
-      <c r="C279" s="7"/>
-      <c r="D279" s="7"/>
-      <c r="E279" s="7"/>
-      <c r="F279" s="7"/>
-      <c r="G279" s="7"/>
-      <c r="H279" s="7"/>
-      <c r="I279" s="7"/>
-      <c r="J279" s="7"/>
-      <c r="K279" s="8"/>
-      <c r="L279" s="2" t="str">
+      <c r="B280" s="7"/>
+      <c r="C280" s="7"/>
+      <c r="D280" s="7"/>
+      <c r="E280" s="7"/>
+      <c r="F280" s="7"/>
+      <c r="G280" s="7"/>
+      <c r="H280" s="7"/>
+      <c r="I280" s="7"/>
+      <c r="J280" s="7"/>
+      <c r="K280" s="8"/>
+      <c r="L280" s="2" t="str">
         <f>"Application.WorksheetFunction.VLookup(.Range(""C1""), .Range(""A1:B7""), 2, False)"</f>
         <v>Application.WorksheetFunction.VLookup(.Range("C1"), .Range("A1:B7"), 2, False)</v>
       </c>
-      <c r="M279" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A280" s="21"/>
-      <c r="B280" s="21"/>
-      <c r="C280" s="21"/>
-      <c r="D280" s="21"/>
-      <c r="E280" s="21"/>
-      <c r="F280" s="21"/>
-      <c r="G280" s="21"/>
-      <c r="H280" s="21"/>
-      <c r="I280" s="21"/>
-      <c r="J280" s="21"/>
-      <c r="K280" s="22"/>
-      <c r="L280" s="23"/>
-      <c r="M280" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="B281" s="7"/>
-      <c r="C281" s="7"/>
-      <c r="D281" s="7"/>
-      <c r="E281" s="7"/>
-      <c r="F281" s="7"/>
-      <c r="G281" s="7"/>
-      <c r="H281" s="7"/>
-      <c r="I281" s="7"/>
-      <c r="J281" s="7"/>
-      <c r="K281" s="8"/>
-      <c r="L281" s="2" t="str">
-        <f>"Dim goPrgrsBar As New ProgressBar"&amp;CHAR(10)&amp;"goPrgrsBar.Show vbModeless"</f>
-        <v>Dim goPrgrsBar As New ProgressBar
-goPrgrsBar.Show vbModeless</v>
-      </c>
-      <c r="M281" s="13" t="s">
+      <c r="M280" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A281" s="21"/>
+      <c r="B281" s="21"/>
+      <c r="C281" s="21"/>
+      <c r="D281" s="21"/>
+      <c r="E281" s="21"/>
+      <c r="F281" s="21"/>
+      <c r="G281" s="21"/>
+      <c r="H281" s="21"/>
+      <c r="I281" s="21"/>
+      <c r="J281" s="21"/>
+      <c r="K281" s="22"/>
+      <c r="L281" s="23"/>
+      <c r="M281" s="24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="282" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
@@ -14446,57 +14458,58 @@
       <c r="J282" s="7"/>
       <c r="K282" s="8"/>
       <c r="L282" s="2" t="str">
+        <f>"Dim goPrgrsBar As New ProgressBar"&amp;CHAR(10)&amp;"goPrgrsBar.Show vbModeless"</f>
+        <v>Dim goPrgrsBar As New ProgressBar
+goPrgrsBar.Show vbModeless</v>
+      </c>
+      <c r="M282" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A283" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B283" s="7"/>
+      <c r="C283" s="7"/>
+      <c r="D283" s="7"/>
+      <c r="E283" s="7"/>
+      <c r="F283" s="7"/>
+      <c r="G283" s="7"/>
+      <c r="H283" s="7"/>
+      <c r="I283" s="7"/>
+      <c r="J283" s="7"/>
+      <c r="K283" s="8"/>
+      <c r="L283" s="2" t="str">
         <f>"goPrgrsBar.Hide"&amp;CHAR(10)&amp;"Unload goPrgrsBar"&amp;CHAR(10)&amp;"Set goPrgrsBar = Nothing"</f>
         <v>goPrgrsBar.Hide
 Unload goPrgrsBar
 Set goPrgrsBar = Nothing</v>
       </c>
-      <c r="M282" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A283" s="21"/>
-      <c r="B283" s="21"/>
-      <c r="C283" s="21"/>
-      <c r="D283" s="21"/>
-      <c r="E283" s="21"/>
-      <c r="F283" s="21"/>
-      <c r="G283" s="21"/>
-      <c r="H283" s="21"/>
-      <c r="I283" s="21"/>
-      <c r="J283" s="21"/>
-      <c r="K283" s="22"/>
-      <c r="L283" s="23"/>
-      <c r="M283" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A284" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="B284" s="7"/>
-      <c r="C284" s="7"/>
-      <c r="D284" s="7"/>
-      <c r="E284" s="7"/>
-      <c r="F284" s="7"/>
-      <c r="G284" s="7"/>
-      <c r="H284" s="7"/>
-      <c r="I284" s="7"/>
-      <c r="J284" s="7"/>
-      <c r="K284" s="8"/>
-      <c r="L284" s="2" t="str">
-        <f>"cCollection.Item(""リンゴ"")"</f>
-        <v>cCollection.Item("リンゴ")</v>
-      </c>
-      <c r="M284" s="13" t="s">
+      <c r="M283" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A284" s="21"/>
+      <c r="B284" s="21"/>
+      <c r="C284" s="21"/>
+      <c r="D284" s="21"/>
+      <c r="E284" s="21"/>
+      <c r="F284" s="21"/>
+      <c r="G284" s="21"/>
+      <c r="H284" s="21"/>
+      <c r="I284" s="21"/>
+      <c r="J284" s="21"/>
+      <c r="K284" s="22"/>
+      <c r="L284" s="23"/>
+      <c r="M284" s="24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="285" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
@@ -14509,8 +14522,8 @@
       <c r="J285" s="7"/>
       <c r="K285" s="8"/>
       <c r="L285" s="2" t="str">
-        <f>"cCollection(0)"</f>
-        <v>cCollection(0)</v>
+        <f>"cCollection.Item(""リンゴ"")"</f>
+        <v>cCollection.Item("リンゴ")</v>
       </c>
       <c r="M285" s="13" t="s">
         <v>171</v>
@@ -14518,7 +14531,7 @@
     </row>
     <row r="286" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B286" s="7"/>
       <c r="C286" s="7"/>
@@ -14531,57 +14544,57 @@
       <c r="J286" s="7"/>
       <c r="K286" s="8"/>
       <c r="L286" s="2" t="str">
+        <f>"cCollection(0)"</f>
+        <v>cCollection(0)</v>
+      </c>
+      <c r="M286" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A287" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B287" s="7"/>
+      <c r="C287" s="7"/>
+      <c r="D287" s="7"/>
+      <c r="E287" s="7"/>
+      <c r="F287" s="7"/>
+      <c r="G287" s="7"/>
+      <c r="H287" s="7"/>
+      <c r="I287" s="7"/>
+      <c r="J287" s="7"/>
+      <c r="K287" s="8"/>
+      <c r="L287" s="2" t="str">
         <f>"For Each vItem In cCollection"&amp;CHAR(10)&amp;"Debug.print vItem"&amp;CHAR(10)&amp;"Next"</f>
         <v>For Each vItem In cCollection
 Debug.print vItem
 Next</v>
       </c>
-      <c r="M286" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A287" s="21"/>
-      <c r="B287" s="21"/>
-      <c r="C287" s="21"/>
-      <c r="D287" s="21"/>
-      <c r="E287" s="21"/>
-      <c r="F287" s="21"/>
-      <c r="G287" s="21"/>
-      <c r="H287" s="21"/>
-      <c r="I287" s="21"/>
-      <c r="J287" s="21"/>
-      <c r="K287" s="22"/>
-      <c r="L287" s="23"/>
-      <c r="M287" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A288" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="B288" s="7"/>
-      <c r="C288" s="7"/>
-      <c r="D288" s="7"/>
-      <c r="E288" s="7"/>
-      <c r="F288" s="7"/>
-      <c r="G288" s="7"/>
-      <c r="H288" s="7"/>
-      <c r="I288" s="7"/>
-      <c r="J288" s="7"/>
-      <c r="K288" s="8"/>
-      <c r="L288" s="2" t="str">
-        <f>"lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value"</f>
-        <v>lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value</v>
-      </c>
-      <c r="M288" s="13" t="s">
-        <v>451</v>
+      <c r="M287" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A288" s="21"/>
+      <c r="B288" s="21"/>
+      <c r="C288" s="21"/>
+      <c r="D288" s="21"/>
+      <c r="E288" s="21"/>
+      <c r="F288" s="21"/>
+      <c r="G288" s="21"/>
+      <c r="H288" s="21"/>
+      <c r="I288" s="21"/>
+      <c r="J288" s="21"/>
+      <c r="K288" s="22"/>
+      <c r="L288" s="23"/>
+      <c r="M288" s="24" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="289" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B289" s="7"/>
       <c r="C289" s="7"/>
@@ -14594,56 +14607,56 @@
       <c r="J289" s="7"/>
       <c r="K289" s="8"/>
       <c r="L289" s="2" t="str">
+        <f>"lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value"</f>
+        <v>lChk = ThisWorkbook.Sheets(シート名).CheckBoxes(1).Value</v>
+      </c>
+      <c r="M289" s="13" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A290" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B290" s="7"/>
+      <c r="C290" s="7"/>
+      <c r="D290" s="7"/>
+      <c r="E290" s="7"/>
+      <c r="F290" s="7"/>
+      <c r="G290" s="7"/>
+      <c r="H290" s="7"/>
+      <c r="I290" s="7"/>
+      <c r="J290" s="7"/>
+      <c r="K290" s="8"/>
+      <c r="L290" s="2" t="str">
         <f>"Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)"&amp;CHAR(10)&amp;"End Sub"</f>
         <v>Private Sub xxx\_KeyUp(ByVal KeyCode As MSForms.ReturnInteger, ByVal Shift As Integer)
 End Sub</v>
       </c>
-      <c r="M289" s="13" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A290" s="21"/>
-      <c r="B290" s="21"/>
-      <c r="C290" s="21"/>
-      <c r="D290" s="21"/>
-      <c r="E290" s="21"/>
-      <c r="F290" s="21"/>
-      <c r="G290" s="21"/>
-      <c r="H290" s="21"/>
-      <c r="I290" s="21"/>
-      <c r="J290" s="21"/>
-      <c r="K290" s="22"/>
-      <c r="L290" s="23"/>
-      <c r="M290" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A291" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B291" s="7"/>
-      <c r="C291" s="7"/>
-      <c r="D291" s="7"/>
-      <c r="E291" s="7"/>
-      <c r="F291" s="7"/>
-      <c r="G291" s="7"/>
-      <c r="H291" s="7"/>
-      <c r="I291" s="7"/>
-      <c r="J291" s="7"/>
-      <c r="K291" s="8"/>
-      <c r="L291" s="2" t="str">
-        <f>"CreateObject(""WScript.Network"").UserName"</f>
-        <v>CreateObject("WScript.Network").UserName</v>
-      </c>
-      <c r="M291" s="13" t="s">
-        <v>227</v>
+      <c r="M290" s="13" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A291" s="21"/>
+      <c r="B291" s="21"/>
+      <c r="C291" s="21"/>
+      <c r="D291" s="21"/>
+      <c r="E291" s="21"/>
+      <c r="F291" s="21"/>
+      <c r="G291" s="21"/>
+      <c r="H291" s="21"/>
+      <c r="I291" s="21"/>
+      <c r="J291" s="21"/>
+      <c r="K291" s="22"/>
+      <c r="L291" s="23"/>
+      <c r="M291" s="24" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="292" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
@@ -14656,58 +14669,55 @@
       <c r="J292" s="7"/>
       <c r="K292" s="8"/>
       <c r="L292" s="2" t="str">
+        <f>"CreateObject(""WScript.Network"").UserName"</f>
+        <v>CreateObject("WScript.Network").UserName</v>
+      </c>
+      <c r="M292" s="13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B293" s="7"/>
+      <c r="C293" s="7"/>
+      <c r="D293" s="7"/>
+      <c r="E293" s="7"/>
+      <c r="F293" s="7"/>
+      <c r="G293" s="7"/>
+      <c r="H293" s="7"/>
+      <c r="I293" s="7"/>
+      <c r="J293" s="7"/>
+      <c r="K293" s="8"/>
+      <c r="L293" s="2" t="str">
         <f>"""C:\Users\"" &amp; CreateObject(""WScript.Network"").UserName &amp; ""\AppData\Local\Temp"""</f>
         <v>"C:\Users\" &amp; CreateObject("WScript.Network").UserName &amp; "\AppData\Local\Temp"</v>
       </c>
-      <c r="M292" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A293" s="21"/>
-      <c r="B293" s="21"/>
-      <c r="C293" s="21"/>
-      <c r="D293" s="21"/>
-      <c r="E293" s="21"/>
-      <c r="F293" s="21"/>
-      <c r="G293" s="21"/>
-      <c r="H293" s="21"/>
-      <c r="I293" s="21"/>
-      <c r="J293" s="21"/>
-      <c r="K293" s="22"/>
-      <c r="L293" s="23"/>
-      <c r="M293" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A294" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B294" s="7"/>
-      <c r="C294" s="7"/>
-      <c r="D294" s="7"/>
-      <c r="E294" s="7"/>
-      <c r="F294" s="7"/>
-      <c r="G294" s="7"/>
-      <c r="H294" s="7"/>
-      <c r="I294" s="7"/>
-      <c r="J294" s="7"/>
-      <c r="K294" s="8"/>
-      <c r="L294" s="2" t="str">
-        <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".GetFromClipboard"&amp;CHAR(10)&amp;CHAR(9)&amp;"sText = .GetText"&amp;CHAR(10)&amp;"End With"</f>
-        <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
-	.GetFromClipboard
-	sText = .GetText
-End With</v>
-      </c>
-      <c r="M294" s="13" t="s">
+      <c r="M293" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A294" s="21"/>
+      <c r="B294" s="21"/>
+      <c r="C294" s="21"/>
+      <c r="D294" s="21"/>
+      <c r="E294" s="21"/>
+      <c r="F294" s="21"/>
+      <c r="G294" s="21"/>
+      <c r="H294" s="21"/>
+      <c r="I294" s="21"/>
+      <c r="J294" s="21"/>
+      <c r="K294" s="22"/>
+      <c r="L294" s="23"/>
+      <c r="M294" s="24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="295" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
@@ -14720,62 +14730,63 @@
       <c r="J295" s="7"/>
       <c r="K295" s="8"/>
       <c r="L295" s="2" t="str">
+        <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".GetFromClipboard"&amp;CHAR(10)&amp;CHAR(9)&amp;"sText = .GetText"&amp;CHAR(10)&amp;"End With"</f>
+        <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
+	.GetFromClipboard
+	sText = .GetText
+End With</v>
+      </c>
+      <c r="M295" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A296" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B296" s="7"/>
+      <c r="C296" s="7"/>
+      <c r="D296" s="7"/>
+      <c r="E296" s="7"/>
+      <c r="F296" s="7"/>
+      <c r="G296" s="7"/>
+      <c r="H296" s="7"/>
+      <c r="I296" s="7"/>
+      <c r="J296" s="7"/>
+      <c r="K296" s="8"/>
+      <c r="L296" s="2" t="str">
         <f>"With CreateObject(""new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}"")"&amp;CHAR(10)&amp;CHAR(9)&amp;".SetText sText"&amp;CHAR(10)&amp;CHAR(9)&amp;".PutInClipboard"&amp;CHAR(10)&amp;"End With"</f>
         <v>With CreateObject("new:{1C3B4210-F441-11CE-B9EA-00AA006B1A69}")
 	.SetText sText
 	.PutInClipboard
 End With</v>
       </c>
-      <c r="M295" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A296" s="21"/>
-      <c r="B296" s="21"/>
-      <c r="C296" s="21"/>
-      <c r="D296" s="21"/>
-      <c r="E296" s="21"/>
-      <c r="F296" s="21"/>
-      <c r="G296" s="21"/>
-      <c r="H296" s="21"/>
-      <c r="I296" s="21"/>
-      <c r="J296" s="21"/>
-      <c r="K296" s="22"/>
-      <c r="L296" s="23"/>
-      <c r="M296" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A297" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="B297" s="7"/>
-      <c r="C297" s="7"/>
-      <c r="D297" s="7"/>
-      <c r="E297" s="7"/>
-      <c r="F297" s="7"/>
-      <c r="G297" s="7"/>
-      <c r="H297" s="7"/>
-      <c r="I297" s="7"/>
-      <c r="J297" s="7"/>
-      <c r="K297" s="8"/>
-      <c r="L297" s="2" t="str">
-        <f>"Dim wWord As Object" &amp; CHAR(10) &amp; "Set wWord = CreateObject(""Word.Application"")" &amp; CHAR(10) &amp; "wWord.Visible = False"</f>
-        <v>Dim wWord As Object
-Set wWord = CreateObject("Word.Application")
-wWord.Visible = False</v>
-      </c>
-      <c r="M297" s="13" t="s">
+      <c r="M296" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="21"/>
+      <c r="B297" s="21"/>
+      <c r="C297" s="21"/>
+      <c r="D297" s="21"/>
+      <c r="E297" s="21"/>
+      <c r="F297" s="21"/>
+      <c r="G297" s="21"/>
+      <c r="H297" s="21"/>
+      <c r="I297" s="21"/>
+      <c r="J297" s="21"/>
+      <c r="K297" s="22"/>
+      <c r="L297" s="23"/>
+      <c r="M297" s="24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="298" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A298" s="7"/>
-      <c r="B298" s="7" t="s">
-        <v>453</v>
-      </c>
+      <c r="A298" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B298" s="7"/>
       <c r="C298" s="7"/>
       <c r="D298" s="7"/>
       <c r="E298" s="7"/>
@@ -14786,9 +14797,10 @@
       <c r="J298" s="7"/>
       <c r="K298" s="8"/>
       <c r="L298" s="2" t="str">
-        <f>"Dim dDoc As Object" &amp; CHAR(10) &amp; "Set dDoc = wWord.Documents.Open(""sFilePath"")"</f>
-        <v>Dim dDoc As Object
-Set dDoc = wWord.Documents.Open("sFilePath")</v>
+        <f>"Dim wWord As Object" &amp; CHAR(10) &amp; "Set wWord = CreateObject(""Word.Application"")" &amp; CHAR(10) &amp; "wWord.Visible = False"</f>
+        <v>Dim wWord As Object
+Set wWord = CreateObject("Word.Application")
+wWord.Visible = False</v>
       </c>
       <c r="M298" s="13" t="s">
         <v>171</v>
@@ -14797,7 +14809,7 @@
     <row r="299" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="7"/>
       <c r="B299" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C299" s="7"/>
       <c r="D299" s="7"/>
@@ -14809,11 +14821,9 @@
       <c r="J299" s="7"/>
       <c r="K299" s="8"/>
       <c r="L299" s="2" t="str">
-        <f>"Dim sParagraph As Object" &amp; CHAR(10) &amp; "For Each sParagraph In dDoc.Paragraphs" &amp; CHAR(10) &amp; CHAR(9) &amp; "'～処理～" &amp; CHAR(10) &amp; "Next sParagraph"</f>
-        <v>Dim sParagraph As Object
-For Each sParagraph In dDoc.Paragraphs
-	'～処理～
-Next sParagraph</v>
+        <f>"Dim dDoc As Object" &amp; CHAR(10) &amp; "Set dDoc = wWord.Documents.Open(""sFilePath"")"</f>
+        <v>Dim dDoc As Object
+Set dDoc = wWord.Documents.Open("sFilePath")</v>
       </c>
       <c r="M299" s="13" t="s">
         <v>171</v>
@@ -14822,7 +14832,7 @@
     <row r="300" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="7"/>
       <c r="B300" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C300" s="7"/>
       <c r="D300" s="7"/>
@@ -14834,9 +14844,11 @@
       <c r="J300" s="7"/>
       <c r="K300" s="8"/>
       <c r="L300" s="2" t="str">
-        <f>"dDoc.Close" &amp; CHAR(10) &amp; "Set dDoc = Nothing"</f>
-        <v>dDoc.Close
-Set dDoc = Nothing</v>
+        <f>"Dim sParagraph As Object" &amp; CHAR(10) &amp; "For Each sParagraph In dDoc.Paragraphs" &amp; CHAR(10) &amp; CHAR(9) &amp; "'～処理～" &amp; CHAR(10) &amp; "Next sParagraph"</f>
+        <v>Dim sParagraph As Object
+For Each sParagraph In dDoc.Paragraphs
+	'～処理～
+Next sParagraph</v>
       </c>
       <c r="M300" s="13" t="s">
         <v>171</v>
@@ -14845,7 +14857,7 @@
     <row r="301" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="7"/>
       <c r="B301" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C301" s="7"/>
       <c r="D301" s="7"/>
@@ -14857,56 +14869,59 @@
       <c r="J301" s="7"/>
       <c r="K301" s="8"/>
       <c r="L301" s="2" t="str">
+        <f>"dDoc.Close" &amp; CHAR(10) &amp; "Set dDoc = Nothing"</f>
+        <v>dDoc.Close
+Set dDoc = Nothing</v>
+      </c>
+      <c r="M301" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A302" s="7"/>
+      <c r="B302" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C302" s="7"/>
+      <c r="D302" s="7"/>
+      <c r="E302" s="7"/>
+      <c r="F302" s="7"/>
+      <c r="G302" s="7"/>
+      <c r="H302" s="7"/>
+      <c r="I302" s="7"/>
+      <c r="J302" s="7"/>
+      <c r="K302" s="8"/>
+      <c r="L302" s="2" t="str">
         <f>"wWord.Visible = False" &amp; CHAR(10) &amp; "wWord.Quit" &amp; CHAR(10) &amp; "Set wWord = Nothing"</f>
         <v>wWord.Visible = False
 wWord.Quit
 Set wWord = Nothing</v>
       </c>
-      <c r="M301" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A302" s="21"/>
-      <c r="B302" s="21"/>
-      <c r="C302" s="21"/>
-      <c r="D302" s="21"/>
-      <c r="E302" s="21"/>
-      <c r="F302" s="21"/>
-      <c r="G302" s="21"/>
-      <c r="H302" s="21"/>
-      <c r="I302" s="21"/>
-      <c r="J302" s="21"/>
-      <c r="K302" s="22"/>
-      <c r="L302" s="23"/>
-      <c r="M302" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A303" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="B303" s="7"/>
-      <c r="C303" s="7"/>
-      <c r="D303" s="7"/>
-      <c r="E303" s="7"/>
-      <c r="F303" s="7"/>
-      <c r="G303" s="7"/>
-      <c r="H303" s="7"/>
-      <c r="I303" s="7"/>
-      <c r="J303" s="7"/>
-      <c r="K303" s="8"/>
-      <c r="L303" s="2" t="s">
+      <c r="M302" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A303" s="21"/>
+      <c r="B303" s="21"/>
+      <c r="C303" s="21"/>
+      <c r="D303" s="21"/>
+      <c r="E303" s="21"/>
+      <c r="F303" s="21"/>
+      <c r="G303" s="21"/>
+      <c r="H303" s="21"/>
+      <c r="I303" s="21"/>
+      <c r="J303" s="21"/>
+      <c r="K303" s="22"/>
+      <c r="L303" s="23"/>
+      <c r="M303" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A304" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="M303" s="25" t="str">
-        <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
-        <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A304" s="7"/>
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
       <c r="D304" s="7"/>
@@ -14917,9 +14932,12 @@
       <c r="I304" s="7"/>
       <c r="J304" s="7"/>
       <c r="K304" s="8"/>
-      <c r="L304" s="2"/>
-      <c r="M304" s="13" t="s">
-        <v>171</v>
+      <c r="L304" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="M304" s="25" t="str">
+        <f>HYPERLINK("https://msdn.microsoft.com/ja-jp/library/office/ff197461.aspx","sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...")</f>
+        <v>sShtcutKey＝Shift:+,Ctrl:^,Alt:%,...</v>
       </c>
     </row>
     <row r="305" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
@@ -18152,48 +18170,64 @@
         <v>171</v>
       </c>
     </row>
-    <row r="495" spans="1:13" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A495" s="9" t="s">
+    <row r="495" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A495" s="7"/>
+      <c r="B495" s="7"/>
+      <c r="C495" s="7"/>
+      <c r="D495" s="7"/>
+      <c r="E495" s="7"/>
+      <c r="F495" s="7"/>
+      <c r="G495" s="7"/>
+      <c r="H495" s="7"/>
+      <c r="I495" s="7"/>
+      <c r="J495" s="7"/>
+      <c r="K495" s="8"/>
+      <c r="L495" s="2"/>
+      <c r="M495" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" ht="5.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A496" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B495" s="9" t="s">
+      <c r="B496" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C495" s="9" t="s">
+      <c r="C496" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D495" s="9" t="s">
+      <c r="D496" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E495" s="9" t="s">
+      <c r="E496" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F495" s="9" t="s">
+      <c r="F496" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="G495" s="9" t="s">
+      <c r="G496" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="H495" s="9" t="s">
+      <c r="H496" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="I495" s="9" t="s">
+      <c r="I496" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="J495" s="9" t="s">
+      <c r="J496" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="K495" s="10" t="s">
+      <c r="K496" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="L495" s="3" t="s">
+      <c r="L496" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="M495" s="14" t="s">
+      <c r="M496" s="14" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="496" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="497" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="498" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="499" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18202,8 +18236,9 @@
     <row r="502" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="503" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="504" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <autoFilter ref="A1:M495" xr:uid="{84F79218-22F9-4493-B22D-1CD9745B86E9}"/>
+  <autoFilter ref="A1:M496" xr:uid="{84F79218-22F9-4493-B22D-1CD9745B86E9}"/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>

--- a/構文.xlsx
+++ b/構文.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AF6CE7-01AE-4672-A2F9-1F1F5436D418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82E44CD-3254-4B89-8DA7-3C0C186B20C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21720" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8232,14 +8232,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE88FAF-CBE5-4D11-9E2A-3AD9DCB1A658}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M505"/>
+  <dimension ref="A1:M508"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L214" activePane="bottomRight" state="frozen"/>
       <selection activeCell="N251" sqref="N251"/>
       <selection pane="topRight" activeCell="N251" sqref="N251"/>
       <selection pane="bottomLeft" activeCell="N251" sqref="N251"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="10.199999999999999" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -13185,7 +13185,7 @@
     </row>
     <row r="224" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="7" t="s">
-        <v>321</v>
+        <v>465</v>
       </c>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -13197,17 +13197,16 @@
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
       <c r="K224" s="8"/>
-      <c r="L224" s="2" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
-        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
+      <c r="L224" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="M224" s="13" t="s">
-        <v>171</v>
+        <v>471</v>
       </c>
     </row>
     <row r="225" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="7" t="s">
-        <v>322</v>
+        <v>466</v>
       </c>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -13219,17 +13218,16 @@
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
       <c r="K225" s="8"/>
-      <c r="L225" s="2" t="str">
-        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
-        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
+      <c r="L225" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="M225" s="13" t="s">
-        <v>171</v>
+        <v>469</v>
       </c>
     </row>
     <row r="226" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="7" t="s">
-        <v>323</v>
+        <v>467</v>
       </c>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
@@ -13241,17 +13239,16 @@
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
       <c r="K226" s="8"/>
-      <c r="L226" s="2" t="str">
-        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
-        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
+      <c r="L226" s="2" t="s">
+        <v>468</v>
       </c>
       <c r="M226" s="13" t="s">
-        <v>171</v>
+        <v>470</v>
       </c>
     </row>
     <row r="227" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
@@ -13264,8 +13261,8 @@
       <c r="J227" s="7"/>
       <c r="K227" s="8"/>
       <c r="L227" s="2" t="str">
-        <f>".Range(""A1:A2"").ClearContents"</f>
-        <v>.Range("A1:A2").ClearContents</v>
+        <f>".Range(.Cells(1, 1), .Cells(6, 3))"</f>
+        <v>.Range(.Cells(1, 1), .Cells(6, 3))</v>
       </c>
       <c r="M227" s="13" t="s">
         <v>171</v>
@@ -13273,7 +13270,7 @@
     </row>
     <row r="228" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
@@ -13286,8 +13283,8 @@
       <c r="J228" s="7"/>
       <c r="K228" s="8"/>
       <c r="L228" s="2" t="str">
-        <f>".Range(""A1:A2"").ClearFormats"</f>
-        <v>.Range("A1:A2").ClearFormats</v>
+        <f>".Range(""A1:B9"").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range(""B1"")"</f>
+        <v>.Range("A1:B9").Copy Destination:=ThisWorkBook.Sheets(シート名２).Range("B1")</v>
       </c>
       <c r="M228" s="13" t="s">
         <v>171</v>
@@ -13295,7 +13292,7 @@
     </row>
     <row r="229" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -13308,16 +13305,16 @@
       <c r="J229" s="7"/>
       <c r="K229" s="8"/>
       <c r="L229" s="2" t="str">
-        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
-        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
+        <f>".Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending"</f>
+        <v>.Range(.Cells(1, 1), .Cells(.Rows.Count, 2)).Sort Key1:=.Cells(1, 2) ,order1:=xlAscending</v>
       </c>
       <c r="M229" s="13" t="s">
-        <v>312</v>
+        <v>171</v>
       </c>
     </row>
     <row r="230" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -13330,8 +13327,8 @@
       <c r="J230" s="7"/>
       <c r="K230" s="8"/>
       <c r="L230" s="2" t="str">
-        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
-        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
+        <f>".Range(""A1:A2"").ClearContents"</f>
+        <v>.Range("A1:A2").ClearContents</v>
       </c>
       <c r="M230" s="13" t="s">
         <v>171</v>
@@ -13339,7 +13336,7 @@
     </row>
     <row r="231" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -13352,16 +13349,16 @@
       <c r="J231" s="7"/>
       <c r="K231" s="8"/>
       <c r="L231" s="2" t="str">
-        <f>".Range(""A1"").ColumnWidth = 5"</f>
-        <v>.Range("A1").ColumnWidth = 5</v>
+        <f>".Range(""A1:A2"").ClearFormats"</f>
+        <v>.Range("A1:A2").ClearFormats</v>
       </c>
       <c r="M231" s="13" t="s">
-        <v>443</v>
+        <v>171</v>
       </c>
     </row>
     <row r="232" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -13374,16 +13371,16 @@
       <c r="J232" s="7"/>
       <c r="K232" s="8"/>
       <c r="L232" s="2" t="str">
-        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
-        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
+        <f>".Range(""A1:A2"").PasteSpecial (xlPasteFormats)"</f>
+        <v>.Range("A1:A2").PasteSpecial (xlPasteFormats)</v>
       </c>
       <c r="M232" s="13" t="s">
-        <v>444</v>
+        <v>312</v>
       </c>
     </row>
     <row r="233" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -13396,16 +13393,16 @@
       <c r="J233" s="7"/>
       <c r="K233" s="8"/>
       <c r="L233" s="2" t="str">
-        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
-        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
+        <f>".Range(""A1:CV100"").SpecialCells(xlCellTypeBlanks).Select"</f>
+        <v>.Range("A1:CV100").SpecialCells(xlCellTypeBlanks).Select</v>
       </c>
       <c r="M233" s="13" t="s">
-        <v>444</v>
+        <v>171</v>
       </c>
     </row>
     <row r="234" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -13418,16 +13415,16 @@
       <c r="J234" s="7"/>
       <c r="K234" s="8"/>
       <c r="L234" s="2" t="str">
-        <f>"Application.CutCopyMode = False"</f>
-        <v>Application.CutCopyMode = False</v>
+        <f>".Range(""A1"").ColumnWidth = 5"</f>
+        <v>.Range("A1").ColumnWidth = 5</v>
       </c>
       <c r="M234" s="13" t="s">
-        <v>171</v>
+        <v>443</v>
       </c>
     </row>
     <row r="235" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -13440,16 +13437,16 @@
       <c r="J235" s="7"/>
       <c r="K235" s="8"/>
       <c r="L235" s="2" t="str">
-        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
-        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
+        <f>".Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit"</f>
+        <v>.Range(.Cells(4, 2), .Cells(9, 2)).Columns.AutoFit</v>
       </c>
       <c r="M235" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="236" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -13462,16 +13459,16 @@
       <c r="J236" s="7"/>
       <c r="K236" s="8"/>
       <c r="L236" s="2" t="str">
-        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
-        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
+        <f>".Sheets(シート名).UsedRange.Columns.AutoFit"</f>
+        <v>.Sheets(シート名).UsedRange.Columns.AutoFit</v>
       </c>
       <c r="M236" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="237" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -13484,8 +13481,8 @@
       <c r="J237" s="7"/>
       <c r="K237" s="8"/>
       <c r="L237" s="2" t="str">
-        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
-        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
+        <f>"Application.CutCopyMode = False"</f>
+        <v>Application.CutCopyMode = False</v>
       </c>
       <c r="M237" s="13" t="s">
         <v>171</v>
@@ -13493,7 +13490,7 @@
     </row>
     <row r="238" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
@@ -13506,16 +13503,16 @@
       <c r="J238" s="7"/>
       <c r="K238" s="8"/>
       <c r="L238" s="2" t="str">
-        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
-        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
+        <f>".Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group"</f>
+        <v>.Range( .Rows( lStrtRow ), .Rows( lLastRow ) ).Group</v>
       </c>
       <c r="M238" s="13" t="s">
-        <v>171</v>
+        <v>445</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -13528,16 +13525,16 @@
       <c r="J239" s="7"/>
       <c r="K239" s="8"/>
       <c r="L239" s="2" t="str">
-        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
-        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
+        <f>".Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group"</f>
+        <v>.Range( .Columns( lStrtRow ), .Columns( lLastRow ) ).Group</v>
       </c>
       <c r="M239" s="13" t="s">
-        <v>171</v>
+        <v>445</v>
       </c>
     </row>
     <row r="240" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
@@ -13550,8 +13547,8 @@
       <c r="J240" s="7"/>
       <c r="K240" s="8"/>
       <c r="L240" s="2" t="str">
-        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
-        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
+        <f>".Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )"</f>
+        <v>.Sheets(シート名).Outline.SummaryRow = ( xlBelow \| xlAbove )</v>
       </c>
       <c r="M240" s="13" t="s">
         <v>171</v>
@@ -13559,7 +13556,7 @@
     </row>
     <row r="241" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
@@ -13572,9 +13569,8 @@
       <c r="J241" s="7"/>
       <c r="K241" s="8"/>
       <c r="L241" s="2" t="str">
-        <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
-        <v>.Rows(行).Select
-ActiveWindow.FreezePanes = True</v>
+        <f>".Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )"</f>
+        <v>.Sheets(シート名).Outline.SummaryColumn = ( xlRight \| xlLeft )</v>
       </c>
       <c r="M241" s="13" t="s">
         <v>171</v>
@@ -13582,7 +13578,7 @@
     </row>
     <row r="242" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
@@ -13595,9 +13591,8 @@
       <c r="J242" s="7"/>
       <c r="K242" s="8"/>
       <c r="L242" s="2" t="str">
-        <f>".Columns(列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
-        <v>.Columns(列).Select
-ActiveWindow.FreezePanes = True</v>
+        <f>".Sheets(シート名).Outline.AutomaticStyles = ( True \| False )"</f>
+        <v>.Sheets(シート名).Outline.AutomaticStyles = ( True \| False )</v>
       </c>
       <c r="M242" s="13" t="s">
         <v>171</v>
@@ -13605,7 +13600,7 @@
     </row>
     <row r="243" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
@@ -13618,9 +13613,8 @@
       <c r="J243" s="7"/>
       <c r="K243" s="8"/>
       <c r="L243" s="2" t="str">
-        <f>".Cells(行,列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
-        <v>.Cells(行,列).Select
-ActiveWindow.FreezePanes = True</v>
+        <f>".Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter"</f>
+        <v>.Range(.Cells(lStrtRow, lStrtClm), .Cells(lLastRow, lLastClm)).AutoFilter</v>
       </c>
       <c r="M243" s="13" t="s">
         <v>171</v>
@@ -13628,7 +13622,7 @@
     </row>
     <row r="244" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
@@ -13641,8 +13635,9 @@
       <c r="J244" s="7"/>
       <c r="K244" s="8"/>
       <c r="L244" s="2" t="str">
-        <f>"ActiveWindow.FreezePanes = False"</f>
-        <v>ActiveWindow.FreezePanes = False</v>
+        <f>".Rows(行).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
+        <v>.Rows(行).Select
+ActiveWindow.FreezePanes = True</v>
       </c>
       <c r="M244" s="13" t="s">
         <v>171</v>
@@ -13650,7 +13645,7 @@
     </row>
     <row r="245" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="7" t="s">
-        <v>465</v>
+        <v>337</v>
       </c>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
@@ -13662,16 +13657,18 @@
       <c r="I245" s="7"/>
       <c r="J245" s="7"/>
       <c r="K245" s="8"/>
-      <c r="L245" s="2" t="s">
-        <v>463</v>
+      <c r="L245" s="2" t="str">
+        <f>".Columns(列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
+        <v>.Columns(列).Select
+ActiveWindow.FreezePanes = True</v>
       </c>
       <c r="M245" s="13" t="s">
-        <v>471</v>
+        <v>171</v>
       </c>
     </row>
     <row r="246" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="7" t="s">
-        <v>466</v>
+        <v>338</v>
       </c>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
@@ -13683,16 +13680,18 @@
       <c r="I246" s="7"/>
       <c r="J246" s="7"/>
       <c r="K246" s="8"/>
-      <c r="L246" s="2" t="s">
-        <v>464</v>
+      <c r="L246" s="2" t="str">
+        <f>".Cells(行,列).Select"&amp;CHAR(10)&amp;"ActiveWindow.FreezePanes = True"</f>
+        <v>.Cells(行,列).Select
+ActiveWindow.FreezePanes = True</v>
       </c>
       <c r="M246" s="13" t="s">
-        <v>469</v>
+        <v>171</v>
       </c>
     </row>
     <row r="247" spans="1:13" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="7" t="s">
-        <v>467</v>
+        <v>339</v>
       </c>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
@@ -13704,11 +13703,12 @@
       <c r="I247" s="7"/>
       <c r="J247" s="7"/>
       <c r="K247" s="8"/>
-      <c r="L247" s="2" t="s">
-        <v>468</v>
+      <c r="L247" s="2" t="str">
+        <f>"ActiveWindow.FreezePanes = False"</f>
+        <v>ActiveWindow.FreezePanes = False</v>
       </c>
       <c r="M247" s="13" t="s">
-        <v>470</v>
+        <v>171</v>
       </c>
     </row>
     <row r="248" spans="1:13" s="19" customFormat="1" ht="4.2" customHeight="1" x14ac:dyDescent="0.15">
@@ -18237,6 +18237,9 @@
     <row r="503" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="504" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="505" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:M496" xr:uid="{84F79218-22F9-4493-B22D-1CD9745B86E9}"/>
   <phoneticPr fontId="3"/>
